--- a/jobb/Bröllopsfest.xlsx
+++ b/jobb/Bröllopsfest.xlsx
@@ -531,6 +531,148 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>6</col>
+      <colOff>733425</colOff>
+      <row>5</row>
+      <rowOff>209550</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Picture 2"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="542925"/>
+          <a:ext cx="1609725" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>1</col>
+      <colOff>19050</colOff>
+      <row>5</row>
+      <rowOff>466725</rowOff>
+    </from>
+    <to>
+      <col>2</col>
+      <colOff>542925</colOff>
+      <row>13</row>
+      <rowOff>9525</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Picture 7"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="285750" y="1485900"/>
+          <a:ext cx="1038225" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2705100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2705100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -728,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
@@ -977,7 +1119,7 @@
       <c r="B9" s="35" t="n"/>
       <c r="D9" s="35" t="n"/>
       <c r="F9" s="35" t="n">
-        <v>187776</v>
+        <v>268841</v>
       </c>
       <c r="H9" s="5" t="n"/>
       <c r="I9" s="5" t="n"/>
@@ -1132,7 +1274,7 @@
         </is>
       </c>
       <c r="E15" s="12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="12" t="n"/>
       <c r="G15" s="12" t="inlineStr">
@@ -1200,7 +1342,7 @@
         </is>
       </c>
       <c r="E17" s="23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F17" s="24" t="n"/>
       <c r="G17" s="15" t="n">
@@ -1233,7 +1375,7 @@
         </is>
       </c>
       <c r="E18" s="21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F18" s="22" t="n"/>
       <c r="G18" s="13" t="n">
@@ -1266,7 +1408,7 @@
         </is>
       </c>
       <c r="E19" s="23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" s="24" t="n"/>
       <c r="G19" s="15" t="n">
@@ -1295,7 +1437,7 @@
       <c r="A20" s="10" t="n"/>
       <c r="B20" s="43" t="n"/>
       <c r="E20" s="21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F20" s="22" t="n"/>
       <c r="G20" s="13" t="n"/>
@@ -1326,7 +1468,7 @@
         </is>
       </c>
       <c r="E21" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="25" t="n"/>
       <c r="G21" s="26" t="n">
@@ -1359,7 +1501,7 @@
         </is>
       </c>
       <c r="E22" s="23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="28" t="n">
@@ -1392,7 +1534,7 @@
         </is>
       </c>
       <c r="E23" s="21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F23" s="25" t="n"/>
       <c r="G23" s="26" t="n">
@@ -1425,7 +1567,7 @@
         </is>
       </c>
       <c r="E24" s="23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="28" t="n">
@@ -1458,7 +1600,7 @@
         </is>
       </c>
       <c r="E25" s="21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F25" s="25" t="n"/>
       <c r="G25" s="26" t="n">
@@ -1491,7 +1633,7 @@
         </is>
       </c>
       <c r="E26" s="23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F26" s="27" t="n"/>
       <c r="G26" s="28" t="n">
@@ -27740,5 +27882,6 @@
   </mergeCells>
   <pageMargins left="1" right="1" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/jobb/Bröllopsfest.xlsx
+++ b/jobb/Bröllopsfest.xlsx
@@ -19,7 +19,7 @@
     <numFmt numFmtId="164" formatCode="#,##0[$ kr]"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -68,10 +68,6 @@
       <b val="1"/>
       <color rgb="FF434343"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Roboto"/>
@@ -151,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -175,19 +171,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -293,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -318,28 +301,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -369,92 +352,78 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,133 +502,21 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
+  <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <to>
-      <col>6</col>
-      <colOff>733425</colOff>
-      <row>5</row>
-      <rowOff>209550</rowOff>
-    </to>
+    <ext cx="828675" cy="933450"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Picture 2"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="3048000" y="542925"/>
-          <a:ext cx="1609725" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>1</col>
-      <colOff>19050</colOff>
-      <row>5</row>
-      <rowOff>466725</rowOff>
-    </from>
-    <to>
-      <col>2</col>
-      <colOff>542925</colOff>
-      <row>13</row>
-      <rowOff>9525</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Picture 7"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="285750" y="1485900"/>
-          <a:ext cx="1038225" cy="1362075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2381250" cy="2705100"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2381250" cy="2705100"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -883,15 +740,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="4" customWidth="1" style="52" min="1" max="1"/>
-    <col width="7.7109375" customWidth="1" style="52" min="2" max="2"/>
-    <col width="16.42578125" customWidth="1" style="52" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="52" min="4" max="4"/>
-    <col width="6.140625" customWidth="1" style="52" min="5" max="5"/>
-    <col width="13.140625" customWidth="1" style="52" min="6" max="7"/>
+    <col width="4" customWidth="1" style="51" min="1" max="1"/>
+    <col width="7.7109375" customWidth="1" style="51" min="2" max="2"/>
+    <col width="16.42578125" customWidth="1" style="51" min="3" max="3"/>
+    <col width="11.42578125" customWidth="1" style="51" min="4" max="4"/>
+    <col width="6.140625" customWidth="1" style="51" min="5" max="5"/>
+    <col width="13.140625" customWidth="1" style="51" min="6" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="6" customHeight="1" s="52">
+    <row r="1" ht="6" customHeight="1" s="51">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="n"/>
@@ -918,7 +775,7 @@
       <c r="X1" s="5" t="n"/>
       <c r="Y1" s="5" t="n"/>
     </row>
-    <row r="2" ht="11.25" customHeight="1" s="52">
+    <row r="2" ht="11.25" customHeight="1" s="51">
       <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="n"/>
       <c r="C2" s="3" t="n"/>
@@ -945,7 +802,7 @@
       <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
     </row>
-    <row r="3" ht="25.5" customHeight="1" s="52">
+    <row r="3" ht="25.5" customHeight="1" s="51">
       <c r="A3" s="5" t="n"/>
       <c r="B3" s="6" t="inlineStr">
         <is>
@@ -974,16 +831,16 @@
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="52">
+    <row r="4" ht="15.75" customHeight="1" s="51">
       <c r="A4" s="5" t="n"/>
-      <c r="B4" s="38" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve"> Lekullevägen 8</t>
         </is>
       </c>
-      <c r="E4" s="36" t="n"/>
-      <c r="F4" s="36" t="n"/>
-      <c r="G4" s="36" t="n"/>
+      <c r="E4" s="48" t="n"/>
+      <c r="F4" s="48" t="n"/>
+      <c r="G4" s="48" t="n"/>
       <c r="H4" s="5" t="n"/>
       <c r="I4" s="5" t="n"/>
       <c r="J4" s="5" t="n"/>
@@ -1003,16 +860,16 @@
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="5" t="n"/>
     </row>
-    <row r="5" ht="21.75" customHeight="1" s="52">
+    <row r="5" ht="21.75" customHeight="1" s="51">
       <c r="A5" s="5" t="n"/>
       <c r="B5" s="39" t="inlineStr">
         <is>
           <t xml:space="preserve"> Askim, Göteborg</t>
         </is>
       </c>
-      <c r="E5" s="36" t="n"/>
-      <c r="F5" s="36" t="n"/>
-      <c r="G5" s="36" t="n"/>
+      <c r="E5" s="48" t="n"/>
+      <c r="F5" s="48" t="n"/>
+      <c r="G5" s="48" t="n"/>
       <c r="H5" s="5" t="n"/>
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
@@ -1032,9 +889,9 @@
       <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
     </row>
-    <row r="6" ht="39" customHeight="1" s="52">
+    <row r="6" ht="39" customHeight="1" s="51">
       <c r="A6" s="10" t="n"/>
-      <c r="B6" s="40" t="inlineStr">
+      <c r="B6" s="47" t="inlineStr">
         <is>
           <t>Bröllopsfest</t>
         </is>
@@ -1060,13 +917,13 @@
       <c r="X6" s="5" t="n"/>
       <c r="Y6" s="5" t="n"/>
     </row>
-    <row r="7" ht="11.25" customHeight="1" s="52">
+    <row r="7" ht="11.25" customHeight="1" s="51">
       <c r="A7" s="10" t="n"/>
-      <c r="B7" s="41" t="n"/>
-      <c r="D7" s="35" t="n"/>
-      <c r="E7" s="35" t="n"/>
-      <c r="F7" s="35" t="n"/>
-      <c r="G7" s="35" t="n"/>
+      <c r="B7" s="50" t="n"/>
+      <c r="D7" s="40" t="n"/>
+      <c r="E7" s="40" t="n"/>
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="40" t="n"/>
       <c r="H7" s="5" t="n"/>
       <c r="I7" s="5" t="n"/>
       <c r="J7" s="5" t="n"/>
@@ -1086,15 +943,15 @@
       <c r="X7" s="5" t="n"/>
       <c r="Y7" s="5" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" s="52">
+    <row r="8" ht="18" customHeight="1" s="51">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="34" t="n"/>
-      <c r="D8" s="34" t="inlineStr">
+      <c r="B8" s="43" t="n"/>
+      <c r="D8" s="43" t="n"/>
+      <c r="F8" s="43" t="inlineStr">
         <is>
-          <t>Faktura</t>
+          <t>Fakturanummer #</t>
         </is>
       </c>
-      <c r="F8" s="34" t="n"/>
       <c r="H8" s="5" t="n"/>
       <c r="I8" s="5" t="n"/>
       <c r="J8" s="5" t="n"/>
@@ -1114,12 +971,12 @@
       <c r="X8" s="5" t="n"/>
       <c r="Y8" s="5" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" s="52">
+    <row r="9" ht="18" customHeight="1" s="51">
       <c r="A9" s="10" t="n"/>
-      <c r="B9" s="35" t="n"/>
-      <c r="D9" s="35" t="n"/>
-      <c r="F9" s="35" t="n">
-        <v>268841</v>
+      <c r="B9" s="40" t="n"/>
+      <c r="D9" s="40" t="n"/>
+      <c r="F9" s="40" t="n">
+        <v>540560</v>
       </c>
       <c r="H9" s="5" t="n"/>
       <c r="I9" s="5" t="n"/>
@@ -1140,11 +997,11 @@
       <c r="X9" s="5" t="n"/>
       <c r="Y9" s="5" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" s="52">
+    <row r="10" ht="18" customHeight="1" s="51">
       <c r="A10" s="10" t="n"/>
-      <c r="B10" s="35" t="n"/>
-      <c r="D10" s="34" t="n"/>
-      <c r="F10" s="34" t="n"/>
+      <c r="B10" s="40" t="n"/>
+      <c r="D10" s="43" t="n"/>
+      <c r="F10" s="43" t="n"/>
       <c r="H10" s="5" t="n"/>
       <c r="I10" s="5" t="n"/>
       <c r="J10" s="5" t="n"/>
@@ -1164,11 +1021,11 @@
       <c r="X10" s="5" t="n"/>
       <c r="Y10" s="5" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1" s="52">
+    <row r="11" ht="18" customHeight="1" s="51">
       <c r="A11" s="10" t="n"/>
-      <c r="B11" s="35" t="n"/>
-      <c r="D11" s="35" t="n"/>
-      <c r="F11" s="35" t="n"/>
+      <c r="B11" s="40" t="n"/>
+      <c r="D11" s="40" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="H11" s="5" t="n"/>
       <c r="I11" s="5" t="n"/>
       <c r="J11" s="5" t="n"/>
@@ -1188,11 +1045,11 @@
       <c r="X11" s="5" t="n"/>
       <c r="Y11" s="5" t="n"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="52">
+    <row r="12" ht="12.75" customHeight="1" s="51">
       <c r="A12" s="10" t="n"/>
-      <c r="B12" s="36" t="n"/>
-      <c r="D12" s="35" t="n"/>
-      <c r="F12" s="44" t="n"/>
+      <c r="B12" s="48" t="n"/>
+      <c r="D12" s="40" t="n"/>
+      <c r="F12" s="49" t="n"/>
       <c r="H12" s="5" t="n"/>
       <c r="I12" s="5" t="n"/>
       <c r="J12" s="5" t="n"/>
@@ -1212,14 +1069,14 @@
       <c r="X12" s="5" t="n"/>
       <c r="Y12" s="5" t="n"/>
     </row>
-    <row r="13" ht="8.25" customHeight="1" s="52">
+    <row r="13" ht="8.25" customHeight="1" s="51">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="37" t="n"/>
-      <c r="C13" s="60" t="n"/>
-      <c r="D13" s="37" t="n"/>
-      <c r="E13" s="60" t="n"/>
-      <c r="F13" s="37" t="n"/>
-      <c r="G13" s="60" t="n"/>
+      <c r="B13" s="42" t="n"/>
+      <c r="C13" s="52" t="n"/>
+      <c r="D13" s="42" t="n"/>
+      <c r="E13" s="52" t="n"/>
+      <c r="F13" s="42" t="n"/>
+      <c r="G13" s="52" t="n"/>
       <c r="H13" s="5" t="n"/>
       <c r="I13" s="5" t="n"/>
       <c r="J13" s="5" t="n"/>
@@ -1239,14 +1096,14 @@
       <c r="X13" s="5" t="n"/>
       <c r="Y13" s="5" t="n"/>
     </row>
-    <row r="14" ht="10.5" customHeight="1" s="52">
+    <row r="14" ht="10.5" customHeight="1" s="51">
       <c r="A14" s="10" t="n"/>
-      <c r="B14" s="36" t="n"/>
-      <c r="C14" s="36" t="n"/>
-      <c r="D14" s="36" t="n"/>
-      <c r="E14" s="36" t="n"/>
-      <c r="F14" s="36" t="n"/>
-      <c r="G14" s="36" t="n"/>
+      <c r="B14" s="48" t="n"/>
+      <c r="C14" s="48" t="n"/>
+      <c r="D14" s="48" t="n"/>
+      <c r="E14" s="48" t="n"/>
+      <c r="F14" s="48" t="n"/>
+      <c r="G14" s="48" t="n"/>
       <c r="H14" s="5" t="n"/>
       <c r="I14" s="5" t="n"/>
       <c r="J14" s="5" t="n"/>
@@ -1266,15 +1123,15 @@
       <c r="X14" s="5" t="n"/>
       <c r="Y14" s="5" t="n"/>
     </row>
-    <row r="15" ht="24" customHeight="1" s="52">
+    <row r="15" ht="24" customHeight="1" s="51">
       <c r="A15" s="10" t="n"/>
-      <c r="B15" s="42" t="inlineStr">
+      <c r="B15" s="46" t="inlineStr">
         <is>
           <t>Vara</t>
         </is>
       </c>
       <c r="E15" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="12" t="n"/>
       <c r="G15" s="12" t="inlineStr">
@@ -1301,15 +1158,15 @@
       <c r="X15" s="5" t="n"/>
       <c r="Y15" s="5" t="n"/>
     </row>
-    <row r="16" ht="19.5" customHeight="1" s="52">
+    <row r="16" ht="19.5" customHeight="1" s="51">
       <c r="A16" s="10" t="n"/>
-      <c r="B16" s="43" t="inlineStr">
+      <c r="B16" s="37" t="inlineStr">
         <is>
           <t>Cider</t>
         </is>
       </c>
       <c r="E16" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="22" t="n"/>
       <c r="G16" s="13" t="n">
@@ -1334,15 +1191,15 @@
       <c r="X16" s="5" t="n"/>
       <c r="Y16" s="5" t="n"/>
     </row>
-    <row r="17" ht="19.5" customHeight="1" s="52">
+    <row r="17" ht="19.5" customHeight="1" s="51">
       <c r="A17" s="14" t="n"/>
-      <c r="B17" s="46" t="inlineStr">
+      <c r="B17" s="45" t="inlineStr">
         <is>
           <t>Kaffe</t>
         </is>
       </c>
       <c r="E17" s="23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" s="24" t="n"/>
       <c r="G17" s="15" t="n">
@@ -1367,15 +1224,15 @@
       <c r="X17" s="5" t="n"/>
       <c r="Y17" s="5" t="n"/>
     </row>
-    <row r="18" ht="19.5" customHeight="1" s="52">
+    <row r="18" ht="19.5" customHeight="1" s="51">
       <c r="A18" s="14" t="n"/>
-      <c r="B18" s="43" t="inlineStr">
+      <c r="B18" s="37" t="inlineStr">
         <is>
           <t>Tårta</t>
         </is>
       </c>
       <c r="E18" s="21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F18" s="22" t="n"/>
       <c r="G18" s="13" t="n">
@@ -1400,15 +1257,15 @@
       <c r="X18" s="5" t="n"/>
       <c r="Y18" s="5" t="n"/>
     </row>
-    <row r="19" ht="19.5" customHeight="1" s="52">
+    <row r="19" ht="19.5" customHeight="1" s="51">
       <c r="A19" s="10" t="n"/>
-      <c r="B19" s="46" t="inlineStr">
+      <c r="B19" s="45" t="inlineStr">
         <is>
           <t>Städning</t>
         </is>
       </c>
       <c r="E19" s="23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F19" s="24" t="n"/>
       <c r="G19" s="15" t="n">
@@ -1433,11 +1290,11 @@
       <c r="X19" s="5" t="n"/>
       <c r="Y19" s="5" t="n"/>
     </row>
-    <row r="20" hidden="1" ht="19.5" customHeight="1" s="52">
+    <row r="20" hidden="1" ht="19.5" customHeight="1" s="51">
       <c r="A20" s="10" t="n"/>
-      <c r="B20" s="43" t="n"/>
+      <c r="B20" s="37" t="n"/>
       <c r="E20" s="21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="22" t="n"/>
       <c r="G20" s="13" t="n"/>
@@ -1460,15 +1317,15 @@
       <c r="X20" s="5" t="n"/>
       <c r="Y20" s="5" t="n"/>
     </row>
-    <row r="21" ht="19.5" customHeight="1" s="52">
+    <row r="21" ht="19.5" customHeight="1" s="51">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="47" t="inlineStr">
+      <c r="B21" s="36" t="inlineStr">
         <is>
           <t>Småkakor</t>
         </is>
       </c>
       <c r="E21" s="21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F21" s="25" t="n"/>
       <c r="G21" s="26" t="n">
@@ -1493,15 +1350,15 @@
       <c r="X21" s="5" t="n"/>
       <c r="Y21" s="5" t="n"/>
     </row>
-    <row r="22" ht="19.5" customHeight="1" s="52">
+    <row r="22" ht="19.5" customHeight="1" s="51">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="48" t="inlineStr">
+      <c r="B22" s="35" t="inlineStr">
         <is>
           <t>Vishäften</t>
         </is>
       </c>
       <c r="E22" s="23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="28" t="n">
@@ -1526,15 +1383,15 @@
       <c r="X22" s="5" t="n"/>
       <c r="Y22" s="5" t="n"/>
     </row>
-    <row r="23" ht="19.5" customHeight="1" s="52">
+    <row r="23" ht="19.5" customHeight="1" s="51">
       <c r="A23" s="16" t="n"/>
-      <c r="B23" s="47" t="inlineStr">
+      <c r="B23" s="36" t="inlineStr">
         <is>
           <t>Servetter</t>
         </is>
       </c>
       <c r="E23" s="21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F23" s="25" t="n"/>
       <c r="G23" s="26" t="n">
@@ -1559,15 +1416,15 @@
       <c r="X23" s="5" t="n"/>
       <c r="Y23" s="5" t="n"/>
     </row>
-    <row r="24" ht="19.5" customHeight="1" s="52">
-      <c r="A24" s="36" t="n"/>
-      <c r="B24" s="48" t="inlineStr">
+    <row r="24" ht="19.5" customHeight="1" s="51">
+      <c r="A24" s="48" t="n"/>
+      <c r="B24" s="35" t="inlineStr">
         <is>
           <t>Pynt</t>
         </is>
       </c>
       <c r="E24" s="23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="28" t="n">
@@ -1592,15 +1449,15 @@
       <c r="X24" s="5" t="n"/>
       <c r="Y24" s="5" t="n"/>
     </row>
-    <row r="25" ht="19.5" customHeight="1" s="52">
+    <row r="25" ht="19.5" customHeight="1" s="51">
       <c r="A25" s="29" t="n"/>
-      <c r="B25" s="47" t="inlineStr">
+      <c r="B25" s="36" t="inlineStr">
         <is>
           <t>Blommor</t>
         </is>
       </c>
       <c r="E25" s="21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" s="25" t="n"/>
       <c r="G25" s="26" t="n">
@@ -1625,15 +1482,15 @@
       <c r="X25" s="5" t="n"/>
       <c r="Y25" s="5" t="n"/>
     </row>
-    <row r="26" ht="19.5" customHeight="1" s="52">
+    <row r="26" ht="19.5" customHeight="1" s="51">
       <c r="A26" s="29" t="n"/>
-      <c r="B26" s="48" t="inlineStr">
+      <c r="B26" s="35" t="inlineStr">
         <is>
           <t>Tilltugg</t>
         </is>
       </c>
       <c r="E26" s="23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="27" t="n"/>
       <c r="G26" s="28" t="n">
@@ -1658,9 +1515,9 @@
       <c r="X26" s="5" t="n"/>
       <c r="Y26" s="5" t="n"/>
     </row>
-    <row r="27" ht="19.5" customHeight="1" s="52">
+    <row r="27" ht="19.5" customHeight="1" s="51">
       <c r="A27" s="29" t="n"/>
-      <c r="B27" s="47" t="inlineStr">
+      <c r="B27" s="36" t="inlineStr">
         <is>
           <t>Konfetti</t>
         </is>
@@ -1689,9 +1546,9 @@
       <c r="X27" s="5" t="n"/>
       <c r="Y27" s="5" t="n"/>
     </row>
-    <row r="28" ht="19.5" customHeight="1" s="52">
+    <row r="28" ht="19.5" customHeight="1" s="51">
       <c r="A28" s="29" t="n"/>
-      <c r="B28" s="48" t="inlineStr">
+      <c r="B28" s="35" t="inlineStr">
         <is>
           <t>Lokalhyra</t>
         </is>
@@ -1720,10 +1577,10 @@
       <c r="X28" s="5" t="n"/>
       <c r="Y28" s="5" t="n"/>
     </row>
-    <row r="29" ht="33" customHeight="1" s="52">
+    <row r="29" ht="33" customHeight="1" s="51">
       <c r="A29" s="29" t="n"/>
       <c r="B29" s="10" t="n"/>
-      <c r="C29" s="49" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="F29" s="17" t="n"/>
       <c r="G29" s="18" t="n"/>
       <c r="H29" s="5" t="n"/>
@@ -1745,7 +1602,7 @@
       <c r="X29" s="5" t="n"/>
       <c r="Y29" s="5" t="n"/>
     </row>
-    <row r="30" ht="28.5" customHeight="1" s="52">
+    <row r="30" ht="28.5" customHeight="1" s="51">
       <c r="A30" s="29" t="n"/>
       <c r="B30" s="10" t="n"/>
       <c r="C30" s="10" t="n"/>
@@ -1755,8 +1612,8 @@
           <t>Total:</t>
         </is>
       </c>
-      <c r="F30" s="61" t="n"/>
-      <c r="G30" s="62" t="n"/>
+      <c r="F30" s="44" t="n"/>
+      <c r="G30" s="53" t="n"/>
       <c r="H30" s="5" t="n"/>
       <c r="I30" s="5" t="n"/>
       <c r="J30" s="5" t="n"/>
@@ -1776,14 +1633,14 @@
       <c r="X30" s="5" t="n"/>
       <c r="Y30" s="5" t="n"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="52">
+    <row r="31" ht="15.75" customHeight="1" s="51">
       <c r="A31" s="29" t="n"/>
-      <c r="B31" s="49" t="n"/>
-      <c r="C31" s="49" t="n"/>
-      <c r="D31" s="49" t="n"/>
-      <c r="E31" s="49" t="n"/>
-      <c r="F31" s="49" t="n"/>
-      <c r="G31" s="49" t="n"/>
+      <c r="B31" s="38" t="n"/>
+      <c r="C31" s="38" t="n"/>
+      <c r="D31" s="38" t="n"/>
+      <c r="E31" s="38" t="n"/>
+      <c r="F31" s="38" t="n"/>
+      <c r="G31" s="38" t="n"/>
       <c r="H31" s="5" t="n"/>
       <c r="I31" s="5" t="n"/>
       <c r="J31" s="5" t="n"/>
@@ -1803,18 +1660,18 @@
       <c r="X31" s="5" t="n"/>
       <c r="Y31" s="5" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="52">
+    <row r="32" ht="15.75" customHeight="1" s="51">
       <c r="A32" s="29" t="n"/>
-      <c r="B32" s="49" t="n"/>
+      <c r="B32" s="38" t="n"/>
       <c r="C32" s="31" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="D32" s="63" t="n"/>
-      <c r="E32" s="64" t="n"/>
-      <c r="F32" s="64" t="n"/>
-      <c r="G32" s="65" t="n"/>
+      <c r="D32" s="34" t="n"/>
+      <c r="E32" s="54" t="n"/>
+      <c r="F32" s="54" t="n"/>
+      <c r="G32" s="55" t="n"/>
       <c r="H32" s="5" t="n"/>
       <c r="I32" s="5" t="n"/>
       <c r="J32" s="5" t="n"/>
@@ -1834,11 +1691,11 @@
       <c r="X32" s="5" t="n"/>
       <c r="Y32" s="5" t="n"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="52">
+    <row r="33" ht="15.75" customHeight="1" s="51">
       <c r="A33" s="29" t="n"/>
-      <c r="B33" s="49" t="n"/>
+      <c r="B33" s="38" t="n"/>
       <c r="C33" s="32" t="n"/>
-      <c r="G33" s="66" t="n"/>
+      <c r="G33" s="56" t="n"/>
       <c r="H33" s="5" t="n"/>
       <c r="I33" s="5" t="n"/>
       <c r="J33" s="5" t="n"/>
@@ -1858,14 +1715,14 @@
       <c r="X33" s="5" t="n"/>
       <c r="Y33" s="5" t="n"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="52">
+    <row r="34" ht="15.75" customHeight="1" s="51">
       <c r="A34" s="29" t="n"/>
-      <c r="B34" s="49" t="n"/>
+      <c r="B34" s="38" t="n"/>
       <c r="C34" s="33" t="n"/>
-      <c r="D34" s="67" t="n"/>
-      <c r="E34" s="67" t="n"/>
-      <c r="F34" s="67" t="n"/>
-      <c r="G34" s="68" t="n"/>
+      <c r="D34" s="57" t="n"/>
+      <c r="E34" s="57" t="n"/>
+      <c r="F34" s="57" t="n"/>
+      <c r="G34" s="58" t="n"/>
       <c r="H34" s="5" t="n"/>
       <c r="I34" s="5" t="n"/>
       <c r="J34" s="5" t="n"/>
@@ -1885,14 +1742,14 @@
       <c r="X34" s="5" t="n"/>
       <c r="Y34" s="5" t="n"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="52">
+    <row r="35" ht="15.75" customHeight="1" s="51">
       <c r="A35" s="29" t="n"/>
-      <c r="B35" s="49" t="n"/>
-      <c r="C35" s="49" t="n"/>
-      <c r="D35" s="49" t="n"/>
-      <c r="E35" s="49" t="n"/>
-      <c r="F35" s="49" t="n"/>
-      <c r="G35" s="49" t="n"/>
+      <c r="B35" s="38" t="n"/>
+      <c r="C35" s="38" t="n"/>
+      <c r="D35" s="38" t="n"/>
+      <c r="E35" s="38" t="n"/>
+      <c r="F35" s="38" t="n"/>
+      <c r="G35" s="38" t="n"/>
       <c r="H35" s="5" t="n"/>
       <c r="I35" s="5" t="n"/>
       <c r="J35" s="5" t="n"/>
@@ -1912,18 +1769,18 @@
       <c r="X35" s="5" t="n"/>
       <c r="Y35" s="5" t="n"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="52">
+    <row r="36" ht="15.75" customHeight="1" s="51">
       <c r="A36" s="29" t="n"/>
-      <c r="B36" s="49" t="n"/>
+      <c r="B36" s="38" t="n"/>
       <c r="C36" s="31" t="inlineStr">
         <is>
           <t>Signatur</t>
         </is>
       </c>
-      <c r="D36" s="63" t="n"/>
-      <c r="E36" s="64" t="n"/>
-      <c r="F36" s="64" t="n"/>
-      <c r="G36" s="65" t="n"/>
+      <c r="D36" s="34" t="n"/>
+      <c r="E36" s="54" t="n"/>
+      <c r="F36" s="54" t="n"/>
+      <c r="G36" s="55" t="n"/>
       <c r="H36" s="5" t="n"/>
       <c r="I36" s="5" t="n"/>
       <c r="J36" s="5" t="n"/>
@@ -1943,11 +1800,11 @@
       <c r="X36" s="5" t="n"/>
       <c r="Y36" s="5" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="52">
+    <row r="37" ht="15.75" customHeight="1" s="51">
       <c r="A37" s="29" t="n"/>
-      <c r="B37" s="49" t="n"/>
+      <c r="B37" s="38" t="n"/>
       <c r="C37" s="32" t="n"/>
-      <c r="G37" s="66" t="n"/>
+      <c r="G37" s="56" t="n"/>
       <c r="H37" s="5" t="n"/>
       <c r="I37" s="5" t="n"/>
       <c r="J37" s="5" t="n"/>
@@ -1967,14 +1824,14 @@
       <c r="X37" s="5" t="n"/>
       <c r="Y37" s="5" t="n"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="52">
+    <row r="38" ht="15.75" customHeight="1" s="51">
       <c r="A38" s="29" t="n"/>
-      <c r="B38" s="49" t="n"/>
+      <c r="B38" s="38" t="n"/>
       <c r="C38" s="33" t="n"/>
-      <c r="D38" s="67" t="n"/>
-      <c r="E38" s="67" t="n"/>
-      <c r="F38" s="67" t="n"/>
-      <c r="G38" s="68" t="n"/>
+      <c r="D38" s="57" t="n"/>
+      <c r="E38" s="57" t="n"/>
+      <c r="F38" s="57" t="n"/>
+      <c r="G38" s="58" t="n"/>
       <c r="H38" s="5" t="n"/>
       <c r="I38" s="5" t="n"/>
       <c r="J38" s="5" t="n"/>
@@ -1994,18 +1851,18 @@
       <c r="X38" s="5" t="n"/>
       <c r="Y38" s="5" t="n"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1" s="52">
+    <row r="39" ht="15.75" customHeight="1" s="51">
       <c r="A39" s="29" t="n"/>
-      <c r="B39" s="49" t="n"/>
-      <c r="C39" s="49" t="n"/>
-      <c r="D39" s="49" t="inlineStr">
+      <c r="B39" s="38" t="n"/>
+      <c r="C39" s="38" t="n"/>
+      <c r="D39" s="38" t="inlineStr">
         <is>
           <t>Tack för att ni gifter er hos oss!</t>
         </is>
       </c>
-      <c r="E39" s="49" t="n"/>
-      <c r="F39" s="49" t="n"/>
-      <c r="G39" s="49" t="n"/>
+      <c r="E39" s="38" t="n"/>
+      <c r="F39" s="38" t="n"/>
+      <c r="G39" s="38" t="n"/>
       <c r="H39" s="5" t="n"/>
       <c r="I39" s="5" t="n"/>
       <c r="J39" s="5" t="n"/>
@@ -2025,7 +1882,7 @@
       <c r="X39" s="5" t="n"/>
       <c r="Y39" s="5" t="n"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1" s="52">
+    <row r="40" ht="15.75" customHeight="1" s="51">
       <c r="A40" s="29" t="n"/>
       <c r="B40" s="29" t="n"/>
       <c r="C40" s="29" t="n"/>
@@ -2052,7 +1909,7 @@
       <c r="X40" s="5" t="n"/>
       <c r="Y40" s="5" t="n"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1" s="52">
+    <row r="41" ht="15.75" customHeight="1" s="51">
       <c r="A41" s="29" t="n"/>
       <c r="B41" s="29" t="n"/>
       <c r="C41" s="29" t="n"/>
@@ -2079,7 +1936,7 @@
       <c r="X41" s="5" t="n"/>
       <c r="Y41" s="5" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="52">
+    <row r="42" ht="15.75" customHeight="1" s="51">
       <c r="A42" s="29" t="n"/>
       <c r="B42" s="29" t="n"/>
       <c r="C42" s="29" t="n"/>
@@ -2106,7 +1963,7 @@
       <c r="X42" s="5" t="n"/>
       <c r="Y42" s="5" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="52">
+    <row r="43" ht="15.75" customHeight="1" s="51">
       <c r="A43" s="29" t="n"/>
       <c r="B43" s="29" t="n"/>
       <c r="C43" s="29" t="n"/>
@@ -2133,7 +1990,7 @@
       <c r="X43" s="5" t="n"/>
       <c r="Y43" s="5" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="52">
+    <row r="44" ht="15.75" customHeight="1" s="51">
       <c r="A44" s="29" t="n"/>
       <c r="B44" s="29" t="n"/>
       <c r="C44" s="29" t="n"/>
@@ -2160,7 +2017,7 @@
       <c r="X44" s="5" t="n"/>
       <c r="Y44" s="5" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="52">
+    <row r="45" ht="15.75" customHeight="1" s="51">
       <c r="A45" s="29" t="n"/>
       <c r="B45" s="29" t="n"/>
       <c r="C45" s="29" t="n"/>
@@ -2187,7 +2044,7 @@
       <c r="X45" s="5" t="n"/>
       <c r="Y45" s="5" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="52">
+    <row r="46" ht="15.75" customHeight="1" s="51">
       <c r="A46" s="29" t="n"/>
       <c r="B46" s="29" t="n"/>
       <c r="C46" s="29" t="n"/>
@@ -2214,7 +2071,7 @@
       <c r="X46" s="5" t="n"/>
       <c r="Y46" s="5" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="52">
+    <row r="47" ht="15.75" customHeight="1" s="51">
       <c r="A47" s="29" t="n"/>
       <c r="B47" s="29" t="n"/>
       <c r="C47" s="29" t="n"/>
@@ -2241,7 +2098,7 @@
       <c r="X47" s="5" t="n"/>
       <c r="Y47" s="5" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="52">
+    <row r="48" ht="15.75" customHeight="1" s="51">
       <c r="A48" s="29" t="n"/>
       <c r="B48" s="29" t="n"/>
       <c r="C48" s="29" t="n"/>
@@ -2268,7 +2125,7 @@
       <c r="X48" s="5" t="n"/>
       <c r="Y48" s="5" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="52">
+    <row r="49" ht="15.75" customHeight="1" s="51">
       <c r="A49" s="29" t="n"/>
       <c r="B49" s="29" t="n"/>
       <c r="C49" s="29" t="n"/>
@@ -2295,7 +2152,7 @@
       <c r="X49" s="5" t="n"/>
       <c r="Y49" s="5" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="52">
+    <row r="50" ht="15.75" customHeight="1" s="51">
       <c r="A50" s="29" t="n"/>
       <c r="B50" s="29" t="n"/>
       <c r="C50" s="29" t="n"/>
@@ -2322,7 +2179,7 @@
       <c r="X50" s="5" t="n"/>
       <c r="Y50" s="5" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="52">
+    <row r="51" ht="15.75" customHeight="1" s="51">
       <c r="A51" s="29" t="n"/>
       <c r="B51" s="29" t="n"/>
       <c r="C51" s="29" t="n"/>
@@ -2349,7 +2206,7 @@
       <c r="X51" s="5" t="n"/>
       <c r="Y51" s="5" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="52">
+    <row r="52" ht="15.75" customHeight="1" s="51">
       <c r="A52" s="29" t="n"/>
       <c r="B52" s="29" t="n"/>
       <c r="C52" s="29" t="n"/>
@@ -2376,7 +2233,7 @@
       <c r="X52" s="5" t="n"/>
       <c r="Y52" s="5" t="n"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1" s="52">
+    <row r="53" ht="15.75" customHeight="1" s="51">
       <c r="A53" s="29" t="n"/>
       <c r="B53" s="29" t="n"/>
       <c r="C53" s="29" t="n"/>
@@ -2403,7 +2260,7 @@
       <c r="X53" s="5" t="n"/>
       <c r="Y53" s="5" t="n"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1" s="52">
+    <row r="54" ht="15.75" customHeight="1" s="51">
       <c r="A54" s="29" t="n"/>
       <c r="B54" s="29" t="n"/>
       <c r="C54" s="29" t="n"/>
@@ -2430,7 +2287,7 @@
       <c r="X54" s="5" t="n"/>
       <c r="Y54" s="5" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="52">
+    <row r="55" ht="15.75" customHeight="1" s="51">
       <c r="A55" s="29" t="n"/>
       <c r="B55" s="29" t="n"/>
       <c r="C55" s="29" t="n"/>
@@ -2457,7 +2314,7 @@
       <c r="X55" s="5" t="n"/>
       <c r="Y55" s="5" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="52">
+    <row r="56" ht="15.75" customHeight="1" s="51">
       <c r="A56" s="29" t="n"/>
       <c r="B56" s="29" t="n"/>
       <c r="C56" s="29" t="n"/>
@@ -2484,7 +2341,7 @@
       <c r="X56" s="5" t="n"/>
       <c r="Y56" s="5" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="52">
+    <row r="57" ht="15.75" customHeight="1" s="51">
       <c r="A57" s="29" t="n"/>
       <c r="B57" s="29" t="n"/>
       <c r="C57" s="29" t="n"/>
@@ -2511,7 +2368,7 @@
       <c r="X57" s="5" t="n"/>
       <c r="Y57" s="5" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="52">
+    <row r="58" ht="15.75" customHeight="1" s="51">
       <c r="A58" s="29" t="n"/>
       <c r="B58" s="29" t="n"/>
       <c r="C58" s="29" t="n"/>
@@ -2538,7 +2395,7 @@
       <c r="X58" s="5" t="n"/>
       <c r="Y58" s="5" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="52">
+    <row r="59" ht="15.75" customHeight="1" s="51">
       <c r="A59" s="29" t="n"/>
       <c r="B59" s="29" t="n"/>
       <c r="C59" s="29" t="n"/>
@@ -2565,7 +2422,7 @@
       <c r="X59" s="5" t="n"/>
       <c r="Y59" s="5" t="n"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1" s="52">
+    <row r="60" ht="15.75" customHeight="1" s="51">
       <c r="A60" s="29" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="29" t="n"/>
@@ -2592,7 +2449,7 @@
       <c r="X60" s="5" t="n"/>
       <c r="Y60" s="5" t="n"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1" s="52">
+    <row r="61" ht="15.75" customHeight="1" s="51">
       <c r="A61" s="29" t="n"/>
       <c r="B61" s="29" t="n"/>
       <c r="C61" s="29" t="n"/>
@@ -2619,7 +2476,7 @@
       <c r="X61" s="5" t="n"/>
       <c r="Y61" s="5" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="52">
+    <row r="62" ht="15.75" customHeight="1" s="51">
       <c r="A62" s="29" t="n"/>
       <c r="B62" s="29" t="n"/>
       <c r="C62" s="29" t="n"/>
@@ -2646,7 +2503,7 @@
       <c r="X62" s="5" t="n"/>
       <c r="Y62" s="5" t="n"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1" s="52">
+    <row r="63" ht="15.75" customHeight="1" s="51">
       <c r="A63" s="29" t="n"/>
       <c r="B63" s="29" t="n"/>
       <c r="C63" s="29" t="n"/>
@@ -2673,7 +2530,7 @@
       <c r="X63" s="5" t="n"/>
       <c r="Y63" s="5" t="n"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1" s="52">
+    <row r="64" ht="15.75" customHeight="1" s="51">
       <c r="A64" s="29" t="n"/>
       <c r="B64" s="29" t="n"/>
       <c r="C64" s="29" t="n"/>
@@ -2700,7 +2557,7 @@
       <c r="X64" s="5" t="n"/>
       <c r="Y64" s="5" t="n"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1" s="52">
+    <row r="65" ht="15.75" customHeight="1" s="51">
       <c r="A65" s="29" t="n"/>
       <c r="B65" s="29" t="n"/>
       <c r="C65" s="29" t="n"/>
@@ -2727,7 +2584,7 @@
       <c r="X65" s="5" t="n"/>
       <c r="Y65" s="5" t="n"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1" s="52">
+    <row r="66" ht="15.75" customHeight="1" s="51">
       <c r="A66" s="29" t="n"/>
       <c r="B66" s="29" t="n"/>
       <c r="C66" s="29" t="n"/>
@@ -2754,7 +2611,7 @@
       <c r="X66" s="5" t="n"/>
       <c r="Y66" s="5" t="n"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1" s="52">
+    <row r="67" ht="15.75" customHeight="1" s="51">
       <c r="A67" s="29" t="n"/>
       <c r="B67" s="29" t="n"/>
       <c r="C67" s="29" t="n"/>
@@ -2781,7 +2638,7 @@
       <c r="X67" s="5" t="n"/>
       <c r="Y67" s="5" t="n"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1" s="52">
+    <row r="68" ht="15.75" customHeight="1" s="51">
       <c r="A68" s="29" t="n"/>
       <c r="B68" s="29" t="n"/>
       <c r="C68" s="29" t="n"/>
@@ -2808,7 +2665,7 @@
       <c r="X68" s="5" t="n"/>
       <c r="Y68" s="5" t="n"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1" s="52">
+    <row r="69" ht="15.75" customHeight="1" s="51">
       <c r="A69" s="29" t="n"/>
       <c r="B69" s="29" t="n"/>
       <c r="C69" s="29" t="n"/>
@@ -2835,7 +2692,7 @@
       <c r="X69" s="5" t="n"/>
       <c r="Y69" s="5" t="n"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1" s="52">
+    <row r="70" ht="15.75" customHeight="1" s="51">
       <c r="A70" s="29" t="n"/>
       <c r="B70" s="29" t="n"/>
       <c r="C70" s="29" t="n"/>
@@ -2862,7 +2719,7 @@
       <c r="X70" s="5" t="n"/>
       <c r="Y70" s="5" t="n"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1" s="52">
+    <row r="71" ht="15.75" customHeight="1" s="51">
       <c r="A71" s="29" t="n"/>
       <c r="B71" s="29" t="n"/>
       <c r="C71" s="29" t="n"/>
@@ -2889,7 +2746,7 @@
       <c r="X71" s="5" t="n"/>
       <c r="Y71" s="5" t="n"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1" s="52">
+    <row r="72" ht="15.75" customHeight="1" s="51">
       <c r="A72" s="29" t="n"/>
       <c r="B72" s="29" t="n"/>
       <c r="C72" s="29" t="n"/>
@@ -2916,7 +2773,7 @@
       <c r="X72" s="5" t="n"/>
       <c r="Y72" s="5" t="n"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1" s="52">
+    <row r="73" ht="15.75" customHeight="1" s="51">
       <c r="A73" s="29" t="n"/>
       <c r="B73" s="29" t="n"/>
       <c r="C73" s="29" t="n"/>
@@ -2943,7 +2800,7 @@
       <c r="X73" s="5" t="n"/>
       <c r="Y73" s="5" t="n"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1" s="52">
+    <row r="74" ht="15.75" customHeight="1" s="51">
       <c r="A74" s="29" t="n"/>
       <c r="B74" s="29" t="n"/>
       <c r="C74" s="29" t="n"/>
@@ -2970,7 +2827,7 @@
       <c r="X74" s="5" t="n"/>
       <c r="Y74" s="5" t="n"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1" s="52">
+    <row r="75" ht="15.75" customHeight="1" s="51">
       <c r="A75" s="29" t="n"/>
       <c r="B75" s="29" t="n"/>
       <c r="C75" s="29" t="n"/>
@@ -2997,7 +2854,7 @@
       <c r="X75" s="5" t="n"/>
       <c r="Y75" s="5" t="n"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1" s="52">
+    <row r="76" ht="15.75" customHeight="1" s="51">
       <c r="A76" s="29" t="n"/>
       <c r="B76" s="29" t="n"/>
       <c r="C76" s="29" t="n"/>
@@ -3024,7 +2881,7 @@
       <c r="X76" s="5" t="n"/>
       <c r="Y76" s="5" t="n"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1" s="52">
+    <row r="77" ht="15.75" customHeight="1" s="51">
       <c r="A77" s="29" t="n"/>
       <c r="B77" s="29" t="n"/>
       <c r="C77" s="29" t="n"/>
@@ -3051,7 +2908,7 @@
       <c r="X77" s="5" t="n"/>
       <c r="Y77" s="5" t="n"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1" s="52">
+    <row r="78" ht="15.75" customHeight="1" s="51">
       <c r="A78" s="29" t="n"/>
       <c r="B78" s="29" t="n"/>
       <c r="C78" s="29" t="n"/>
@@ -3078,7 +2935,7 @@
       <c r="X78" s="5" t="n"/>
       <c r="Y78" s="5" t="n"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1" s="52">
+    <row r="79" ht="15.75" customHeight="1" s="51">
       <c r="A79" s="29" t="n"/>
       <c r="B79" s="29" t="n"/>
       <c r="C79" s="29" t="n"/>
@@ -3105,7 +2962,7 @@
       <c r="X79" s="5" t="n"/>
       <c r="Y79" s="5" t="n"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1" s="52">
+    <row r="80" ht="15.75" customHeight="1" s="51">
       <c r="A80" s="29" t="n"/>
       <c r="B80" s="29" t="n"/>
       <c r="C80" s="29" t="n"/>
@@ -3132,7 +2989,7 @@
       <c r="X80" s="5" t="n"/>
       <c r="Y80" s="5" t="n"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1" s="52">
+    <row r="81" ht="15.75" customHeight="1" s="51">
       <c r="A81" s="29" t="n"/>
       <c r="B81" s="29" t="n"/>
       <c r="C81" s="29" t="n"/>
@@ -3159,7 +3016,7 @@
       <c r="X81" s="5" t="n"/>
       <c r="Y81" s="5" t="n"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1" s="52">
+    <row r="82" ht="15.75" customHeight="1" s="51">
       <c r="A82" s="29" t="n"/>
       <c r="B82" s="29" t="n"/>
       <c r="C82" s="29" t="n"/>
@@ -3186,7 +3043,7 @@
       <c r="X82" s="5" t="n"/>
       <c r="Y82" s="5" t="n"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1" s="52">
+    <row r="83" ht="15.75" customHeight="1" s="51">
       <c r="A83" s="29" t="n"/>
       <c r="B83" s="29" t="n"/>
       <c r="C83" s="29" t="n"/>
@@ -3213,7 +3070,7 @@
       <c r="X83" s="5" t="n"/>
       <c r="Y83" s="5" t="n"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1" s="52">
+    <row r="84" ht="15.75" customHeight="1" s="51">
       <c r="A84" s="29" t="n"/>
       <c r="B84" s="29" t="n"/>
       <c r="C84" s="29" t="n"/>
@@ -3240,7 +3097,7 @@
       <c r="X84" s="5" t="n"/>
       <c r="Y84" s="5" t="n"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1" s="52">
+    <row r="85" ht="15.75" customHeight="1" s="51">
       <c r="A85" s="29" t="n"/>
       <c r="B85" s="29" t="n"/>
       <c r="C85" s="29" t="n"/>
@@ -3267,7 +3124,7 @@
       <c r="X85" s="5" t="n"/>
       <c r="Y85" s="5" t="n"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1" s="52">
+    <row r="86" ht="15.75" customHeight="1" s="51">
       <c r="A86" s="29" t="n"/>
       <c r="B86" s="29" t="n"/>
       <c r="C86" s="29" t="n"/>
@@ -3294,7 +3151,7 @@
       <c r="X86" s="5" t="n"/>
       <c r="Y86" s="5" t="n"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1" s="52">
+    <row r="87" ht="15.75" customHeight="1" s="51">
       <c r="A87" s="29" t="n"/>
       <c r="B87" s="29" t="n"/>
       <c r="C87" s="29" t="n"/>
@@ -3321,7 +3178,7 @@
       <c r="X87" s="5" t="n"/>
       <c r="Y87" s="5" t="n"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1" s="52">
+    <row r="88" ht="15.75" customHeight="1" s="51">
       <c r="A88" s="29" t="n"/>
       <c r="B88" s="29" t="n"/>
       <c r="C88" s="29" t="n"/>
@@ -3348,7 +3205,7 @@
       <c r="X88" s="5" t="n"/>
       <c r="Y88" s="5" t="n"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1" s="52">
+    <row r="89" ht="15.75" customHeight="1" s="51">
       <c r="A89" s="29" t="n"/>
       <c r="B89" s="29" t="n"/>
       <c r="C89" s="29" t="n"/>
@@ -3375,7 +3232,7 @@
       <c r="X89" s="5" t="n"/>
       <c r="Y89" s="5" t="n"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1" s="52">
+    <row r="90" ht="15.75" customHeight="1" s="51">
       <c r="A90" s="29" t="n"/>
       <c r="B90" s="29" t="n"/>
       <c r="C90" s="29" t="n"/>
@@ -3402,7 +3259,7 @@
       <c r="X90" s="5" t="n"/>
       <c r="Y90" s="5" t="n"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1" s="52">
+    <row r="91" ht="15.75" customHeight="1" s="51">
       <c r="A91" s="29" t="n"/>
       <c r="B91" s="29" t="n"/>
       <c r="C91" s="29" t="n"/>
@@ -3429,7 +3286,7 @@
       <c r="X91" s="5" t="n"/>
       <c r="Y91" s="5" t="n"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1" s="52">
+    <row r="92" ht="15.75" customHeight="1" s="51">
       <c r="A92" s="29" t="n"/>
       <c r="B92" s="29" t="n"/>
       <c r="C92" s="29" t="n"/>
@@ -3456,7 +3313,7 @@
       <c r="X92" s="5" t="n"/>
       <c r="Y92" s="5" t="n"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1" s="52">
+    <row r="93" ht="15.75" customHeight="1" s="51">
       <c r="A93" s="29" t="n"/>
       <c r="B93" s="29" t="n"/>
       <c r="C93" s="29" t="n"/>
@@ -3483,7 +3340,7 @@
       <c r="X93" s="5" t="n"/>
       <c r="Y93" s="5" t="n"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1" s="52">
+    <row r="94" ht="15.75" customHeight="1" s="51">
       <c r="A94" s="29" t="n"/>
       <c r="B94" s="29" t="n"/>
       <c r="C94" s="29" t="n"/>
@@ -3510,7 +3367,7 @@
       <c r="X94" s="5" t="n"/>
       <c r="Y94" s="5" t="n"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1" s="52">
+    <row r="95" ht="15.75" customHeight="1" s="51">
       <c r="A95" s="29" t="n"/>
       <c r="B95" s="29" t="n"/>
       <c r="C95" s="29" t="n"/>
@@ -3537,7 +3394,7 @@
       <c r="X95" s="5" t="n"/>
       <c r="Y95" s="5" t="n"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1" s="52">
+    <row r="96" ht="15.75" customHeight="1" s="51">
       <c r="A96" s="29" t="n"/>
       <c r="B96" s="29" t="n"/>
       <c r="C96" s="29" t="n"/>
@@ -3564,7 +3421,7 @@
       <c r="X96" s="5" t="n"/>
       <c r="Y96" s="5" t="n"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1" s="52">
+    <row r="97" ht="15.75" customHeight="1" s="51">
       <c r="A97" s="29" t="n"/>
       <c r="B97" s="29" t="n"/>
       <c r="C97" s="29" t="n"/>
@@ -3591,7 +3448,7 @@
       <c r="X97" s="5" t="n"/>
       <c r="Y97" s="5" t="n"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1" s="52">
+    <row r="98" ht="15.75" customHeight="1" s="51">
       <c r="A98" s="29" t="n"/>
       <c r="B98" s="29" t="n"/>
       <c r="C98" s="29" t="n"/>
@@ -3618,7 +3475,7 @@
       <c r="X98" s="5" t="n"/>
       <c r="Y98" s="5" t="n"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1" s="52">
+    <row r="99" ht="15.75" customHeight="1" s="51">
       <c r="A99" s="29" t="n"/>
       <c r="B99" s="29" t="n"/>
       <c r="C99" s="29" t="n"/>
@@ -3645,7 +3502,7 @@
       <c r="X99" s="5" t="n"/>
       <c r="Y99" s="5" t="n"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1" s="52">
+    <row r="100" ht="15.75" customHeight="1" s="51">
       <c r="A100" s="29" t="n"/>
       <c r="B100" s="29" t="n"/>
       <c r="C100" s="29" t="n"/>
@@ -3672,7 +3529,7 @@
       <c r="X100" s="5" t="n"/>
       <c r="Y100" s="5" t="n"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1" s="52">
+    <row r="101" ht="15.75" customHeight="1" s="51">
       <c r="A101" s="29" t="n"/>
       <c r="B101" s="29" t="n"/>
       <c r="C101" s="29" t="n"/>
@@ -3699,7 +3556,7 @@
       <c r="X101" s="5" t="n"/>
       <c r="Y101" s="5" t="n"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1" s="52">
+    <row r="102" ht="15.75" customHeight="1" s="51">
       <c r="A102" s="29" t="n"/>
       <c r="B102" s="29" t="n"/>
       <c r="C102" s="29" t="n"/>
@@ -3726,7 +3583,7 @@
       <c r="X102" s="5" t="n"/>
       <c r="Y102" s="5" t="n"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1" s="52">
+    <row r="103" ht="15.75" customHeight="1" s="51">
       <c r="A103" s="29" t="n"/>
       <c r="B103" s="29" t="n"/>
       <c r="C103" s="29" t="n"/>
@@ -3753,7 +3610,7 @@
       <c r="X103" s="5" t="n"/>
       <c r="Y103" s="5" t="n"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1" s="52">
+    <row r="104" ht="15.75" customHeight="1" s="51">
       <c r="A104" s="29" t="n"/>
       <c r="B104" s="29" t="n"/>
       <c r="C104" s="29" t="n"/>
@@ -3780,7 +3637,7 @@
       <c r="X104" s="5" t="n"/>
       <c r="Y104" s="5" t="n"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1" s="52">
+    <row r="105" ht="15.75" customHeight="1" s="51">
       <c r="A105" s="29" t="n"/>
       <c r="B105" s="29" t="n"/>
       <c r="C105" s="29" t="n"/>
@@ -3807,7 +3664,7 @@
       <c r="X105" s="5" t="n"/>
       <c r="Y105" s="5" t="n"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1" s="52">
+    <row r="106" ht="15.75" customHeight="1" s="51">
       <c r="A106" s="29" t="n"/>
       <c r="B106" s="29" t="n"/>
       <c r="C106" s="29" t="n"/>
@@ -3834,7 +3691,7 @@
       <c r="X106" s="5" t="n"/>
       <c r="Y106" s="5" t="n"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1" s="52">
+    <row r="107" ht="15.75" customHeight="1" s="51">
       <c r="A107" s="29" t="n"/>
       <c r="B107" s="29" t="n"/>
       <c r="C107" s="29" t="n"/>
@@ -3861,7 +3718,7 @@
       <c r="X107" s="5" t="n"/>
       <c r="Y107" s="5" t="n"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1" s="52">
+    <row r="108" ht="15.75" customHeight="1" s="51">
       <c r="A108" s="29" t="n"/>
       <c r="B108" s="29" t="n"/>
       <c r="C108" s="29" t="n"/>
@@ -3888,7 +3745,7 @@
       <c r="X108" s="5" t="n"/>
       <c r="Y108" s="5" t="n"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1" s="52">
+    <row r="109" ht="15.75" customHeight="1" s="51">
       <c r="A109" s="29" t="n"/>
       <c r="B109" s="29" t="n"/>
       <c r="C109" s="29" t="n"/>
@@ -3915,7 +3772,7 @@
       <c r="X109" s="5" t="n"/>
       <c r="Y109" s="5" t="n"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1" s="52">
+    <row r="110" ht="15.75" customHeight="1" s="51">
       <c r="A110" s="29" t="n"/>
       <c r="B110" s="29" t="n"/>
       <c r="C110" s="29" t="n"/>
@@ -3942,7 +3799,7 @@
       <c r="X110" s="5" t="n"/>
       <c r="Y110" s="5" t="n"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1" s="52">
+    <row r="111" ht="15.75" customHeight="1" s="51">
       <c r="A111" s="29" t="n"/>
       <c r="B111" s="29" t="n"/>
       <c r="C111" s="29" t="n"/>
@@ -3969,7 +3826,7 @@
       <c r="X111" s="5" t="n"/>
       <c r="Y111" s="5" t="n"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1" s="52">
+    <row r="112" ht="15.75" customHeight="1" s="51">
       <c r="A112" s="29" t="n"/>
       <c r="B112" s="29" t="n"/>
       <c r="C112" s="29" t="n"/>
@@ -3996,7 +3853,7 @@
       <c r="X112" s="5" t="n"/>
       <c r="Y112" s="5" t="n"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1" s="52">
+    <row r="113" ht="15.75" customHeight="1" s="51">
       <c r="A113" s="29" t="n"/>
       <c r="B113" s="29" t="n"/>
       <c r="C113" s="29" t="n"/>
@@ -4023,7 +3880,7 @@
       <c r="X113" s="5" t="n"/>
       <c r="Y113" s="5" t="n"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1" s="52">
+    <row r="114" ht="15.75" customHeight="1" s="51">
       <c r="A114" s="29" t="n"/>
       <c r="B114" s="29" t="n"/>
       <c r="C114" s="29" t="n"/>
@@ -4050,7 +3907,7 @@
       <c r="X114" s="5" t="n"/>
       <c r="Y114" s="5" t="n"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1" s="52">
+    <row r="115" ht="15.75" customHeight="1" s="51">
       <c r="A115" s="29" t="n"/>
       <c r="B115" s="29" t="n"/>
       <c r="C115" s="29" t="n"/>
@@ -4077,7 +3934,7 @@
       <c r="X115" s="5" t="n"/>
       <c r="Y115" s="5" t="n"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1" s="52">
+    <row r="116" ht="15.75" customHeight="1" s="51">
       <c r="A116" s="29" t="n"/>
       <c r="B116" s="29" t="n"/>
       <c r="C116" s="29" t="n"/>
@@ -4104,7 +3961,7 @@
       <c r="X116" s="5" t="n"/>
       <c r="Y116" s="5" t="n"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1" s="52">
+    <row r="117" ht="15.75" customHeight="1" s="51">
       <c r="A117" s="29" t="n"/>
       <c r="B117" s="29" t="n"/>
       <c r="C117" s="29" t="n"/>
@@ -4131,7 +3988,7 @@
       <c r="X117" s="5" t="n"/>
       <c r="Y117" s="5" t="n"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1" s="52">
+    <row r="118" ht="15.75" customHeight="1" s="51">
       <c r="A118" s="29" t="n"/>
       <c r="B118" s="29" t="n"/>
       <c r="C118" s="29" t="n"/>
@@ -4158,7 +4015,7 @@
       <c r="X118" s="5" t="n"/>
       <c r="Y118" s="5" t="n"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1" s="52">
+    <row r="119" ht="15.75" customHeight="1" s="51">
       <c r="A119" s="29" t="n"/>
       <c r="B119" s="29" t="n"/>
       <c r="C119" s="29" t="n"/>
@@ -4185,7 +4042,7 @@
       <c r="X119" s="5" t="n"/>
       <c r="Y119" s="5" t="n"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1" s="52">
+    <row r="120" ht="15.75" customHeight="1" s="51">
       <c r="A120" s="29" t="n"/>
       <c r="B120" s="29" t="n"/>
       <c r="C120" s="29" t="n"/>
@@ -4212,7 +4069,7 @@
       <c r="X120" s="5" t="n"/>
       <c r="Y120" s="5" t="n"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1" s="52">
+    <row r="121" ht="15.75" customHeight="1" s="51">
       <c r="A121" s="29" t="n"/>
       <c r="B121" s="29" t="n"/>
       <c r="C121" s="29" t="n"/>
@@ -4239,7 +4096,7 @@
       <c r="X121" s="5" t="n"/>
       <c r="Y121" s="5" t="n"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1" s="52">
+    <row r="122" ht="15.75" customHeight="1" s="51">
       <c r="A122" s="29" t="n"/>
       <c r="B122" s="29" t="n"/>
       <c r="C122" s="29" t="n"/>
@@ -4266,7 +4123,7 @@
       <c r="X122" s="5" t="n"/>
       <c r="Y122" s="5" t="n"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1" s="52">
+    <row r="123" ht="15.75" customHeight="1" s="51">
       <c r="A123" s="29" t="n"/>
       <c r="B123" s="29" t="n"/>
       <c r="C123" s="29" t="n"/>
@@ -4293,7 +4150,7 @@
       <c r="X123" s="5" t="n"/>
       <c r="Y123" s="5" t="n"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1" s="52">
+    <row r="124" ht="15.75" customHeight="1" s="51">
       <c r="A124" s="29" t="n"/>
       <c r="B124" s="29" t="n"/>
       <c r="C124" s="29" t="n"/>
@@ -4320,7 +4177,7 @@
       <c r="X124" s="5" t="n"/>
       <c r="Y124" s="5" t="n"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1" s="52">
+    <row r="125" ht="15.75" customHeight="1" s="51">
       <c r="A125" s="29" t="n"/>
       <c r="B125" s="29" t="n"/>
       <c r="C125" s="29" t="n"/>
@@ -4347,7 +4204,7 @@
       <c r="X125" s="5" t="n"/>
       <c r="Y125" s="5" t="n"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1" s="52">
+    <row r="126" ht="15.75" customHeight="1" s="51">
       <c r="A126" s="29" t="n"/>
       <c r="B126" s="29" t="n"/>
       <c r="C126" s="29" t="n"/>
@@ -4374,7 +4231,7 @@
       <c r="X126" s="5" t="n"/>
       <c r="Y126" s="5" t="n"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1" s="52">
+    <row r="127" ht="15.75" customHeight="1" s="51">
       <c r="A127" s="29" t="n"/>
       <c r="B127" s="29" t="n"/>
       <c r="C127" s="29" t="n"/>
@@ -4401,7 +4258,7 @@
       <c r="X127" s="5" t="n"/>
       <c r="Y127" s="5" t="n"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1" s="52">
+    <row r="128" ht="15.75" customHeight="1" s="51">
       <c r="A128" s="29" t="n"/>
       <c r="B128" s="29" t="n"/>
       <c r="C128" s="29" t="n"/>
@@ -4428,7 +4285,7 @@
       <c r="X128" s="5" t="n"/>
       <c r="Y128" s="5" t="n"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1" s="52">
+    <row r="129" ht="15.75" customHeight="1" s="51">
       <c r="A129" s="29" t="n"/>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -4455,7 +4312,7 @@
       <c r="X129" s="5" t="n"/>
       <c r="Y129" s="5" t="n"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1" s="52">
+    <row r="130" ht="15.75" customHeight="1" s="51">
       <c r="A130" s="29" t="n"/>
       <c r="B130" s="29" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -4482,7 +4339,7 @@
       <c r="X130" s="5" t="n"/>
       <c r="Y130" s="5" t="n"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1" s="52">
+    <row r="131" ht="15.75" customHeight="1" s="51">
       <c r="A131" s="29" t="n"/>
       <c r="B131" s="29" t="n"/>
       <c r="C131" s="29" t="n"/>
@@ -4509,7 +4366,7 @@
       <c r="X131" s="5" t="n"/>
       <c r="Y131" s="5" t="n"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1" s="52">
+    <row r="132" ht="15.75" customHeight="1" s="51">
       <c r="A132" s="29" t="n"/>
       <c r="B132" s="29" t="n"/>
       <c r="C132" s="29" t="n"/>
@@ -4536,7 +4393,7 @@
       <c r="X132" s="5" t="n"/>
       <c r="Y132" s="5" t="n"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1" s="52">
+    <row r="133" ht="15.75" customHeight="1" s="51">
       <c r="A133" s="29" t="n"/>
       <c r="B133" s="29" t="n"/>
       <c r="C133" s="29" t="n"/>
@@ -4563,7 +4420,7 @@
       <c r="X133" s="5" t="n"/>
       <c r="Y133" s="5" t="n"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1" s="52">
+    <row r="134" ht="15.75" customHeight="1" s="51">
       <c r="A134" s="29" t="n"/>
       <c r="B134" s="29" t="n"/>
       <c r="C134" s="29" t="n"/>
@@ -4590,7 +4447,7 @@
       <c r="X134" s="5" t="n"/>
       <c r="Y134" s="5" t="n"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1" s="52">
+    <row r="135" ht="15.75" customHeight="1" s="51">
       <c r="A135" s="29" t="n"/>
       <c r="B135" s="29" t="n"/>
       <c r="C135" s="29" t="n"/>
@@ -4617,7 +4474,7 @@
       <c r="X135" s="5" t="n"/>
       <c r="Y135" s="5" t="n"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1" s="52">
+    <row r="136" ht="15.75" customHeight="1" s="51">
       <c r="A136" s="29" t="n"/>
       <c r="B136" s="29" t="n"/>
       <c r="C136" s="29" t="n"/>
@@ -4644,7 +4501,7 @@
       <c r="X136" s="5" t="n"/>
       <c r="Y136" s="5" t="n"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1" s="52">
+    <row r="137" ht="15.75" customHeight="1" s="51">
       <c r="A137" s="29" t="n"/>
       <c r="B137" s="29" t="n"/>
       <c r="C137" s="29" t="n"/>
@@ -4671,7 +4528,7 @@
       <c r="X137" s="5" t="n"/>
       <c r="Y137" s="5" t="n"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1" s="52">
+    <row r="138" ht="15.75" customHeight="1" s="51">
       <c r="A138" s="29" t="n"/>
       <c r="B138" s="29" t="n"/>
       <c r="C138" s="29" t="n"/>
@@ -4698,7 +4555,7 @@
       <c r="X138" s="5" t="n"/>
       <c r="Y138" s="5" t="n"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1" s="52">
+    <row r="139" ht="15.75" customHeight="1" s="51">
       <c r="A139" s="29" t="n"/>
       <c r="B139" s="29" t="n"/>
       <c r="C139" s="29" t="n"/>
@@ -4725,7 +4582,7 @@
       <c r="X139" s="5" t="n"/>
       <c r="Y139" s="5" t="n"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1" s="52">
+    <row r="140" ht="15.75" customHeight="1" s="51">
       <c r="A140" s="29" t="n"/>
       <c r="B140" s="29" t="n"/>
       <c r="C140" s="29" t="n"/>
@@ -4752,7 +4609,7 @@
       <c r="X140" s="5" t="n"/>
       <c r="Y140" s="5" t="n"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1" s="52">
+    <row r="141" ht="15.75" customHeight="1" s="51">
       <c r="A141" s="29" t="n"/>
       <c r="B141" s="29" t="n"/>
       <c r="C141" s="29" t="n"/>
@@ -4779,7 +4636,7 @@
       <c r="X141" s="5" t="n"/>
       <c r="Y141" s="5" t="n"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1" s="52">
+    <row r="142" ht="15.75" customHeight="1" s="51">
       <c r="A142" s="29" t="n"/>
       <c r="B142" s="29" t="n"/>
       <c r="C142" s="29" t="n"/>
@@ -4806,7 +4663,7 @@
       <c r="X142" s="5" t="n"/>
       <c r="Y142" s="5" t="n"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1" s="52">
+    <row r="143" ht="15.75" customHeight="1" s="51">
       <c r="A143" s="29" t="n"/>
       <c r="B143" s="29" t="n"/>
       <c r="C143" s="29" t="n"/>
@@ -4833,7 +4690,7 @@
       <c r="X143" s="5" t="n"/>
       <c r="Y143" s="5" t="n"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1" s="52">
+    <row r="144" ht="15.75" customHeight="1" s="51">
       <c r="A144" s="29" t="n"/>
       <c r="B144" s="29" t="n"/>
       <c r="C144" s="29" t="n"/>
@@ -4860,7 +4717,7 @@
       <c r="X144" s="5" t="n"/>
       <c r="Y144" s="5" t="n"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1" s="52">
+    <row r="145" ht="15.75" customHeight="1" s="51">
       <c r="A145" s="29" t="n"/>
       <c r="B145" s="29" t="n"/>
       <c r="C145" s="29" t="n"/>
@@ -4887,7 +4744,7 @@
       <c r="X145" s="5" t="n"/>
       <c r="Y145" s="5" t="n"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1" s="52">
+    <row r="146" ht="15.75" customHeight="1" s="51">
       <c r="A146" s="29" t="n"/>
       <c r="B146" s="29" t="n"/>
       <c r="C146" s="29" t="n"/>
@@ -4914,7 +4771,7 @@
       <c r="X146" s="5" t="n"/>
       <c r="Y146" s="5" t="n"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1" s="52">
+    <row r="147" ht="15.75" customHeight="1" s="51">
       <c r="A147" s="29" t="n"/>
       <c r="B147" s="29" t="n"/>
       <c r="C147" s="29" t="n"/>
@@ -4941,7 +4798,7 @@
       <c r="X147" s="5" t="n"/>
       <c r="Y147" s="5" t="n"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1" s="52">
+    <row r="148" ht="15.75" customHeight="1" s="51">
       <c r="A148" s="29" t="n"/>
       <c r="B148" s="29" t="n"/>
       <c r="C148" s="29" t="n"/>
@@ -4968,7 +4825,7 @@
       <c r="X148" s="5" t="n"/>
       <c r="Y148" s="5" t="n"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1" s="52">
+    <row r="149" ht="15.75" customHeight="1" s="51">
       <c r="A149" s="29" t="n"/>
       <c r="B149" s="29" t="n"/>
       <c r="C149" s="29" t="n"/>
@@ -4995,7 +4852,7 @@
       <c r="X149" s="5" t="n"/>
       <c r="Y149" s="5" t="n"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1" s="52">
+    <row r="150" ht="15.75" customHeight="1" s="51">
       <c r="A150" s="29" t="n"/>
       <c r="B150" s="29" t="n"/>
       <c r="C150" s="29" t="n"/>
@@ -5022,7 +4879,7 @@
       <c r="X150" s="5" t="n"/>
       <c r="Y150" s="5" t="n"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1" s="52">
+    <row r="151" ht="15.75" customHeight="1" s="51">
       <c r="A151" s="29" t="n"/>
       <c r="B151" s="29" t="n"/>
       <c r="C151" s="29" t="n"/>
@@ -5049,7 +4906,7 @@
       <c r="X151" s="5" t="n"/>
       <c r="Y151" s="5" t="n"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1" s="52">
+    <row r="152" ht="15.75" customHeight="1" s="51">
       <c r="A152" s="29" t="n"/>
       <c r="B152" s="29" t="n"/>
       <c r="C152" s="29" t="n"/>
@@ -5076,7 +4933,7 @@
       <c r="X152" s="5" t="n"/>
       <c r="Y152" s="5" t="n"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1" s="52">
+    <row r="153" ht="15.75" customHeight="1" s="51">
       <c r="A153" s="29" t="n"/>
       <c r="B153" s="29" t="n"/>
       <c r="C153" s="29" t="n"/>
@@ -5103,7 +4960,7 @@
       <c r="X153" s="5" t="n"/>
       <c r="Y153" s="5" t="n"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1" s="52">
+    <row r="154" ht="15.75" customHeight="1" s="51">
       <c r="A154" s="29" t="n"/>
       <c r="B154" s="29" t="n"/>
       <c r="C154" s="29" t="n"/>
@@ -5130,7 +4987,7 @@
       <c r="X154" s="5" t="n"/>
       <c r="Y154" s="5" t="n"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1" s="52">
+    <row r="155" ht="15.75" customHeight="1" s="51">
       <c r="A155" s="29" t="n"/>
       <c r="B155" s="29" t="n"/>
       <c r="C155" s="29" t="n"/>
@@ -5157,7 +5014,7 @@
       <c r="X155" s="5" t="n"/>
       <c r="Y155" s="5" t="n"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1" s="52">
+    <row r="156" ht="15.75" customHeight="1" s="51">
       <c r="A156" s="29" t="n"/>
       <c r="B156" s="29" t="n"/>
       <c r="C156" s="29" t="n"/>
@@ -5184,7 +5041,7 @@
       <c r="X156" s="5" t="n"/>
       <c r="Y156" s="5" t="n"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1" s="52">
+    <row r="157" ht="15.75" customHeight="1" s="51">
       <c r="A157" s="29" t="n"/>
       <c r="B157" s="29" t="n"/>
       <c r="C157" s="29" t="n"/>
@@ -5211,7 +5068,7 @@
       <c r="X157" s="5" t="n"/>
       <c r="Y157" s="5" t="n"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1" s="52">
+    <row r="158" ht="15.75" customHeight="1" s="51">
       <c r="A158" s="29" t="n"/>
       <c r="B158" s="29" t="n"/>
       <c r="C158" s="29" t="n"/>
@@ -5238,7 +5095,7 @@
       <c r="X158" s="5" t="n"/>
       <c r="Y158" s="5" t="n"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1" s="52">
+    <row r="159" ht="15.75" customHeight="1" s="51">
       <c r="A159" s="29" t="n"/>
       <c r="B159" s="29" t="n"/>
       <c r="C159" s="29" t="n"/>
@@ -5265,7 +5122,7 @@
       <c r="X159" s="5" t="n"/>
       <c r="Y159" s="5" t="n"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1" s="52">
+    <row r="160" ht="15.75" customHeight="1" s="51">
       <c r="A160" s="29" t="n"/>
       <c r="B160" s="29" t="n"/>
       <c r="C160" s="29" t="n"/>
@@ -5292,7 +5149,7 @@
       <c r="X160" s="5" t="n"/>
       <c r="Y160" s="5" t="n"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1" s="52">
+    <row r="161" ht="15.75" customHeight="1" s="51">
       <c r="A161" s="29" t="n"/>
       <c r="B161" s="29" t="n"/>
       <c r="C161" s="29" t="n"/>
@@ -5319,7 +5176,7 @@
       <c r="X161" s="5" t="n"/>
       <c r="Y161" s="5" t="n"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1" s="52">
+    <row r="162" ht="15.75" customHeight="1" s="51">
       <c r="A162" s="29" t="n"/>
       <c r="B162" s="29" t="n"/>
       <c r="C162" s="29" t="n"/>
@@ -5346,7 +5203,7 @@
       <c r="X162" s="5" t="n"/>
       <c r="Y162" s="5" t="n"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1" s="52">
+    <row r="163" ht="15.75" customHeight="1" s="51">
       <c r="A163" s="29" t="n"/>
       <c r="B163" s="29" t="n"/>
       <c r="C163" s="29" t="n"/>
@@ -5373,7 +5230,7 @@
       <c r="X163" s="5" t="n"/>
       <c r="Y163" s="5" t="n"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1" s="52">
+    <row r="164" ht="15.75" customHeight="1" s="51">
       <c r="A164" s="29" t="n"/>
       <c r="B164" s="29" t="n"/>
       <c r="C164" s="29" t="n"/>
@@ -5400,7 +5257,7 @@
       <c r="X164" s="5" t="n"/>
       <c r="Y164" s="5" t="n"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1" s="52">
+    <row r="165" ht="15.75" customHeight="1" s="51">
       <c r="A165" s="29" t="n"/>
       <c r="B165" s="29" t="n"/>
       <c r="C165" s="29" t="n"/>
@@ -5427,7 +5284,7 @@
       <c r="X165" s="5" t="n"/>
       <c r="Y165" s="5" t="n"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1" s="52">
+    <row r="166" ht="15.75" customHeight="1" s="51">
       <c r="A166" s="29" t="n"/>
       <c r="B166" s="29" t="n"/>
       <c r="C166" s="29" t="n"/>
@@ -5454,7 +5311,7 @@
       <c r="X166" s="5" t="n"/>
       <c r="Y166" s="5" t="n"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1" s="52">
+    <row r="167" ht="15.75" customHeight="1" s="51">
       <c r="A167" s="29" t="n"/>
       <c r="B167" s="29" t="n"/>
       <c r="C167" s="29" t="n"/>
@@ -5481,7 +5338,7 @@
       <c r="X167" s="5" t="n"/>
       <c r="Y167" s="5" t="n"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1" s="52">
+    <row r="168" ht="15.75" customHeight="1" s="51">
       <c r="A168" s="29" t="n"/>
       <c r="B168" s="29" t="n"/>
       <c r="C168" s="29" t="n"/>
@@ -5508,7 +5365,7 @@
       <c r="X168" s="5" t="n"/>
       <c r="Y168" s="5" t="n"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1" s="52">
+    <row r="169" ht="15.75" customHeight="1" s="51">
       <c r="A169" s="29" t="n"/>
       <c r="B169" s="29" t="n"/>
       <c r="C169" s="29" t="n"/>
@@ -5535,7 +5392,7 @@
       <c r="X169" s="5" t="n"/>
       <c r="Y169" s="5" t="n"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1" s="52">
+    <row r="170" ht="15.75" customHeight="1" s="51">
       <c r="A170" s="29" t="n"/>
       <c r="B170" s="29" t="n"/>
       <c r="C170" s="29" t="n"/>
@@ -5562,7 +5419,7 @@
       <c r="X170" s="5" t="n"/>
       <c r="Y170" s="5" t="n"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1" s="52">
+    <row r="171" ht="15.75" customHeight="1" s="51">
       <c r="A171" s="29" t="n"/>
       <c r="B171" s="29" t="n"/>
       <c r="C171" s="29" t="n"/>
@@ -5589,7 +5446,7 @@
       <c r="X171" s="5" t="n"/>
       <c r="Y171" s="5" t="n"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1" s="52">
+    <row r="172" ht="15.75" customHeight="1" s="51">
       <c r="A172" s="29" t="n"/>
       <c r="B172" s="29" t="n"/>
       <c r="C172" s="29" t="n"/>
@@ -5616,7 +5473,7 @@
       <c r="X172" s="5" t="n"/>
       <c r="Y172" s="5" t="n"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1" s="52">
+    <row r="173" ht="15.75" customHeight="1" s="51">
       <c r="A173" s="29" t="n"/>
       <c r="B173" s="29" t="n"/>
       <c r="C173" s="29" t="n"/>
@@ -5643,7 +5500,7 @@
       <c r="X173" s="5" t="n"/>
       <c r="Y173" s="5" t="n"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1" s="52">
+    <row r="174" ht="15.75" customHeight="1" s="51">
       <c r="A174" s="29" t="n"/>
       <c r="B174" s="29" t="n"/>
       <c r="C174" s="29" t="n"/>
@@ -5670,7 +5527,7 @@
       <c r="X174" s="5" t="n"/>
       <c r="Y174" s="5" t="n"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1" s="52">
+    <row r="175" ht="15.75" customHeight="1" s="51">
       <c r="A175" s="29" t="n"/>
       <c r="B175" s="29" t="n"/>
       <c r="C175" s="29" t="n"/>
@@ -5697,7 +5554,7 @@
       <c r="X175" s="5" t="n"/>
       <c r="Y175" s="5" t="n"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1" s="52">
+    <row r="176" ht="15.75" customHeight="1" s="51">
       <c r="A176" s="29" t="n"/>
       <c r="B176" s="29" t="n"/>
       <c r="C176" s="29" t="n"/>
@@ -5724,7 +5581,7 @@
       <c r="X176" s="5" t="n"/>
       <c r="Y176" s="5" t="n"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1" s="52">
+    <row r="177" ht="15.75" customHeight="1" s="51">
       <c r="A177" s="29" t="n"/>
       <c r="B177" s="29" t="n"/>
       <c r="C177" s="29" t="n"/>
@@ -5751,7 +5608,7 @@
       <c r="X177" s="5" t="n"/>
       <c r="Y177" s="5" t="n"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1" s="52">
+    <row r="178" ht="15.75" customHeight="1" s="51">
       <c r="A178" s="29" t="n"/>
       <c r="B178" s="29" t="n"/>
       <c r="C178" s="29" t="n"/>
@@ -5778,7 +5635,7 @@
       <c r="X178" s="5" t="n"/>
       <c r="Y178" s="5" t="n"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1" s="52">
+    <row r="179" ht="15.75" customHeight="1" s="51">
       <c r="A179" s="29" t="n"/>
       <c r="B179" s="29" t="n"/>
       <c r="C179" s="29" t="n"/>
@@ -5805,7 +5662,7 @@
       <c r="X179" s="5" t="n"/>
       <c r="Y179" s="5" t="n"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1" s="52">
+    <row r="180" ht="15.75" customHeight="1" s="51">
       <c r="A180" s="29" t="n"/>
       <c r="B180" s="29" t="n"/>
       <c r="C180" s="29" t="n"/>
@@ -5832,7 +5689,7 @@
       <c r="X180" s="5" t="n"/>
       <c r="Y180" s="5" t="n"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1" s="52">
+    <row r="181" ht="15.75" customHeight="1" s="51">
       <c r="A181" s="29" t="n"/>
       <c r="B181" s="29" t="n"/>
       <c r="C181" s="29" t="n"/>
@@ -5859,7 +5716,7 @@
       <c r="X181" s="5" t="n"/>
       <c r="Y181" s="5" t="n"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1" s="52">
+    <row r="182" ht="15.75" customHeight="1" s="51">
       <c r="A182" s="29" t="n"/>
       <c r="B182" s="29" t="n"/>
       <c r="C182" s="29" t="n"/>
@@ -5886,7 +5743,7 @@
       <c r="X182" s="5" t="n"/>
       <c r="Y182" s="5" t="n"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1" s="52">
+    <row r="183" ht="15.75" customHeight="1" s="51">
       <c r="A183" s="29" t="n"/>
       <c r="B183" s="29" t="n"/>
       <c r="C183" s="29" t="n"/>
@@ -5913,7 +5770,7 @@
       <c r="X183" s="5" t="n"/>
       <c r="Y183" s="5" t="n"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1" s="52">
+    <row r="184" ht="15.75" customHeight="1" s="51">
       <c r="A184" s="29" t="n"/>
       <c r="B184" s="29" t="n"/>
       <c r="C184" s="29" t="n"/>
@@ -5940,7 +5797,7 @@
       <c r="X184" s="5" t="n"/>
       <c r="Y184" s="5" t="n"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1" s="52">
+    <row r="185" ht="15.75" customHeight="1" s="51">
       <c r="A185" s="29" t="n"/>
       <c r="B185" s="29" t="n"/>
       <c r="C185" s="29" t="n"/>
@@ -5967,7 +5824,7 @@
       <c r="X185" s="5" t="n"/>
       <c r="Y185" s="5" t="n"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1" s="52">
+    <row r="186" ht="15.75" customHeight="1" s="51">
       <c r="A186" s="29" t="n"/>
       <c r="B186" s="29" t="n"/>
       <c r="C186" s="29" t="n"/>
@@ -5994,7 +5851,7 @@
       <c r="X186" s="5" t="n"/>
       <c r="Y186" s="5" t="n"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1" s="52">
+    <row r="187" ht="15.75" customHeight="1" s="51">
       <c r="A187" s="29" t="n"/>
       <c r="B187" s="29" t="n"/>
       <c r="C187" s="29" t="n"/>
@@ -6021,7 +5878,7 @@
       <c r="X187" s="5" t="n"/>
       <c r="Y187" s="5" t="n"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1" s="52">
+    <row r="188" ht="15.75" customHeight="1" s="51">
       <c r="A188" s="29" t="n"/>
       <c r="B188" s="29" t="n"/>
       <c r="C188" s="29" t="n"/>
@@ -6048,7 +5905,7 @@
       <c r="X188" s="5" t="n"/>
       <c r="Y188" s="5" t="n"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1" s="52">
+    <row r="189" ht="15.75" customHeight="1" s="51">
       <c r="A189" s="29" t="n"/>
       <c r="B189" s="29" t="n"/>
       <c r="C189" s="29" t="n"/>
@@ -6075,7 +5932,7 @@
       <c r="X189" s="5" t="n"/>
       <c r="Y189" s="5" t="n"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1" s="52">
+    <row r="190" ht="15.75" customHeight="1" s="51">
       <c r="A190" s="29" t="n"/>
       <c r="B190" s="29" t="n"/>
       <c r="C190" s="29" t="n"/>
@@ -6102,7 +5959,7 @@
       <c r="X190" s="5" t="n"/>
       <c r="Y190" s="5" t="n"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1" s="52">
+    <row r="191" ht="15.75" customHeight="1" s="51">
       <c r="A191" s="29" t="n"/>
       <c r="B191" s="29" t="n"/>
       <c r="C191" s="29" t="n"/>
@@ -6129,7 +5986,7 @@
       <c r="X191" s="5" t="n"/>
       <c r="Y191" s="5" t="n"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1" s="52">
+    <row r="192" ht="15.75" customHeight="1" s="51">
       <c r="A192" s="29" t="n"/>
       <c r="B192" s="29" t="n"/>
       <c r="C192" s="29" t="n"/>
@@ -6156,7 +6013,7 @@
       <c r="X192" s="5" t="n"/>
       <c r="Y192" s="5" t="n"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1" s="52">
+    <row r="193" ht="15.75" customHeight="1" s="51">
       <c r="A193" s="29" t="n"/>
       <c r="B193" s="29" t="n"/>
       <c r="C193" s="29" t="n"/>
@@ -6183,7 +6040,7 @@
       <c r="X193" s="5" t="n"/>
       <c r="Y193" s="5" t="n"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1" s="52">
+    <row r="194" ht="15.75" customHeight="1" s="51">
       <c r="A194" s="29" t="n"/>
       <c r="B194" s="29" t="n"/>
       <c r="C194" s="29" t="n"/>
@@ -6210,7 +6067,7 @@
       <c r="X194" s="5" t="n"/>
       <c r="Y194" s="5" t="n"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1" s="52">
+    <row r="195" ht="15.75" customHeight="1" s="51">
       <c r="A195" s="29" t="n"/>
       <c r="B195" s="29" t="n"/>
       <c r="C195" s="29" t="n"/>
@@ -6237,7 +6094,7 @@
       <c r="X195" s="5" t="n"/>
       <c r="Y195" s="5" t="n"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1" s="52">
+    <row r="196" ht="15.75" customHeight="1" s="51">
       <c r="A196" s="29" t="n"/>
       <c r="B196" s="29" t="n"/>
       <c r="C196" s="29" t="n"/>
@@ -6264,7 +6121,7 @@
       <c r="X196" s="5" t="n"/>
       <c r="Y196" s="5" t="n"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1" s="52">
+    <row r="197" ht="15.75" customHeight="1" s="51">
       <c r="A197" s="29" t="n"/>
       <c r="B197" s="29" t="n"/>
       <c r="C197" s="29" t="n"/>
@@ -6291,7 +6148,7 @@
       <c r="X197" s="5" t="n"/>
       <c r="Y197" s="5" t="n"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1" s="52">
+    <row r="198" ht="15.75" customHeight="1" s="51">
       <c r="A198" s="29" t="n"/>
       <c r="B198" s="29" t="n"/>
       <c r="C198" s="29" t="n"/>
@@ -6318,7 +6175,7 @@
       <c r="X198" s="5" t="n"/>
       <c r="Y198" s="5" t="n"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1" s="52">
+    <row r="199" ht="15.75" customHeight="1" s="51">
       <c r="A199" s="29" t="n"/>
       <c r="B199" s="29" t="n"/>
       <c r="C199" s="29" t="n"/>
@@ -6345,7 +6202,7 @@
       <c r="X199" s="5" t="n"/>
       <c r="Y199" s="5" t="n"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1" s="52">
+    <row r="200" ht="15.75" customHeight="1" s="51">
       <c r="A200" s="29" t="n"/>
       <c r="B200" s="29" t="n"/>
       <c r="C200" s="29" t="n"/>
@@ -6372,7 +6229,7 @@
       <c r="X200" s="5" t="n"/>
       <c r="Y200" s="5" t="n"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1" s="52">
+    <row r="201" ht="15.75" customHeight="1" s="51">
       <c r="A201" s="29" t="n"/>
       <c r="B201" s="29" t="n"/>
       <c r="C201" s="29" t="n"/>
@@ -6399,7 +6256,7 @@
       <c r="X201" s="5" t="n"/>
       <c r="Y201" s="5" t="n"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1" s="52">
+    <row r="202" ht="15.75" customHeight="1" s="51">
       <c r="A202" s="29" t="n"/>
       <c r="B202" s="29" t="n"/>
       <c r="C202" s="29" t="n"/>
@@ -6426,7 +6283,7 @@
       <c r="X202" s="5" t="n"/>
       <c r="Y202" s="5" t="n"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1" s="52">
+    <row r="203" ht="15.75" customHeight="1" s="51">
       <c r="A203" s="29" t="n"/>
       <c r="B203" s="29" t="n"/>
       <c r="C203" s="29" t="n"/>
@@ -6453,7 +6310,7 @@
       <c r="X203" s="5" t="n"/>
       <c r="Y203" s="5" t="n"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1" s="52">
+    <row r="204" ht="15.75" customHeight="1" s="51">
       <c r="A204" s="29" t="n"/>
       <c r="B204" s="29" t="n"/>
       <c r="C204" s="29" t="n"/>
@@ -6480,7 +6337,7 @@
       <c r="X204" s="5" t="n"/>
       <c r="Y204" s="5" t="n"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1" s="52">
+    <row r="205" ht="15.75" customHeight="1" s="51">
       <c r="A205" s="29" t="n"/>
       <c r="B205" s="29" t="n"/>
       <c r="C205" s="29" t="n"/>
@@ -6507,7 +6364,7 @@
       <c r="X205" s="5" t="n"/>
       <c r="Y205" s="5" t="n"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1" s="52">
+    <row r="206" ht="15.75" customHeight="1" s="51">
       <c r="A206" s="29" t="n"/>
       <c r="B206" s="29" t="n"/>
       <c r="C206" s="29" t="n"/>
@@ -6534,7 +6391,7 @@
       <c r="X206" s="5" t="n"/>
       <c r="Y206" s="5" t="n"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1" s="52">
+    <row r="207" ht="15.75" customHeight="1" s="51">
       <c r="A207" s="29" t="n"/>
       <c r="B207" s="29" t="n"/>
       <c r="C207" s="29" t="n"/>
@@ -6561,7 +6418,7 @@
       <c r="X207" s="5" t="n"/>
       <c r="Y207" s="5" t="n"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1" s="52">
+    <row r="208" ht="15.75" customHeight="1" s="51">
       <c r="A208" s="29" t="n"/>
       <c r="B208" s="29" t="n"/>
       <c r="C208" s="29" t="n"/>
@@ -6588,7 +6445,7 @@
       <c r="X208" s="5" t="n"/>
       <c r="Y208" s="5" t="n"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1" s="52">
+    <row r="209" ht="15.75" customHeight="1" s="51">
       <c r="A209" s="29" t="n"/>
       <c r="B209" s="29" t="n"/>
       <c r="C209" s="29" t="n"/>
@@ -6615,7 +6472,7 @@
       <c r="X209" s="5" t="n"/>
       <c r="Y209" s="5" t="n"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1" s="52">
+    <row r="210" ht="15.75" customHeight="1" s="51">
       <c r="A210" s="29" t="n"/>
       <c r="B210" s="29" t="n"/>
       <c r="C210" s="29" t="n"/>
@@ -6642,7 +6499,7 @@
       <c r="X210" s="5" t="n"/>
       <c r="Y210" s="5" t="n"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1" s="52">
+    <row r="211" ht="15.75" customHeight="1" s="51">
       <c r="A211" s="29" t="n"/>
       <c r="B211" s="29" t="n"/>
       <c r="C211" s="29" t="n"/>
@@ -6669,7 +6526,7 @@
       <c r="X211" s="5" t="n"/>
       <c r="Y211" s="5" t="n"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1" s="52">
+    <row r="212" ht="15.75" customHeight="1" s="51">
       <c r="A212" s="29" t="n"/>
       <c r="B212" s="29" t="n"/>
       <c r="C212" s="29" t="n"/>
@@ -6696,7 +6553,7 @@
       <c r="X212" s="5" t="n"/>
       <c r="Y212" s="5" t="n"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1" s="52">
+    <row r="213" ht="15.75" customHeight="1" s="51">
       <c r="A213" s="29" t="n"/>
       <c r="B213" s="29" t="n"/>
       <c r="C213" s="29" t="n"/>
@@ -6723,7 +6580,7 @@
       <c r="X213" s="5" t="n"/>
       <c r="Y213" s="5" t="n"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1" s="52">
+    <row r="214" ht="15.75" customHeight="1" s="51">
       <c r="A214" s="29" t="n"/>
       <c r="B214" s="29" t="n"/>
       <c r="C214" s="29" t="n"/>
@@ -6750,7 +6607,7 @@
       <c r="X214" s="5" t="n"/>
       <c r="Y214" s="5" t="n"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1" s="52">
+    <row r="215" ht="15.75" customHeight="1" s="51">
       <c r="A215" s="29" t="n"/>
       <c r="B215" s="29" t="n"/>
       <c r="C215" s="29" t="n"/>
@@ -6777,7 +6634,7 @@
       <c r="X215" s="5" t="n"/>
       <c r="Y215" s="5" t="n"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1" s="52">
+    <row r="216" ht="15.75" customHeight="1" s="51">
       <c r="A216" s="29" t="n"/>
       <c r="B216" s="29" t="n"/>
       <c r="C216" s="29" t="n"/>
@@ -6804,7 +6661,7 @@
       <c r="X216" s="5" t="n"/>
       <c r="Y216" s="5" t="n"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1" s="52">
+    <row r="217" ht="15.75" customHeight="1" s="51">
       <c r="A217" s="29" t="n"/>
       <c r="B217" s="29" t="n"/>
       <c r="C217" s="29" t="n"/>
@@ -6831,7 +6688,7 @@
       <c r="X217" s="5" t="n"/>
       <c r="Y217" s="5" t="n"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1" s="52">
+    <row r="218" ht="15.75" customHeight="1" s="51">
       <c r="A218" s="29" t="n"/>
       <c r="B218" s="29" t="n"/>
       <c r="C218" s="29" t="n"/>
@@ -6858,7 +6715,7 @@
       <c r="X218" s="5" t="n"/>
       <c r="Y218" s="5" t="n"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1" s="52">
+    <row r="219" ht="15.75" customHeight="1" s="51">
       <c r="A219" s="29" t="n"/>
       <c r="B219" s="29" t="n"/>
       <c r="C219" s="29" t="n"/>
@@ -6885,7 +6742,7 @@
       <c r="X219" s="5" t="n"/>
       <c r="Y219" s="5" t="n"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1" s="52">
+    <row r="220" ht="15.75" customHeight="1" s="51">
       <c r="A220" s="29" t="n"/>
       <c r="B220" s="29" t="n"/>
       <c r="C220" s="29" t="n"/>
@@ -6912,7 +6769,7 @@
       <c r="X220" s="5" t="n"/>
       <c r="Y220" s="5" t="n"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1" s="52">
+    <row r="221" ht="15.75" customHeight="1" s="51">
       <c r="A221" s="29" t="n"/>
       <c r="B221" s="29" t="n"/>
       <c r="C221" s="29" t="n"/>
@@ -6939,7 +6796,7 @@
       <c r="X221" s="5" t="n"/>
       <c r="Y221" s="5" t="n"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1" s="52">
+    <row r="222" ht="15.75" customHeight="1" s="51">
       <c r="A222" s="29" t="n"/>
       <c r="B222" s="29" t="n"/>
       <c r="C222" s="29" t="n"/>
@@ -6966,7 +6823,7 @@
       <c r="X222" s="5" t="n"/>
       <c r="Y222" s="5" t="n"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1" s="52">
+    <row r="223" ht="15.75" customHeight="1" s="51">
       <c r="A223" s="29" t="n"/>
       <c r="B223" s="29" t="n"/>
       <c r="C223" s="29" t="n"/>
@@ -6993,7 +6850,7 @@
       <c r="X223" s="5" t="n"/>
       <c r="Y223" s="5" t="n"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1" s="52">
+    <row r="224" ht="15.75" customHeight="1" s="51">
       <c r="A224" s="29" t="n"/>
       <c r="B224" s="29" t="n"/>
       <c r="C224" s="29" t="n"/>
@@ -7020,7 +6877,7 @@
       <c r="X224" s="5" t="n"/>
       <c r="Y224" s="5" t="n"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1" s="52">
+    <row r="225" ht="15.75" customHeight="1" s="51">
       <c r="A225" s="29" t="n"/>
       <c r="B225" s="29" t="n"/>
       <c r="C225" s="29" t="n"/>
@@ -7047,7 +6904,7 @@
       <c r="X225" s="5" t="n"/>
       <c r="Y225" s="5" t="n"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1" s="52">
+    <row r="226" ht="15.75" customHeight="1" s="51">
       <c r="A226" s="29" t="n"/>
       <c r="B226" s="29" t="n"/>
       <c r="C226" s="29" t="n"/>
@@ -7074,7 +6931,7 @@
       <c r="X226" s="5" t="n"/>
       <c r="Y226" s="5" t="n"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1" s="52">
+    <row r="227" ht="15.75" customHeight="1" s="51">
       <c r="A227" s="29" t="n"/>
       <c r="B227" s="29" t="n"/>
       <c r="C227" s="29" t="n"/>
@@ -7101,7 +6958,7 @@
       <c r="X227" s="5" t="n"/>
       <c r="Y227" s="5" t="n"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1" s="52">
+    <row r="228" ht="15.75" customHeight="1" s="51">
       <c r="A228" s="29" t="n"/>
       <c r="B228" s="29" t="n"/>
       <c r="C228" s="29" t="n"/>
@@ -7128,7 +6985,7 @@
       <c r="X228" s="5" t="n"/>
       <c r="Y228" s="5" t="n"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1" s="52">
+    <row r="229" ht="15.75" customHeight="1" s="51">
       <c r="A229" s="29" t="n"/>
       <c r="B229" s="29" t="n"/>
       <c r="C229" s="29" t="n"/>
@@ -7155,7 +7012,7 @@
       <c r="X229" s="5" t="n"/>
       <c r="Y229" s="5" t="n"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1" s="52">
+    <row r="230" ht="15.75" customHeight="1" s="51">
       <c r="A230" s="29" t="n"/>
       <c r="B230" s="29" t="n"/>
       <c r="C230" s="29" t="n"/>
@@ -7182,7 +7039,7 @@
       <c r="X230" s="5" t="n"/>
       <c r="Y230" s="5" t="n"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1" s="52">
+    <row r="231" ht="15.75" customHeight="1" s="51">
       <c r="A231" s="29" t="n"/>
       <c r="B231" s="29" t="n"/>
       <c r="C231" s="29" t="n"/>
@@ -7209,7 +7066,7 @@
       <c r="X231" s="5" t="n"/>
       <c r="Y231" s="5" t="n"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1" s="52">
+    <row r="232" ht="15.75" customHeight="1" s="51">
       <c r="A232" s="29" t="n"/>
       <c r="B232" s="29" t="n"/>
       <c r="C232" s="29" t="n"/>
@@ -7236,7 +7093,7 @@
       <c r="X232" s="5" t="n"/>
       <c r="Y232" s="5" t="n"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1" s="52">
+    <row r="233" ht="15.75" customHeight="1" s="51">
       <c r="A233" s="29" t="n"/>
       <c r="B233" s="29" t="n"/>
       <c r="C233" s="29" t="n"/>
@@ -7263,7 +7120,7 @@
       <c r="X233" s="5" t="n"/>
       <c r="Y233" s="5" t="n"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1" s="52">
+    <row r="234" ht="15.75" customHeight="1" s="51">
       <c r="A234" s="29" t="n"/>
       <c r="B234" s="29" t="n"/>
       <c r="C234" s="29" t="n"/>
@@ -7290,7 +7147,7 @@
       <c r="X234" s="5" t="n"/>
       <c r="Y234" s="5" t="n"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1" s="52">
+    <row r="235" ht="15.75" customHeight="1" s="51">
       <c r="A235" s="29" t="n"/>
       <c r="B235" s="29" t="n"/>
       <c r="C235" s="29" t="n"/>
@@ -7317,7 +7174,7 @@
       <c r="X235" s="5" t="n"/>
       <c r="Y235" s="5" t="n"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1" s="52">
+    <row r="236" ht="15.75" customHeight="1" s="51">
       <c r="A236" s="29" t="n"/>
       <c r="B236" s="29" t="n"/>
       <c r="C236" s="29" t="n"/>
@@ -7344,7 +7201,7 @@
       <c r="X236" s="5" t="n"/>
       <c r="Y236" s="5" t="n"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1" s="52">
+    <row r="237" ht="15.75" customHeight="1" s="51">
       <c r="A237" s="29" t="n"/>
       <c r="B237" s="29" t="n"/>
       <c r="C237" s="29" t="n"/>
@@ -7371,7 +7228,7 @@
       <c r="X237" s="5" t="n"/>
       <c r="Y237" s="5" t="n"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1" s="52">
+    <row r="238" ht="15.75" customHeight="1" s="51">
       <c r="A238" s="29" t="n"/>
       <c r="B238" s="29" t="n"/>
       <c r="C238" s="29" t="n"/>
@@ -7398,7 +7255,7 @@
       <c r="X238" s="5" t="n"/>
       <c r="Y238" s="5" t="n"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1" s="52">
+    <row r="239" ht="15.75" customHeight="1" s="51">
       <c r="A239" s="29" t="n"/>
       <c r="B239" s="29" t="n"/>
       <c r="C239" s="29" t="n"/>
@@ -7425,7 +7282,7 @@
       <c r="X239" s="5" t="n"/>
       <c r="Y239" s="5" t="n"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1" s="52">
+    <row r="240" ht="15.75" customHeight="1" s="51">
       <c r="A240" s="29" t="n"/>
       <c r="B240" s="29" t="n"/>
       <c r="C240" s="29" t="n"/>
@@ -7452,7 +7309,7 @@
       <c r="X240" s="5" t="n"/>
       <c r="Y240" s="5" t="n"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1" s="52">
+    <row r="241" ht="15.75" customHeight="1" s="51">
       <c r="A241" s="29" t="n"/>
       <c r="B241" s="29" t="n"/>
       <c r="C241" s="29" t="n"/>
@@ -7479,7 +7336,7 @@
       <c r="X241" s="5" t="n"/>
       <c r="Y241" s="5" t="n"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1" s="52">
+    <row r="242" ht="15.75" customHeight="1" s="51">
       <c r="A242" s="29" t="n"/>
       <c r="B242" s="29" t="n"/>
       <c r="C242" s="29" t="n"/>
@@ -7506,7 +7363,7 @@
       <c r="X242" s="5" t="n"/>
       <c r="Y242" s="5" t="n"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1" s="52">
+    <row r="243" ht="15.75" customHeight="1" s="51">
       <c r="A243" s="29" t="n"/>
       <c r="B243" s="29" t="n"/>
       <c r="C243" s="29" t="n"/>
@@ -7533,7 +7390,7 @@
       <c r="X243" s="5" t="n"/>
       <c r="Y243" s="5" t="n"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1" s="52">
+    <row r="244" ht="15.75" customHeight="1" s="51">
       <c r="A244" s="29" t="n"/>
       <c r="B244" s="29" t="n"/>
       <c r="C244" s="29" t="n"/>
@@ -7560,7 +7417,7 @@
       <c r="X244" s="5" t="n"/>
       <c r="Y244" s="5" t="n"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1" s="52">
+    <row r="245" ht="15.75" customHeight="1" s="51">
       <c r="A245" s="29" t="n"/>
       <c r="B245" s="29" t="n"/>
       <c r="C245" s="29" t="n"/>
@@ -7587,7 +7444,7 @@
       <c r="X245" s="5" t="n"/>
       <c r="Y245" s="5" t="n"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1" s="52">
+    <row r="246" ht="15.75" customHeight="1" s="51">
       <c r="A246" s="29" t="n"/>
       <c r="B246" s="29" t="n"/>
       <c r="C246" s="29" t="n"/>
@@ -7614,7 +7471,7 @@
       <c r="X246" s="5" t="n"/>
       <c r="Y246" s="5" t="n"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1" s="52">
+    <row r="247" ht="15.75" customHeight="1" s="51">
       <c r="A247" s="29" t="n"/>
       <c r="B247" s="29" t="n"/>
       <c r="C247" s="29" t="n"/>
@@ -7641,7 +7498,7 @@
       <c r="X247" s="5" t="n"/>
       <c r="Y247" s="5" t="n"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1" s="52">
+    <row r="248" ht="15.75" customHeight="1" s="51">
       <c r="A248" s="29" t="n"/>
       <c r="B248" s="29" t="n"/>
       <c r="C248" s="29" t="n"/>
@@ -7668,7 +7525,7 @@
       <c r="X248" s="5" t="n"/>
       <c r="Y248" s="5" t="n"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1" s="52">
+    <row r="249" ht="15.75" customHeight="1" s="51">
       <c r="A249" s="29" t="n"/>
       <c r="B249" s="29" t="n"/>
       <c r="C249" s="29" t="n"/>
@@ -7695,7 +7552,7 @@
       <c r="X249" s="5" t="n"/>
       <c r="Y249" s="5" t="n"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1" s="52">
+    <row r="250" ht="15.75" customHeight="1" s="51">
       <c r="A250" s="29" t="n"/>
       <c r="B250" s="29" t="n"/>
       <c r="C250" s="29" t="n"/>
@@ -7722,7 +7579,7 @@
       <c r="X250" s="5" t="n"/>
       <c r="Y250" s="5" t="n"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1" s="52">
+    <row r="251" ht="15.75" customHeight="1" s="51">
       <c r="A251" s="29" t="n"/>
       <c r="B251" s="29" t="n"/>
       <c r="C251" s="29" t="n"/>
@@ -7749,7 +7606,7 @@
       <c r="X251" s="5" t="n"/>
       <c r="Y251" s="5" t="n"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1" s="52">
+    <row r="252" ht="15.75" customHeight="1" s="51">
       <c r="A252" s="29" t="n"/>
       <c r="B252" s="29" t="n"/>
       <c r="C252" s="29" t="n"/>
@@ -7776,7 +7633,7 @@
       <c r="X252" s="5" t="n"/>
       <c r="Y252" s="5" t="n"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1" s="52">
+    <row r="253" ht="15.75" customHeight="1" s="51">
       <c r="A253" s="29" t="n"/>
       <c r="B253" s="29" t="n"/>
       <c r="C253" s="29" t="n"/>
@@ -7803,7 +7660,7 @@
       <c r="X253" s="5" t="n"/>
       <c r="Y253" s="5" t="n"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1" s="52">
+    <row r="254" ht="15.75" customHeight="1" s="51">
       <c r="A254" s="29" t="n"/>
       <c r="B254" s="29" t="n"/>
       <c r="C254" s="29" t="n"/>
@@ -7830,7 +7687,7 @@
       <c r="X254" s="5" t="n"/>
       <c r="Y254" s="5" t="n"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1" s="52">
+    <row r="255" ht="15.75" customHeight="1" s="51">
       <c r="A255" s="29" t="n"/>
       <c r="B255" s="29" t="n"/>
       <c r="C255" s="29" t="n"/>
@@ -7857,7 +7714,7 @@
       <c r="X255" s="5" t="n"/>
       <c r="Y255" s="5" t="n"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1" s="52">
+    <row r="256" ht="15.75" customHeight="1" s="51">
       <c r="A256" s="29" t="n"/>
       <c r="B256" s="29" t="n"/>
       <c r="C256" s="29" t="n"/>
@@ -7884,7 +7741,7 @@
       <c r="X256" s="5" t="n"/>
       <c r="Y256" s="5" t="n"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1" s="52">
+    <row r="257" ht="15.75" customHeight="1" s="51">
       <c r="A257" s="29" t="n"/>
       <c r="B257" s="29" t="n"/>
       <c r="C257" s="29" t="n"/>
@@ -7911,7 +7768,7 @@
       <c r="X257" s="5" t="n"/>
       <c r="Y257" s="5" t="n"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1" s="52">
+    <row r="258" ht="15.75" customHeight="1" s="51">
       <c r="A258" s="29" t="n"/>
       <c r="B258" s="29" t="n"/>
       <c r="C258" s="29" t="n"/>
@@ -7938,7 +7795,7 @@
       <c r="X258" s="5" t="n"/>
       <c r="Y258" s="5" t="n"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1" s="52">
+    <row r="259" ht="15.75" customHeight="1" s="51">
       <c r="A259" s="29" t="n"/>
       <c r="B259" s="29" t="n"/>
       <c r="C259" s="29" t="n"/>
@@ -7965,7 +7822,7 @@
       <c r="X259" s="5" t="n"/>
       <c r="Y259" s="5" t="n"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1" s="52">
+    <row r="260" ht="15.75" customHeight="1" s="51">
       <c r="A260" s="29" t="n"/>
       <c r="B260" s="29" t="n"/>
       <c r="C260" s="29" t="n"/>
@@ -7992,7 +7849,7 @@
       <c r="X260" s="5" t="n"/>
       <c r="Y260" s="5" t="n"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1" s="52">
+    <row r="261" ht="15.75" customHeight="1" s="51">
       <c r="A261" s="29" t="n"/>
       <c r="B261" s="29" t="n"/>
       <c r="C261" s="29" t="n"/>
@@ -8019,7 +7876,7 @@
       <c r="X261" s="5" t="n"/>
       <c r="Y261" s="5" t="n"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1" s="52">
+    <row r="262" ht="15.75" customHeight="1" s="51">
       <c r="A262" s="29" t="n"/>
       <c r="B262" s="29" t="n"/>
       <c r="C262" s="29" t="n"/>
@@ -8046,7 +7903,7 @@
       <c r="X262" s="5" t="n"/>
       <c r="Y262" s="5" t="n"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1" s="52">
+    <row r="263" ht="15.75" customHeight="1" s="51">
       <c r="A263" s="29" t="n"/>
       <c r="B263" s="29" t="n"/>
       <c r="C263" s="29" t="n"/>
@@ -8073,7 +7930,7 @@
       <c r="X263" s="5" t="n"/>
       <c r="Y263" s="5" t="n"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1" s="52">
+    <row r="264" ht="15.75" customHeight="1" s="51">
       <c r="A264" s="29" t="n"/>
       <c r="B264" s="29" t="n"/>
       <c r="C264" s="29" t="n"/>
@@ -8100,7 +7957,7 @@
       <c r="X264" s="5" t="n"/>
       <c r="Y264" s="5" t="n"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1" s="52">
+    <row r="265" ht="15.75" customHeight="1" s="51">
       <c r="A265" s="29" t="n"/>
       <c r="B265" s="29" t="n"/>
       <c r="C265" s="29" t="n"/>
@@ -8127,7 +7984,7 @@
       <c r="X265" s="5" t="n"/>
       <c r="Y265" s="5" t="n"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1" s="52">
+    <row r="266" ht="15.75" customHeight="1" s="51">
       <c r="A266" s="29" t="n"/>
       <c r="B266" s="29" t="n"/>
       <c r="C266" s="29" t="n"/>
@@ -8154,7 +8011,7 @@
       <c r="X266" s="5" t="n"/>
       <c r="Y266" s="5" t="n"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1" s="52">
+    <row r="267" ht="15.75" customHeight="1" s="51">
       <c r="A267" s="29" t="n"/>
       <c r="B267" s="29" t="n"/>
       <c r="C267" s="29" t="n"/>
@@ -8181,7 +8038,7 @@
       <c r="X267" s="5" t="n"/>
       <c r="Y267" s="5" t="n"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1" s="52">
+    <row r="268" ht="15.75" customHeight="1" s="51">
       <c r="A268" s="29" t="n"/>
       <c r="B268" s="29" t="n"/>
       <c r="C268" s="29" t="n"/>
@@ -8208,7 +8065,7 @@
       <c r="X268" s="5" t="n"/>
       <c r="Y268" s="5" t="n"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1" s="52">
+    <row r="269" ht="15.75" customHeight="1" s="51">
       <c r="A269" s="29" t="n"/>
       <c r="B269" s="29" t="n"/>
       <c r="C269" s="29" t="n"/>
@@ -8235,7 +8092,7 @@
       <c r="X269" s="5" t="n"/>
       <c r="Y269" s="5" t="n"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1" s="52">
+    <row r="270" ht="15.75" customHeight="1" s="51">
       <c r="A270" s="29" t="n"/>
       <c r="B270" s="29" t="n"/>
       <c r="C270" s="29" t="n"/>
@@ -8262,7 +8119,7 @@
       <c r="X270" s="5" t="n"/>
       <c r="Y270" s="5" t="n"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1" s="52">
+    <row r="271" ht="15.75" customHeight="1" s="51">
       <c r="A271" s="29" t="n"/>
       <c r="B271" s="29" t="n"/>
       <c r="C271" s="29" t="n"/>
@@ -8289,7 +8146,7 @@
       <c r="X271" s="5" t="n"/>
       <c r="Y271" s="5" t="n"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1" s="52">
+    <row r="272" ht="15.75" customHeight="1" s="51">
       <c r="A272" s="29" t="n"/>
       <c r="B272" s="29" t="n"/>
       <c r="C272" s="29" t="n"/>
@@ -8316,7 +8173,7 @@
       <c r="X272" s="5" t="n"/>
       <c r="Y272" s="5" t="n"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1" s="52">
+    <row r="273" ht="15.75" customHeight="1" s="51">
       <c r="A273" s="29" t="n"/>
       <c r="B273" s="29" t="n"/>
       <c r="C273" s="29" t="n"/>
@@ -8343,7 +8200,7 @@
       <c r="X273" s="5" t="n"/>
       <c r="Y273" s="5" t="n"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1" s="52">
+    <row r="274" ht="15.75" customHeight="1" s="51">
       <c r="A274" s="29" t="n"/>
       <c r="B274" s="29" t="n"/>
       <c r="C274" s="29" t="n"/>
@@ -8370,7 +8227,7 @@
       <c r="X274" s="5" t="n"/>
       <c r="Y274" s="5" t="n"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1" s="52">
+    <row r="275" ht="15.75" customHeight="1" s="51">
       <c r="A275" s="29" t="n"/>
       <c r="B275" s="29" t="n"/>
       <c r="C275" s="29" t="n"/>
@@ -8397,7 +8254,7 @@
       <c r="X275" s="5" t="n"/>
       <c r="Y275" s="5" t="n"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1" s="52">
+    <row r="276" ht="15.75" customHeight="1" s="51">
       <c r="A276" s="29" t="n"/>
       <c r="B276" s="29" t="n"/>
       <c r="C276" s="29" t="n"/>
@@ -8424,7 +8281,7 @@
       <c r="X276" s="5" t="n"/>
       <c r="Y276" s="5" t="n"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1" s="52">
+    <row r="277" ht="15.75" customHeight="1" s="51">
       <c r="A277" s="29" t="n"/>
       <c r="B277" s="29" t="n"/>
       <c r="C277" s="29" t="n"/>
@@ -8451,7 +8308,7 @@
       <c r="X277" s="5" t="n"/>
       <c r="Y277" s="5" t="n"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1" s="52">
+    <row r="278" ht="15.75" customHeight="1" s="51">
       <c r="A278" s="29" t="n"/>
       <c r="B278" s="29" t="n"/>
       <c r="C278" s="29" t="n"/>
@@ -8478,7 +8335,7 @@
       <c r="X278" s="5" t="n"/>
       <c r="Y278" s="5" t="n"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1" s="52">
+    <row r="279" ht="15.75" customHeight="1" s="51">
       <c r="A279" s="29" t="n"/>
       <c r="B279" s="29" t="n"/>
       <c r="C279" s="29" t="n"/>
@@ -8505,7 +8362,7 @@
       <c r="X279" s="5" t="n"/>
       <c r="Y279" s="5" t="n"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1" s="52">
+    <row r="280" ht="15.75" customHeight="1" s="51">
       <c r="A280" s="29" t="n"/>
       <c r="B280" s="29" t="n"/>
       <c r="C280" s="29" t="n"/>
@@ -8532,7 +8389,7 @@
       <c r="X280" s="5" t="n"/>
       <c r="Y280" s="5" t="n"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1" s="52">
+    <row r="281" ht="15.75" customHeight="1" s="51">
       <c r="A281" s="29" t="n"/>
       <c r="B281" s="29" t="n"/>
       <c r="C281" s="29" t="n"/>
@@ -8559,7 +8416,7 @@
       <c r="X281" s="5" t="n"/>
       <c r="Y281" s="5" t="n"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1" s="52">
+    <row r="282" ht="15.75" customHeight="1" s="51">
       <c r="A282" s="29" t="n"/>
       <c r="B282" s="29" t="n"/>
       <c r="C282" s="29" t="n"/>
@@ -8586,7 +8443,7 @@
       <c r="X282" s="5" t="n"/>
       <c r="Y282" s="5" t="n"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1" s="52">
+    <row r="283" ht="15.75" customHeight="1" s="51">
       <c r="A283" s="29" t="n"/>
       <c r="B283" s="29" t="n"/>
       <c r="C283" s="29" t="n"/>
@@ -8613,7 +8470,7 @@
       <c r="X283" s="5" t="n"/>
       <c r="Y283" s="5" t="n"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1" s="52">
+    <row r="284" ht="15.75" customHeight="1" s="51">
       <c r="A284" s="29" t="n"/>
       <c r="B284" s="29" t="n"/>
       <c r="C284" s="29" t="n"/>
@@ -8640,7 +8497,7 @@
       <c r="X284" s="5" t="n"/>
       <c r="Y284" s="5" t="n"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1" s="52">
+    <row r="285" ht="15.75" customHeight="1" s="51">
       <c r="A285" s="29" t="n"/>
       <c r="B285" s="29" t="n"/>
       <c r="C285" s="29" t="n"/>
@@ -8667,7 +8524,7 @@
       <c r="X285" s="5" t="n"/>
       <c r="Y285" s="5" t="n"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1" s="52">
+    <row r="286" ht="15.75" customHeight="1" s="51">
       <c r="A286" s="29" t="n"/>
       <c r="B286" s="29" t="n"/>
       <c r="C286" s="29" t="n"/>
@@ -8694,7 +8551,7 @@
       <c r="X286" s="5" t="n"/>
       <c r="Y286" s="5" t="n"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1" s="52">
+    <row r="287" ht="15.75" customHeight="1" s="51">
       <c r="A287" s="29" t="n"/>
       <c r="B287" s="29" t="n"/>
       <c r="C287" s="29" t="n"/>
@@ -8721,7 +8578,7 @@
       <c r="X287" s="5" t="n"/>
       <c r="Y287" s="5" t="n"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1" s="52">
+    <row r="288" ht="15.75" customHeight="1" s="51">
       <c r="A288" s="29" t="n"/>
       <c r="B288" s="29" t="n"/>
       <c r="C288" s="29" t="n"/>
@@ -8748,7 +8605,7 @@
       <c r="X288" s="5" t="n"/>
       <c r="Y288" s="5" t="n"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1" s="52">
+    <row r="289" ht="15.75" customHeight="1" s="51">
       <c r="A289" s="29" t="n"/>
       <c r="B289" s="29" t="n"/>
       <c r="C289" s="29" t="n"/>
@@ -8775,7 +8632,7 @@
       <c r="X289" s="5" t="n"/>
       <c r="Y289" s="5" t="n"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1" s="52">
+    <row r="290" ht="15.75" customHeight="1" s="51">
       <c r="A290" s="29" t="n"/>
       <c r="B290" s="29" t="n"/>
       <c r="C290" s="29" t="n"/>
@@ -8802,7 +8659,7 @@
       <c r="X290" s="5" t="n"/>
       <c r="Y290" s="5" t="n"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1" s="52">
+    <row r="291" ht="15.75" customHeight="1" s="51">
       <c r="A291" s="29" t="n"/>
       <c r="B291" s="29" t="n"/>
       <c r="C291" s="29" t="n"/>
@@ -8829,7 +8686,7 @@
       <c r="X291" s="5" t="n"/>
       <c r="Y291" s="5" t="n"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1" s="52">
+    <row r="292" ht="15.75" customHeight="1" s="51">
       <c r="A292" s="29" t="n"/>
       <c r="B292" s="29" t="n"/>
       <c r="C292" s="29" t="n"/>
@@ -8856,7 +8713,7 @@
       <c r="X292" s="5" t="n"/>
       <c r="Y292" s="5" t="n"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1" s="52">
+    <row r="293" ht="15.75" customHeight="1" s="51">
       <c r="A293" s="29" t="n"/>
       <c r="B293" s="29" t="n"/>
       <c r="C293" s="29" t="n"/>
@@ -8883,7 +8740,7 @@
       <c r="X293" s="5" t="n"/>
       <c r="Y293" s="5" t="n"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1" s="52">
+    <row r="294" ht="15.75" customHeight="1" s="51">
       <c r="A294" s="29" t="n"/>
       <c r="B294" s="29" t="n"/>
       <c r="C294" s="29" t="n"/>
@@ -8910,7 +8767,7 @@
       <c r="X294" s="5" t="n"/>
       <c r="Y294" s="5" t="n"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1" s="52">
+    <row r="295" ht="15.75" customHeight="1" s="51">
       <c r="A295" s="29" t="n"/>
       <c r="B295" s="29" t="n"/>
       <c r="C295" s="29" t="n"/>
@@ -8937,7 +8794,7 @@
       <c r="X295" s="5" t="n"/>
       <c r="Y295" s="5" t="n"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1" s="52">
+    <row r="296" ht="15.75" customHeight="1" s="51">
       <c r="A296" s="29" t="n"/>
       <c r="B296" s="29" t="n"/>
       <c r="C296" s="29" t="n"/>
@@ -8964,7 +8821,7 @@
       <c r="X296" s="5" t="n"/>
       <c r="Y296" s="5" t="n"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1" s="52">
+    <row r="297" ht="15.75" customHeight="1" s="51">
       <c r="A297" s="29" t="n"/>
       <c r="B297" s="29" t="n"/>
       <c r="C297" s="29" t="n"/>
@@ -8991,7 +8848,7 @@
       <c r="X297" s="5" t="n"/>
       <c r="Y297" s="5" t="n"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1" s="52">
+    <row r="298" ht="15.75" customHeight="1" s="51">
       <c r="A298" s="29" t="n"/>
       <c r="B298" s="29" t="n"/>
       <c r="C298" s="29" t="n"/>
@@ -9018,7 +8875,7 @@
       <c r="X298" s="5" t="n"/>
       <c r="Y298" s="5" t="n"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1" s="52">
+    <row r="299" ht="15.75" customHeight="1" s="51">
       <c r="A299" s="29" t="n"/>
       <c r="B299" s="29" t="n"/>
       <c r="C299" s="29" t="n"/>
@@ -9045,7 +8902,7 @@
       <c r="X299" s="5" t="n"/>
       <c r="Y299" s="5" t="n"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1" s="52">
+    <row r="300" ht="15.75" customHeight="1" s="51">
       <c r="A300" s="29" t="n"/>
       <c r="B300" s="29" t="n"/>
       <c r="C300" s="29" t="n"/>
@@ -9072,7 +8929,7 @@
       <c r="X300" s="5" t="n"/>
       <c r="Y300" s="5" t="n"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1" s="52">
+    <row r="301" ht="15.75" customHeight="1" s="51">
       <c r="A301" s="29" t="n"/>
       <c r="B301" s="29" t="n"/>
       <c r="C301" s="29" t="n"/>
@@ -9099,7 +8956,7 @@
       <c r="X301" s="5" t="n"/>
       <c r="Y301" s="5" t="n"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1" s="52">
+    <row r="302" ht="15.75" customHeight="1" s="51">
       <c r="A302" s="29" t="n"/>
       <c r="B302" s="29" t="n"/>
       <c r="C302" s="29" t="n"/>
@@ -9126,7 +8983,7 @@
       <c r="X302" s="5" t="n"/>
       <c r="Y302" s="5" t="n"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1" s="52">
+    <row r="303" ht="15.75" customHeight="1" s="51">
       <c r="A303" s="29" t="n"/>
       <c r="B303" s="29" t="n"/>
       <c r="C303" s="29" t="n"/>
@@ -9153,7 +9010,7 @@
       <c r="X303" s="5" t="n"/>
       <c r="Y303" s="5" t="n"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1" s="52">
+    <row r="304" ht="15.75" customHeight="1" s="51">
       <c r="A304" s="29" t="n"/>
       <c r="B304" s="29" t="n"/>
       <c r="C304" s="29" t="n"/>
@@ -9180,7 +9037,7 @@
       <c r="X304" s="5" t="n"/>
       <c r="Y304" s="5" t="n"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1" s="52">
+    <row r="305" ht="15.75" customHeight="1" s="51">
       <c r="A305" s="29" t="n"/>
       <c r="B305" s="29" t="n"/>
       <c r="C305" s="29" t="n"/>
@@ -9207,7 +9064,7 @@
       <c r="X305" s="5" t="n"/>
       <c r="Y305" s="5" t="n"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1" s="52">
+    <row r="306" ht="15.75" customHeight="1" s="51">
       <c r="A306" s="29" t="n"/>
       <c r="B306" s="29" t="n"/>
       <c r="C306" s="29" t="n"/>
@@ -9234,7 +9091,7 @@
       <c r="X306" s="5" t="n"/>
       <c r="Y306" s="5" t="n"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1" s="52">
+    <row r="307" ht="15.75" customHeight="1" s="51">
       <c r="A307" s="29" t="n"/>
       <c r="B307" s="29" t="n"/>
       <c r="C307" s="29" t="n"/>
@@ -9261,7 +9118,7 @@
       <c r="X307" s="5" t="n"/>
       <c r="Y307" s="5" t="n"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1" s="52">
+    <row r="308" ht="15.75" customHeight="1" s="51">
       <c r="A308" s="29" t="n"/>
       <c r="B308" s="29" t="n"/>
       <c r="C308" s="29" t="n"/>
@@ -9288,7 +9145,7 @@
       <c r="X308" s="5" t="n"/>
       <c r="Y308" s="5" t="n"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1" s="52">
+    <row r="309" ht="15.75" customHeight="1" s="51">
       <c r="A309" s="29" t="n"/>
       <c r="B309" s="29" t="n"/>
       <c r="C309" s="29" t="n"/>
@@ -9315,7 +9172,7 @@
       <c r="X309" s="5" t="n"/>
       <c r="Y309" s="5" t="n"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1" s="52">
+    <row r="310" ht="15.75" customHeight="1" s="51">
       <c r="A310" s="29" t="n"/>
       <c r="B310" s="29" t="n"/>
       <c r="C310" s="29" t="n"/>
@@ -9342,7 +9199,7 @@
       <c r="X310" s="5" t="n"/>
       <c r="Y310" s="5" t="n"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1" s="52">
+    <row r="311" ht="15.75" customHeight="1" s="51">
       <c r="A311" s="29" t="n"/>
       <c r="B311" s="29" t="n"/>
       <c r="C311" s="29" t="n"/>
@@ -9369,7 +9226,7 @@
       <c r="X311" s="5" t="n"/>
       <c r="Y311" s="5" t="n"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1" s="52">
+    <row r="312" ht="15.75" customHeight="1" s="51">
       <c r="A312" s="29" t="n"/>
       <c r="B312" s="29" t="n"/>
       <c r="C312" s="29" t="n"/>
@@ -9396,7 +9253,7 @@
       <c r="X312" s="5" t="n"/>
       <c r="Y312" s="5" t="n"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1" s="52">
+    <row r="313" ht="15.75" customHeight="1" s="51">
       <c r="A313" s="29" t="n"/>
       <c r="B313" s="29" t="n"/>
       <c r="C313" s="29" t="n"/>
@@ -9423,7 +9280,7 @@
       <c r="X313" s="5" t="n"/>
       <c r="Y313" s="5" t="n"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1" s="52">
+    <row r="314" ht="15.75" customHeight="1" s="51">
       <c r="A314" s="29" t="n"/>
       <c r="B314" s="29" t="n"/>
       <c r="C314" s="29" t="n"/>
@@ -9450,7 +9307,7 @@
       <c r="X314" s="5" t="n"/>
       <c r="Y314" s="5" t="n"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1" s="52">
+    <row r="315" ht="15.75" customHeight="1" s="51">
       <c r="A315" s="29" t="n"/>
       <c r="B315" s="29" t="n"/>
       <c r="C315" s="29" t="n"/>
@@ -9477,7 +9334,7 @@
       <c r="X315" s="5" t="n"/>
       <c r="Y315" s="5" t="n"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1" s="52">
+    <row r="316" ht="15.75" customHeight="1" s="51">
       <c r="A316" s="29" t="n"/>
       <c r="B316" s="29" t="n"/>
       <c r="C316" s="29" t="n"/>
@@ -9504,7 +9361,7 @@
       <c r="X316" s="5" t="n"/>
       <c r="Y316" s="5" t="n"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1" s="52">
+    <row r="317" ht="15.75" customHeight="1" s="51">
       <c r="A317" s="29" t="n"/>
       <c r="B317" s="29" t="n"/>
       <c r="C317" s="29" t="n"/>
@@ -9531,7 +9388,7 @@
       <c r="X317" s="5" t="n"/>
       <c r="Y317" s="5" t="n"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1" s="52">
+    <row r="318" ht="15.75" customHeight="1" s="51">
       <c r="A318" s="29" t="n"/>
       <c r="B318" s="29" t="n"/>
       <c r="C318" s="29" t="n"/>
@@ -9558,7 +9415,7 @@
       <c r="X318" s="5" t="n"/>
       <c r="Y318" s="5" t="n"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1" s="52">
+    <row r="319" ht="15.75" customHeight="1" s="51">
       <c r="A319" s="29" t="n"/>
       <c r="B319" s="29" t="n"/>
       <c r="C319" s="29" t="n"/>
@@ -9585,7 +9442,7 @@
       <c r="X319" s="5" t="n"/>
       <c r="Y319" s="5" t="n"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1" s="52">
+    <row r="320" ht="15.75" customHeight="1" s="51">
       <c r="A320" s="29" t="n"/>
       <c r="B320" s="29" t="n"/>
       <c r="C320" s="29" t="n"/>
@@ -9612,7 +9469,7 @@
       <c r="X320" s="5" t="n"/>
       <c r="Y320" s="5" t="n"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1" s="52">
+    <row r="321" ht="15.75" customHeight="1" s="51">
       <c r="A321" s="29" t="n"/>
       <c r="B321" s="29" t="n"/>
       <c r="C321" s="29" t="n"/>
@@ -9639,7 +9496,7 @@
       <c r="X321" s="5" t="n"/>
       <c r="Y321" s="5" t="n"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1" s="52">
+    <row r="322" ht="15.75" customHeight="1" s="51">
       <c r="A322" s="29" t="n"/>
       <c r="B322" s="29" t="n"/>
       <c r="C322" s="29" t="n"/>
@@ -9666,7 +9523,7 @@
       <c r="X322" s="5" t="n"/>
       <c r="Y322" s="5" t="n"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1" s="52">
+    <row r="323" ht="15.75" customHeight="1" s="51">
       <c r="A323" s="29" t="n"/>
       <c r="B323" s="29" t="n"/>
       <c r="C323" s="29" t="n"/>
@@ -9693,7 +9550,7 @@
       <c r="X323" s="5" t="n"/>
       <c r="Y323" s="5" t="n"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1" s="52">
+    <row r="324" ht="15.75" customHeight="1" s="51">
       <c r="A324" s="29" t="n"/>
       <c r="B324" s="29" t="n"/>
       <c r="C324" s="29" t="n"/>
@@ -9720,7 +9577,7 @@
       <c r="X324" s="5" t="n"/>
       <c r="Y324" s="5" t="n"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1" s="52">
+    <row r="325" ht="15.75" customHeight="1" s="51">
       <c r="A325" s="29" t="n"/>
       <c r="B325" s="29" t="n"/>
       <c r="C325" s="29" t="n"/>
@@ -9747,7 +9604,7 @@
       <c r="X325" s="5" t="n"/>
       <c r="Y325" s="5" t="n"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1" s="52">
+    <row r="326" ht="15.75" customHeight="1" s="51">
       <c r="A326" s="29" t="n"/>
       <c r="B326" s="29" t="n"/>
       <c r="C326" s="29" t="n"/>
@@ -9774,7 +9631,7 @@
       <c r="X326" s="5" t="n"/>
       <c r="Y326" s="5" t="n"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1" s="52">
+    <row r="327" ht="15.75" customHeight="1" s="51">
       <c r="A327" s="29" t="n"/>
       <c r="B327" s="29" t="n"/>
       <c r="C327" s="29" t="n"/>
@@ -9801,7 +9658,7 @@
       <c r="X327" s="5" t="n"/>
       <c r="Y327" s="5" t="n"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1" s="52">
+    <row r="328" ht="15.75" customHeight="1" s="51">
       <c r="A328" s="29" t="n"/>
       <c r="B328" s="29" t="n"/>
       <c r="C328" s="29" t="n"/>
@@ -9828,7 +9685,7 @@
       <c r="X328" s="5" t="n"/>
       <c r="Y328" s="5" t="n"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1" s="52">
+    <row r="329" ht="15.75" customHeight="1" s="51">
       <c r="A329" s="29" t="n"/>
       <c r="B329" s="29" t="n"/>
       <c r="C329" s="29" t="n"/>
@@ -9855,7 +9712,7 @@
       <c r="X329" s="5" t="n"/>
       <c r="Y329" s="5" t="n"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1" s="52">
+    <row r="330" ht="15.75" customHeight="1" s="51">
       <c r="A330" s="29" t="n"/>
       <c r="B330" s="29" t="n"/>
       <c r="C330" s="29" t="n"/>
@@ -9882,7 +9739,7 @@
       <c r="X330" s="5" t="n"/>
       <c r="Y330" s="5" t="n"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1" s="52">
+    <row r="331" ht="15.75" customHeight="1" s="51">
       <c r="A331" s="29" t="n"/>
       <c r="B331" s="29" t="n"/>
       <c r="C331" s="29" t="n"/>
@@ -9909,7 +9766,7 @@
       <c r="X331" s="5" t="n"/>
       <c r="Y331" s="5" t="n"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1" s="52">
+    <row r="332" ht="15.75" customHeight="1" s="51">
       <c r="A332" s="29" t="n"/>
       <c r="B332" s="29" t="n"/>
       <c r="C332" s="29" t="n"/>
@@ -9936,7 +9793,7 @@
       <c r="X332" s="5" t="n"/>
       <c r="Y332" s="5" t="n"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1" s="52">
+    <row r="333" ht="15.75" customHeight="1" s="51">
       <c r="A333" s="29" t="n"/>
       <c r="B333" s="29" t="n"/>
       <c r="C333" s="29" t="n"/>
@@ -9963,7 +9820,7 @@
       <c r="X333" s="5" t="n"/>
       <c r="Y333" s="5" t="n"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1" s="52">
+    <row r="334" ht="15.75" customHeight="1" s="51">
       <c r="A334" s="29" t="n"/>
       <c r="B334" s="29" t="n"/>
       <c r="C334" s="29" t="n"/>
@@ -9990,7 +9847,7 @@
       <c r="X334" s="5" t="n"/>
       <c r="Y334" s="5" t="n"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1" s="52">
+    <row r="335" ht="15.75" customHeight="1" s="51">
       <c r="A335" s="29" t="n"/>
       <c r="B335" s="29" t="n"/>
       <c r="C335" s="29" t="n"/>
@@ -10017,7 +9874,7 @@
       <c r="X335" s="5" t="n"/>
       <c r="Y335" s="5" t="n"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1" s="52">
+    <row r="336" ht="15.75" customHeight="1" s="51">
       <c r="A336" s="29" t="n"/>
       <c r="B336" s="29" t="n"/>
       <c r="C336" s="29" t="n"/>
@@ -10044,7 +9901,7 @@
       <c r="X336" s="5" t="n"/>
       <c r="Y336" s="5" t="n"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1" s="52">
+    <row r="337" ht="15.75" customHeight="1" s="51">
       <c r="A337" s="29" t="n"/>
       <c r="B337" s="29" t="n"/>
       <c r="C337" s="29" t="n"/>
@@ -10071,7 +9928,7 @@
       <c r="X337" s="5" t="n"/>
       <c r="Y337" s="5" t="n"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1" s="52">
+    <row r="338" ht="15.75" customHeight="1" s="51">
       <c r="A338" s="29" t="n"/>
       <c r="B338" s="29" t="n"/>
       <c r="C338" s="29" t="n"/>
@@ -10098,7 +9955,7 @@
       <c r="X338" s="5" t="n"/>
       <c r="Y338" s="5" t="n"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1" s="52">
+    <row r="339" ht="15.75" customHeight="1" s="51">
       <c r="A339" s="29" t="n"/>
       <c r="B339" s="29" t="n"/>
       <c r="C339" s="29" t="n"/>
@@ -10125,7 +9982,7 @@
       <c r="X339" s="5" t="n"/>
       <c r="Y339" s="5" t="n"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1" s="52">
+    <row r="340" ht="15.75" customHeight="1" s="51">
       <c r="A340" s="29" t="n"/>
       <c r="B340" s="29" t="n"/>
       <c r="C340" s="29" t="n"/>
@@ -10152,7 +10009,7 @@
       <c r="X340" s="5" t="n"/>
       <c r="Y340" s="5" t="n"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1" s="52">
+    <row r="341" ht="15.75" customHeight="1" s="51">
       <c r="A341" s="29" t="n"/>
       <c r="B341" s="29" t="n"/>
       <c r="C341" s="29" t="n"/>
@@ -10179,7 +10036,7 @@
       <c r="X341" s="5" t="n"/>
       <c r="Y341" s="5" t="n"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1" s="52">
+    <row r="342" ht="15.75" customHeight="1" s="51">
       <c r="A342" s="29" t="n"/>
       <c r="B342" s="29" t="n"/>
       <c r="C342" s="29" t="n"/>
@@ -10206,7 +10063,7 @@
       <c r="X342" s="5" t="n"/>
       <c r="Y342" s="5" t="n"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1" s="52">
+    <row r="343" ht="15.75" customHeight="1" s="51">
       <c r="A343" s="29" t="n"/>
       <c r="B343" s="29" t="n"/>
       <c r="C343" s="29" t="n"/>
@@ -10233,7 +10090,7 @@
       <c r="X343" s="5" t="n"/>
       <c r="Y343" s="5" t="n"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1" s="52">
+    <row r="344" ht="15.75" customHeight="1" s="51">
       <c r="A344" s="29" t="n"/>
       <c r="B344" s="29" t="n"/>
       <c r="C344" s="29" t="n"/>
@@ -10260,7 +10117,7 @@
       <c r="X344" s="5" t="n"/>
       <c r="Y344" s="5" t="n"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1" s="52">
+    <row r="345" ht="15.75" customHeight="1" s="51">
       <c r="A345" s="29" t="n"/>
       <c r="B345" s="29" t="n"/>
       <c r="C345" s="29" t="n"/>
@@ -10287,7 +10144,7 @@
       <c r="X345" s="5" t="n"/>
       <c r="Y345" s="5" t="n"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1" s="52">
+    <row r="346" ht="15.75" customHeight="1" s="51">
       <c r="A346" s="29" t="n"/>
       <c r="B346" s="29" t="n"/>
       <c r="C346" s="29" t="n"/>
@@ -10314,7 +10171,7 @@
       <c r="X346" s="5" t="n"/>
       <c r="Y346" s="5" t="n"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1" s="52">
+    <row r="347" ht="15.75" customHeight="1" s="51">
       <c r="A347" s="29" t="n"/>
       <c r="B347" s="29" t="n"/>
       <c r="C347" s="29" t="n"/>
@@ -10341,7 +10198,7 @@
       <c r="X347" s="5" t="n"/>
       <c r="Y347" s="5" t="n"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1" s="52">
+    <row r="348" ht="15.75" customHeight="1" s="51">
       <c r="A348" s="29" t="n"/>
       <c r="B348" s="29" t="n"/>
       <c r="C348" s="29" t="n"/>
@@ -10368,7 +10225,7 @@
       <c r="X348" s="5" t="n"/>
       <c r="Y348" s="5" t="n"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1" s="52">
+    <row r="349" ht="15.75" customHeight="1" s="51">
       <c r="A349" s="29" t="n"/>
       <c r="B349" s="29" t="n"/>
       <c r="C349" s="29" t="n"/>
@@ -10395,7 +10252,7 @@
       <c r="X349" s="5" t="n"/>
       <c r="Y349" s="5" t="n"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1" s="52">
+    <row r="350" ht="15.75" customHeight="1" s="51">
       <c r="A350" s="29" t="n"/>
       <c r="B350" s="29" t="n"/>
       <c r="C350" s="29" t="n"/>
@@ -10422,7 +10279,7 @@
       <c r="X350" s="5" t="n"/>
       <c r="Y350" s="5" t="n"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1" s="52">
+    <row r="351" ht="15.75" customHeight="1" s="51">
       <c r="A351" s="29" t="n"/>
       <c r="B351" s="29" t="n"/>
       <c r="C351" s="29" t="n"/>
@@ -10449,7 +10306,7 @@
       <c r="X351" s="5" t="n"/>
       <c r="Y351" s="5" t="n"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1" s="52">
+    <row r="352" ht="15.75" customHeight="1" s="51">
       <c r="A352" s="29" t="n"/>
       <c r="B352" s="29" t="n"/>
       <c r="C352" s="29" t="n"/>
@@ -10476,7 +10333,7 @@
       <c r="X352" s="5" t="n"/>
       <c r="Y352" s="5" t="n"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1" s="52">
+    <row r="353" ht="15.75" customHeight="1" s="51">
       <c r="A353" s="29" t="n"/>
       <c r="B353" s="29" t="n"/>
       <c r="C353" s="29" t="n"/>
@@ -10503,7 +10360,7 @@
       <c r="X353" s="5" t="n"/>
       <c r="Y353" s="5" t="n"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1" s="52">
+    <row r="354" ht="15.75" customHeight="1" s="51">
       <c r="A354" s="29" t="n"/>
       <c r="B354" s="29" t="n"/>
       <c r="C354" s="29" t="n"/>
@@ -10530,7 +10387,7 @@
       <c r="X354" s="5" t="n"/>
       <c r="Y354" s="5" t="n"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1" s="52">
+    <row r="355" ht="15.75" customHeight="1" s="51">
       <c r="A355" s="29" t="n"/>
       <c r="B355" s="29" t="n"/>
       <c r="C355" s="29" t="n"/>
@@ -10557,7 +10414,7 @@
       <c r="X355" s="5" t="n"/>
       <c r="Y355" s="5" t="n"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1" s="52">
+    <row r="356" ht="15.75" customHeight="1" s="51">
       <c r="A356" s="29" t="n"/>
       <c r="B356" s="29" t="n"/>
       <c r="C356" s="29" t="n"/>
@@ -10584,7 +10441,7 @@
       <c r="X356" s="5" t="n"/>
       <c r="Y356" s="5" t="n"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1" s="52">
+    <row r="357" ht="15.75" customHeight="1" s="51">
       <c r="A357" s="29" t="n"/>
       <c r="B357" s="29" t="n"/>
       <c r="C357" s="29" t="n"/>
@@ -10611,7 +10468,7 @@
       <c r="X357" s="5" t="n"/>
       <c r="Y357" s="5" t="n"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1" s="52">
+    <row r="358" ht="15.75" customHeight="1" s="51">
       <c r="A358" s="29" t="n"/>
       <c r="B358" s="29" t="n"/>
       <c r="C358" s="29" t="n"/>
@@ -10638,7 +10495,7 @@
       <c r="X358" s="5" t="n"/>
       <c r="Y358" s="5" t="n"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1" s="52">
+    <row r="359" ht="15.75" customHeight="1" s="51">
       <c r="A359" s="29" t="n"/>
       <c r="B359" s="29" t="n"/>
       <c r="C359" s="29" t="n"/>
@@ -10665,7 +10522,7 @@
       <c r="X359" s="5" t="n"/>
       <c r="Y359" s="5" t="n"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1" s="52">
+    <row r="360" ht="15.75" customHeight="1" s="51">
       <c r="A360" s="29" t="n"/>
       <c r="B360" s="29" t="n"/>
       <c r="C360" s="29" t="n"/>
@@ -10692,7 +10549,7 @@
       <c r="X360" s="5" t="n"/>
       <c r="Y360" s="5" t="n"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1" s="52">
+    <row r="361" ht="15.75" customHeight="1" s="51">
       <c r="A361" s="29" t="n"/>
       <c r="B361" s="29" t="n"/>
       <c r="C361" s="29" t="n"/>
@@ -10719,7 +10576,7 @@
       <c r="X361" s="5" t="n"/>
       <c r="Y361" s="5" t="n"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1" s="52">
+    <row r="362" ht="15.75" customHeight="1" s="51">
       <c r="A362" s="29" t="n"/>
       <c r="B362" s="29" t="n"/>
       <c r="C362" s="29" t="n"/>
@@ -10746,7 +10603,7 @@
       <c r="X362" s="5" t="n"/>
       <c r="Y362" s="5" t="n"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1" s="52">
+    <row r="363" ht="15.75" customHeight="1" s="51">
       <c r="A363" s="29" t="n"/>
       <c r="B363" s="29" t="n"/>
       <c r="C363" s="29" t="n"/>
@@ -10773,7 +10630,7 @@
       <c r="X363" s="5" t="n"/>
       <c r="Y363" s="5" t="n"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1" s="52">
+    <row r="364" ht="15.75" customHeight="1" s="51">
       <c r="A364" s="29" t="n"/>
       <c r="B364" s="29" t="n"/>
       <c r="C364" s="29" t="n"/>
@@ -10800,7 +10657,7 @@
       <c r="X364" s="5" t="n"/>
       <c r="Y364" s="5" t="n"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1" s="52">
+    <row r="365" ht="15.75" customHeight="1" s="51">
       <c r="A365" s="29" t="n"/>
       <c r="B365" s="29" t="n"/>
       <c r="C365" s="29" t="n"/>
@@ -10827,7 +10684,7 @@
       <c r="X365" s="5" t="n"/>
       <c r="Y365" s="5" t="n"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1" s="52">
+    <row r="366" ht="15.75" customHeight="1" s="51">
       <c r="A366" s="29" t="n"/>
       <c r="B366" s="29" t="n"/>
       <c r="C366" s="29" t="n"/>
@@ -10854,7 +10711,7 @@
       <c r="X366" s="5" t="n"/>
       <c r="Y366" s="5" t="n"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1" s="52">
+    <row r="367" ht="15.75" customHeight="1" s="51">
       <c r="A367" s="29" t="n"/>
       <c r="B367" s="29" t="n"/>
       <c r="C367" s="29" t="n"/>
@@ -10881,7 +10738,7 @@
       <c r="X367" s="5" t="n"/>
       <c r="Y367" s="5" t="n"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1" s="52">
+    <row r="368" ht="15.75" customHeight="1" s="51">
       <c r="A368" s="29" t="n"/>
       <c r="B368" s="29" t="n"/>
       <c r="C368" s="29" t="n"/>
@@ -10908,7 +10765,7 @@
       <c r="X368" s="5" t="n"/>
       <c r="Y368" s="5" t="n"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1" s="52">
+    <row r="369" ht="15.75" customHeight="1" s="51">
       <c r="A369" s="29" t="n"/>
       <c r="B369" s="29" t="n"/>
       <c r="C369" s="29" t="n"/>
@@ -10935,7 +10792,7 @@
       <c r="X369" s="5" t="n"/>
       <c r="Y369" s="5" t="n"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1" s="52">
+    <row r="370" ht="15.75" customHeight="1" s="51">
       <c r="A370" s="29" t="n"/>
       <c r="B370" s="29" t="n"/>
       <c r="C370" s="29" t="n"/>
@@ -10962,7 +10819,7 @@
       <c r="X370" s="5" t="n"/>
       <c r="Y370" s="5" t="n"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1" s="52">
+    <row r="371" ht="15.75" customHeight="1" s="51">
       <c r="A371" s="29" t="n"/>
       <c r="B371" s="29" t="n"/>
       <c r="C371" s="29" t="n"/>
@@ -10989,7 +10846,7 @@
       <c r="X371" s="5" t="n"/>
       <c r="Y371" s="5" t="n"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1" s="52">
+    <row r="372" ht="15.75" customHeight="1" s="51">
       <c r="A372" s="29" t="n"/>
       <c r="B372" s="29" t="n"/>
       <c r="C372" s="29" t="n"/>
@@ -11016,7 +10873,7 @@
       <c r="X372" s="5" t="n"/>
       <c r="Y372" s="5" t="n"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1" s="52">
+    <row r="373" ht="15.75" customHeight="1" s="51">
       <c r="A373" s="29" t="n"/>
       <c r="B373" s="29" t="n"/>
       <c r="C373" s="29" t="n"/>
@@ -11043,7 +10900,7 @@
       <c r="X373" s="5" t="n"/>
       <c r="Y373" s="5" t="n"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1" s="52">
+    <row r="374" ht="15.75" customHeight="1" s="51">
       <c r="A374" s="29" t="n"/>
       <c r="B374" s="29" t="n"/>
       <c r="C374" s="29" t="n"/>
@@ -11070,7 +10927,7 @@
       <c r="X374" s="5" t="n"/>
       <c r="Y374" s="5" t="n"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1" s="52">
+    <row r="375" ht="15.75" customHeight="1" s="51">
       <c r="A375" s="29" t="n"/>
       <c r="B375" s="29" t="n"/>
       <c r="C375" s="29" t="n"/>
@@ -11097,7 +10954,7 @@
       <c r="X375" s="5" t="n"/>
       <c r="Y375" s="5" t="n"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1" s="52">
+    <row r="376" ht="15.75" customHeight="1" s="51">
       <c r="A376" s="29" t="n"/>
       <c r="B376" s="29" t="n"/>
       <c r="C376" s="29" t="n"/>
@@ -11124,7 +10981,7 @@
       <c r="X376" s="5" t="n"/>
       <c r="Y376" s="5" t="n"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1" s="52">
+    <row r="377" ht="15.75" customHeight="1" s="51">
       <c r="A377" s="29" t="n"/>
       <c r="B377" s="29" t="n"/>
       <c r="C377" s="29" t="n"/>
@@ -11151,7 +11008,7 @@
       <c r="X377" s="5" t="n"/>
       <c r="Y377" s="5" t="n"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1" s="52">
+    <row r="378" ht="15.75" customHeight="1" s="51">
       <c r="A378" s="29" t="n"/>
       <c r="B378" s="29" t="n"/>
       <c r="C378" s="29" t="n"/>
@@ -11178,7 +11035,7 @@
       <c r="X378" s="5" t="n"/>
       <c r="Y378" s="5" t="n"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1" s="52">
+    <row r="379" ht="15.75" customHeight="1" s="51">
       <c r="A379" s="29" t="n"/>
       <c r="B379" s="29" t="n"/>
       <c r="C379" s="29" t="n"/>
@@ -11205,7 +11062,7 @@
       <c r="X379" s="5" t="n"/>
       <c r="Y379" s="5" t="n"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1" s="52">
+    <row r="380" ht="15.75" customHeight="1" s="51">
       <c r="A380" s="29" t="n"/>
       <c r="B380" s="29" t="n"/>
       <c r="C380" s="29" t="n"/>
@@ -11232,7 +11089,7 @@
       <c r="X380" s="5" t="n"/>
       <c r="Y380" s="5" t="n"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1" s="52">
+    <row r="381" ht="15.75" customHeight="1" s="51">
       <c r="A381" s="29" t="n"/>
       <c r="B381" s="29" t="n"/>
       <c r="C381" s="29" t="n"/>
@@ -11259,7 +11116,7 @@
       <c r="X381" s="5" t="n"/>
       <c r="Y381" s="5" t="n"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1" s="52">
+    <row r="382" ht="15.75" customHeight="1" s="51">
       <c r="A382" s="29" t="n"/>
       <c r="B382" s="29" t="n"/>
       <c r="C382" s="29" t="n"/>
@@ -11286,7 +11143,7 @@
       <c r="X382" s="5" t="n"/>
       <c r="Y382" s="5" t="n"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1" s="52">
+    <row r="383" ht="15.75" customHeight="1" s="51">
       <c r="A383" s="29" t="n"/>
       <c r="B383" s="29" t="n"/>
       <c r="C383" s="29" t="n"/>
@@ -11313,7 +11170,7 @@
       <c r="X383" s="5" t="n"/>
       <c r="Y383" s="5" t="n"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1" s="52">
+    <row r="384" ht="15.75" customHeight="1" s="51">
       <c r="A384" s="29" t="n"/>
       <c r="B384" s="29" t="n"/>
       <c r="C384" s="29" t="n"/>
@@ -11340,7 +11197,7 @@
       <c r="X384" s="5" t="n"/>
       <c r="Y384" s="5" t="n"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1" s="52">
+    <row r="385" ht="15.75" customHeight="1" s="51">
       <c r="A385" s="29" t="n"/>
       <c r="B385" s="29" t="n"/>
       <c r="C385" s="29" t="n"/>
@@ -11367,7 +11224,7 @@
       <c r="X385" s="5" t="n"/>
       <c r="Y385" s="5" t="n"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1" s="52">
+    <row r="386" ht="15.75" customHeight="1" s="51">
       <c r="A386" s="29" t="n"/>
       <c r="B386" s="29" t="n"/>
       <c r="C386" s="29" t="n"/>
@@ -11394,7 +11251,7 @@
       <c r="X386" s="5" t="n"/>
       <c r="Y386" s="5" t="n"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1" s="52">
+    <row r="387" ht="15.75" customHeight="1" s="51">
       <c r="A387" s="29" t="n"/>
       <c r="B387" s="29" t="n"/>
       <c r="C387" s="29" t="n"/>
@@ -11421,7 +11278,7 @@
       <c r="X387" s="5" t="n"/>
       <c r="Y387" s="5" t="n"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1" s="52">
+    <row r="388" ht="15.75" customHeight="1" s="51">
       <c r="A388" s="29" t="n"/>
       <c r="B388" s="29" t="n"/>
       <c r="C388" s="29" t="n"/>
@@ -11448,7 +11305,7 @@
       <c r="X388" s="5" t="n"/>
       <c r="Y388" s="5" t="n"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1" s="52">
+    <row r="389" ht="15.75" customHeight="1" s="51">
       <c r="A389" s="29" t="n"/>
       <c r="B389" s="29" t="n"/>
       <c r="C389" s="29" t="n"/>
@@ -11475,7 +11332,7 @@
       <c r="X389" s="5" t="n"/>
       <c r="Y389" s="5" t="n"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1" s="52">
+    <row r="390" ht="15.75" customHeight="1" s="51">
       <c r="A390" s="29" t="n"/>
       <c r="B390" s="29" t="n"/>
       <c r="C390" s="29" t="n"/>
@@ -11502,7 +11359,7 @@
       <c r="X390" s="5" t="n"/>
       <c r="Y390" s="5" t="n"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1" s="52">
+    <row r="391" ht="15.75" customHeight="1" s="51">
       <c r="A391" s="29" t="n"/>
       <c r="B391" s="29" t="n"/>
       <c r="C391" s="29" t="n"/>
@@ -11529,7 +11386,7 @@
       <c r="X391" s="5" t="n"/>
       <c r="Y391" s="5" t="n"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1" s="52">
+    <row r="392" ht="15.75" customHeight="1" s="51">
       <c r="A392" s="29" t="n"/>
       <c r="B392" s="29" t="n"/>
       <c r="C392" s="29" t="n"/>
@@ -11556,7 +11413,7 @@
       <c r="X392" s="5" t="n"/>
       <c r="Y392" s="5" t="n"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1" s="52">
+    <row r="393" ht="15.75" customHeight="1" s="51">
       <c r="A393" s="29" t="n"/>
       <c r="B393" s="29" t="n"/>
       <c r="C393" s="29" t="n"/>
@@ -11583,7 +11440,7 @@
       <c r="X393" s="5" t="n"/>
       <c r="Y393" s="5" t="n"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1" s="52">
+    <row r="394" ht="15.75" customHeight="1" s="51">
       <c r="A394" s="29" t="n"/>
       <c r="B394" s="29" t="n"/>
       <c r="C394" s="29" t="n"/>
@@ -11610,7 +11467,7 @@
       <c r="X394" s="5" t="n"/>
       <c r="Y394" s="5" t="n"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1" s="52">
+    <row r="395" ht="15.75" customHeight="1" s="51">
       <c r="A395" s="29" t="n"/>
       <c r="B395" s="29" t="n"/>
       <c r="C395" s="29" t="n"/>
@@ -11637,7 +11494,7 @@
       <c r="X395" s="5" t="n"/>
       <c r="Y395" s="5" t="n"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1" s="52">
+    <row r="396" ht="15.75" customHeight="1" s="51">
       <c r="A396" s="29" t="n"/>
       <c r="B396" s="29" t="n"/>
       <c r="C396" s="29" t="n"/>
@@ -11664,7 +11521,7 @@
       <c r="X396" s="5" t="n"/>
       <c r="Y396" s="5" t="n"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1" s="52">
+    <row r="397" ht="15.75" customHeight="1" s="51">
       <c r="A397" s="29" t="n"/>
       <c r="B397" s="29" t="n"/>
       <c r="C397" s="29" t="n"/>
@@ -11691,7 +11548,7 @@
       <c r="X397" s="5" t="n"/>
       <c r="Y397" s="5" t="n"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1" s="52">
+    <row r="398" ht="15.75" customHeight="1" s="51">
       <c r="A398" s="29" t="n"/>
       <c r="B398" s="29" t="n"/>
       <c r="C398" s="29" t="n"/>
@@ -11718,7 +11575,7 @@
       <c r="X398" s="5" t="n"/>
       <c r="Y398" s="5" t="n"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1" s="52">
+    <row r="399" ht="15.75" customHeight="1" s="51">
       <c r="A399" s="29" t="n"/>
       <c r="B399" s="29" t="n"/>
       <c r="C399" s="29" t="n"/>
@@ -11745,7 +11602,7 @@
       <c r="X399" s="5" t="n"/>
       <c r="Y399" s="5" t="n"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1" s="52">
+    <row r="400" ht="15.75" customHeight="1" s="51">
       <c r="A400" s="29" t="n"/>
       <c r="B400" s="29" t="n"/>
       <c r="C400" s="29" t="n"/>
@@ -11772,7 +11629,7 @@
       <c r="X400" s="5" t="n"/>
       <c r="Y400" s="5" t="n"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1" s="52">
+    <row r="401" ht="15.75" customHeight="1" s="51">
       <c r="A401" s="29" t="n"/>
       <c r="B401" s="29" t="n"/>
       <c r="C401" s="29" t="n"/>
@@ -11799,7 +11656,7 @@
       <c r="X401" s="5" t="n"/>
       <c r="Y401" s="5" t="n"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1" s="52">
+    <row r="402" ht="15.75" customHeight="1" s="51">
       <c r="A402" s="29" t="n"/>
       <c r="B402" s="29" t="n"/>
       <c r="C402" s="29" t="n"/>
@@ -11826,7 +11683,7 @@
       <c r="X402" s="5" t="n"/>
       <c r="Y402" s="5" t="n"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1" s="52">
+    <row r="403" ht="15.75" customHeight="1" s="51">
       <c r="A403" s="29" t="n"/>
       <c r="B403" s="29" t="n"/>
       <c r="C403" s="29" t="n"/>
@@ -11853,7 +11710,7 @@
       <c r="X403" s="5" t="n"/>
       <c r="Y403" s="5" t="n"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1" s="52">
+    <row r="404" ht="15.75" customHeight="1" s="51">
       <c r="A404" s="29" t="n"/>
       <c r="B404" s="29" t="n"/>
       <c r="C404" s="29" t="n"/>
@@ -11880,7 +11737,7 @@
       <c r="X404" s="5" t="n"/>
       <c r="Y404" s="5" t="n"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1" s="52">
+    <row r="405" ht="15.75" customHeight="1" s="51">
       <c r="A405" s="29" t="n"/>
       <c r="B405" s="29" t="n"/>
       <c r="C405" s="29" t="n"/>
@@ -11907,7 +11764,7 @@
       <c r="X405" s="5" t="n"/>
       <c r="Y405" s="5" t="n"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1" s="52">
+    <row r="406" ht="15.75" customHeight="1" s="51">
       <c r="A406" s="29" t="n"/>
       <c r="B406" s="29" t="n"/>
       <c r="C406" s="29" t="n"/>
@@ -11934,7 +11791,7 @@
       <c r="X406" s="5" t="n"/>
       <c r="Y406" s="5" t="n"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1" s="52">
+    <row r="407" ht="15.75" customHeight="1" s="51">
       <c r="A407" s="29" t="n"/>
       <c r="B407" s="29" t="n"/>
       <c r="C407" s="29" t="n"/>
@@ -11961,7 +11818,7 @@
       <c r="X407" s="5" t="n"/>
       <c r="Y407" s="5" t="n"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1" s="52">
+    <row r="408" ht="15.75" customHeight="1" s="51">
       <c r="A408" s="29" t="n"/>
       <c r="B408" s="29" t="n"/>
       <c r="C408" s="29" t="n"/>
@@ -11988,7 +11845,7 @@
       <c r="X408" s="5" t="n"/>
       <c r="Y408" s="5" t="n"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1" s="52">
+    <row r="409" ht="15.75" customHeight="1" s="51">
       <c r="A409" s="29" t="n"/>
       <c r="B409" s="29" t="n"/>
       <c r="C409" s="29" t="n"/>
@@ -12015,7 +11872,7 @@
       <c r="X409" s="5" t="n"/>
       <c r="Y409" s="5" t="n"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1" s="52">
+    <row r="410" ht="15.75" customHeight="1" s="51">
       <c r="A410" s="29" t="n"/>
       <c r="B410" s="29" t="n"/>
       <c r="C410" s="29" t="n"/>
@@ -12042,7 +11899,7 @@
       <c r="X410" s="5" t="n"/>
       <c r="Y410" s="5" t="n"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1" s="52">
+    <row r="411" ht="15.75" customHeight="1" s="51">
       <c r="A411" s="29" t="n"/>
       <c r="B411" s="29" t="n"/>
       <c r="C411" s="29" t="n"/>
@@ -12069,7 +11926,7 @@
       <c r="X411" s="5" t="n"/>
       <c r="Y411" s="5" t="n"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1" s="52">
+    <row r="412" ht="15.75" customHeight="1" s="51">
       <c r="A412" s="29" t="n"/>
       <c r="B412" s="29" t="n"/>
       <c r="C412" s="29" t="n"/>
@@ -12096,7 +11953,7 @@
       <c r="X412" s="5" t="n"/>
       <c r="Y412" s="5" t="n"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1" s="52">
+    <row r="413" ht="15.75" customHeight="1" s="51">
       <c r="A413" s="29" t="n"/>
       <c r="B413" s="29" t="n"/>
       <c r="C413" s="29" t="n"/>
@@ -12123,7 +11980,7 @@
       <c r="X413" s="5" t="n"/>
       <c r="Y413" s="5" t="n"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1" s="52">
+    <row r="414" ht="15.75" customHeight="1" s="51">
       <c r="A414" s="29" t="n"/>
       <c r="B414" s="29" t="n"/>
       <c r="C414" s="29" t="n"/>
@@ -12150,7 +12007,7 @@
       <c r="X414" s="5" t="n"/>
       <c r="Y414" s="5" t="n"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1" s="52">
+    <row r="415" ht="15.75" customHeight="1" s="51">
       <c r="A415" s="29" t="n"/>
       <c r="B415" s="29" t="n"/>
       <c r="C415" s="29" t="n"/>
@@ -12177,7 +12034,7 @@
       <c r="X415" s="5" t="n"/>
       <c r="Y415" s="5" t="n"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1" s="52">
+    <row r="416" ht="15.75" customHeight="1" s="51">
       <c r="A416" s="29" t="n"/>
       <c r="B416" s="29" t="n"/>
       <c r="C416" s="29" t="n"/>
@@ -12204,7 +12061,7 @@
       <c r="X416" s="5" t="n"/>
       <c r="Y416" s="5" t="n"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1" s="52">
+    <row r="417" ht="15.75" customHeight="1" s="51">
       <c r="A417" s="29" t="n"/>
       <c r="B417" s="29" t="n"/>
       <c r="C417" s="29" t="n"/>
@@ -12231,7 +12088,7 @@
       <c r="X417" s="5" t="n"/>
       <c r="Y417" s="5" t="n"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1" s="52">
+    <row r="418" ht="15.75" customHeight="1" s="51">
       <c r="A418" s="29" t="n"/>
       <c r="B418" s="29" t="n"/>
       <c r="C418" s="29" t="n"/>
@@ -12258,7 +12115,7 @@
       <c r="X418" s="5" t="n"/>
       <c r="Y418" s="5" t="n"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1" s="52">
+    <row r="419" ht="15.75" customHeight="1" s="51">
       <c r="A419" s="29" t="n"/>
       <c r="B419" s="29" t="n"/>
       <c r="C419" s="29" t="n"/>
@@ -12285,7 +12142,7 @@
       <c r="X419" s="5" t="n"/>
       <c r="Y419" s="5" t="n"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1" s="52">
+    <row r="420" ht="15.75" customHeight="1" s="51">
       <c r="A420" s="29" t="n"/>
       <c r="B420" s="29" t="n"/>
       <c r="C420" s="29" t="n"/>
@@ -12312,7 +12169,7 @@
       <c r="X420" s="5" t="n"/>
       <c r="Y420" s="5" t="n"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1" s="52">
+    <row r="421" ht="15.75" customHeight="1" s="51">
       <c r="A421" s="29" t="n"/>
       <c r="B421" s="29" t="n"/>
       <c r="C421" s="29" t="n"/>
@@ -12339,7 +12196,7 @@
       <c r="X421" s="5" t="n"/>
       <c r="Y421" s="5" t="n"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1" s="52">
+    <row r="422" ht="15.75" customHeight="1" s="51">
       <c r="A422" s="29" t="n"/>
       <c r="B422" s="29" t="n"/>
       <c r="C422" s="29" t="n"/>
@@ -12366,7 +12223,7 @@
       <c r="X422" s="5" t="n"/>
       <c r="Y422" s="5" t="n"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1" s="52">
+    <row r="423" ht="15.75" customHeight="1" s="51">
       <c r="A423" s="29" t="n"/>
       <c r="B423" s="29" t="n"/>
       <c r="C423" s="29" t="n"/>
@@ -12393,7 +12250,7 @@
       <c r="X423" s="5" t="n"/>
       <c r="Y423" s="5" t="n"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1" s="52">
+    <row r="424" ht="15.75" customHeight="1" s="51">
       <c r="A424" s="29" t="n"/>
       <c r="B424" s="29" t="n"/>
       <c r="C424" s="29" t="n"/>
@@ -12420,7 +12277,7 @@
       <c r="X424" s="5" t="n"/>
       <c r="Y424" s="5" t="n"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1" s="52">
+    <row r="425" ht="15.75" customHeight="1" s="51">
       <c r="A425" s="29" t="n"/>
       <c r="B425" s="29" t="n"/>
       <c r="C425" s="29" t="n"/>
@@ -12447,7 +12304,7 @@
       <c r="X425" s="5" t="n"/>
       <c r="Y425" s="5" t="n"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1" s="52">
+    <row r="426" ht="15.75" customHeight="1" s="51">
       <c r="A426" s="29" t="n"/>
       <c r="B426" s="29" t="n"/>
       <c r="C426" s="29" t="n"/>
@@ -12474,7 +12331,7 @@
       <c r="X426" s="5" t="n"/>
       <c r="Y426" s="5" t="n"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1" s="52">
+    <row r="427" ht="15.75" customHeight="1" s="51">
       <c r="A427" s="29" t="n"/>
       <c r="B427" s="29" t="n"/>
       <c r="C427" s="29" t="n"/>
@@ -12501,7 +12358,7 @@
       <c r="X427" s="5" t="n"/>
       <c r="Y427" s="5" t="n"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1" s="52">
+    <row r="428" ht="15.75" customHeight="1" s="51">
       <c r="A428" s="29" t="n"/>
       <c r="B428" s="29" t="n"/>
       <c r="C428" s="29" t="n"/>
@@ -12528,7 +12385,7 @@
       <c r="X428" s="5" t="n"/>
       <c r="Y428" s="5" t="n"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1" s="52">
+    <row r="429" ht="15.75" customHeight="1" s="51">
       <c r="A429" s="29" t="n"/>
       <c r="B429" s="29" t="n"/>
       <c r="C429" s="29" t="n"/>
@@ -12555,7 +12412,7 @@
       <c r="X429" s="5" t="n"/>
       <c r="Y429" s="5" t="n"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1" s="52">
+    <row r="430" ht="15.75" customHeight="1" s="51">
       <c r="A430" s="29" t="n"/>
       <c r="B430" s="29" t="n"/>
       <c r="C430" s="29" t="n"/>
@@ -12582,7 +12439,7 @@
       <c r="X430" s="5" t="n"/>
       <c r="Y430" s="5" t="n"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1" s="52">
+    <row r="431" ht="15.75" customHeight="1" s="51">
       <c r="A431" s="29" t="n"/>
       <c r="B431" s="29" t="n"/>
       <c r="C431" s="29" t="n"/>
@@ -12609,7 +12466,7 @@
       <c r="X431" s="5" t="n"/>
       <c r="Y431" s="5" t="n"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1" s="52">
+    <row r="432" ht="15.75" customHeight="1" s="51">
       <c r="A432" s="29" t="n"/>
       <c r="B432" s="29" t="n"/>
       <c r="C432" s="29" t="n"/>
@@ -12636,7 +12493,7 @@
       <c r="X432" s="5" t="n"/>
       <c r="Y432" s="5" t="n"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1" s="52">
+    <row r="433" ht="15.75" customHeight="1" s="51">
       <c r="A433" s="29" t="n"/>
       <c r="B433" s="29" t="n"/>
       <c r="C433" s="29" t="n"/>
@@ -12663,7 +12520,7 @@
       <c r="X433" s="5" t="n"/>
       <c r="Y433" s="5" t="n"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1" s="52">
+    <row r="434" ht="15.75" customHeight="1" s="51">
       <c r="A434" s="29" t="n"/>
       <c r="B434" s="29" t="n"/>
       <c r="C434" s="29" t="n"/>
@@ -12690,7 +12547,7 @@
       <c r="X434" s="5" t="n"/>
       <c r="Y434" s="5" t="n"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1" s="52">
+    <row r="435" ht="15.75" customHeight="1" s="51">
       <c r="A435" s="29" t="n"/>
       <c r="B435" s="29" t="n"/>
       <c r="C435" s="29" t="n"/>
@@ -12717,7 +12574,7 @@
       <c r="X435" s="5" t="n"/>
       <c r="Y435" s="5" t="n"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1" s="52">
+    <row r="436" ht="15.75" customHeight="1" s="51">
       <c r="A436" s="29" t="n"/>
       <c r="B436" s="29" t="n"/>
       <c r="C436" s="29" t="n"/>
@@ -12744,7 +12601,7 @@
       <c r="X436" s="5" t="n"/>
       <c r="Y436" s="5" t="n"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1" s="52">
+    <row r="437" ht="15.75" customHeight="1" s="51">
       <c r="A437" s="29" t="n"/>
       <c r="B437" s="29" t="n"/>
       <c r="C437" s="29" t="n"/>
@@ -12771,7 +12628,7 @@
       <c r="X437" s="5" t="n"/>
       <c r="Y437" s="5" t="n"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1" s="52">
+    <row r="438" ht="15.75" customHeight="1" s="51">
       <c r="A438" s="29" t="n"/>
       <c r="B438" s="29" t="n"/>
       <c r="C438" s="29" t="n"/>
@@ -12798,7 +12655,7 @@
       <c r="X438" s="5" t="n"/>
       <c r="Y438" s="5" t="n"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1" s="52">
+    <row r="439" ht="15.75" customHeight="1" s="51">
       <c r="A439" s="29" t="n"/>
       <c r="B439" s="29" t="n"/>
       <c r="C439" s="29" t="n"/>
@@ -12825,7 +12682,7 @@
       <c r="X439" s="5" t="n"/>
       <c r="Y439" s="5" t="n"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1" s="52">
+    <row r="440" ht="15.75" customHeight="1" s="51">
       <c r="A440" s="29" t="n"/>
       <c r="B440" s="29" t="n"/>
       <c r="C440" s="29" t="n"/>
@@ -12852,7 +12709,7 @@
       <c r="X440" s="5" t="n"/>
       <c r="Y440" s="5" t="n"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1" s="52">
+    <row r="441" ht="15.75" customHeight="1" s="51">
       <c r="A441" s="29" t="n"/>
       <c r="B441" s="29" t="n"/>
       <c r="C441" s="29" t="n"/>
@@ -12879,7 +12736,7 @@
       <c r="X441" s="5" t="n"/>
       <c r="Y441" s="5" t="n"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1" s="52">
+    <row r="442" ht="15.75" customHeight="1" s="51">
       <c r="A442" s="29" t="n"/>
       <c r="B442" s="29" t="n"/>
       <c r="C442" s="29" t="n"/>
@@ -12906,7 +12763,7 @@
       <c r="X442" s="5" t="n"/>
       <c r="Y442" s="5" t="n"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1" s="52">
+    <row r="443" ht="15.75" customHeight="1" s="51">
       <c r="A443" s="29" t="n"/>
       <c r="B443" s="29" t="n"/>
       <c r="C443" s="29" t="n"/>
@@ -12933,7 +12790,7 @@
       <c r="X443" s="5" t="n"/>
       <c r="Y443" s="5" t="n"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1" s="52">
+    <row r="444" ht="15.75" customHeight="1" s="51">
       <c r="A444" s="29" t="n"/>
       <c r="B444" s="29" t="n"/>
       <c r="C444" s="29" t="n"/>
@@ -12960,7 +12817,7 @@
       <c r="X444" s="5" t="n"/>
       <c r="Y444" s="5" t="n"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1" s="52">
+    <row r="445" ht="15.75" customHeight="1" s="51">
       <c r="A445" s="29" t="n"/>
       <c r="B445" s="29" t="n"/>
       <c r="C445" s="29" t="n"/>
@@ -12987,7 +12844,7 @@
       <c r="X445" s="5" t="n"/>
       <c r="Y445" s="5" t="n"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1" s="52">
+    <row r="446" ht="15.75" customHeight="1" s="51">
       <c r="A446" s="29" t="n"/>
       <c r="B446" s="29" t="n"/>
       <c r="C446" s="29" t="n"/>
@@ -13014,7 +12871,7 @@
       <c r="X446" s="5" t="n"/>
       <c r="Y446" s="5" t="n"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1" s="52">
+    <row r="447" ht="15.75" customHeight="1" s="51">
       <c r="A447" s="29" t="n"/>
       <c r="B447" s="29" t="n"/>
       <c r="C447" s="29" t="n"/>
@@ -13041,7 +12898,7 @@
       <c r="X447" s="5" t="n"/>
       <c r="Y447" s="5" t="n"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1" s="52">
+    <row r="448" ht="15.75" customHeight="1" s="51">
       <c r="A448" s="29" t="n"/>
       <c r="B448" s="29" t="n"/>
       <c r="C448" s="29" t="n"/>
@@ -13068,7 +12925,7 @@
       <c r="X448" s="5" t="n"/>
       <c r="Y448" s="5" t="n"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1" s="52">
+    <row r="449" ht="15.75" customHeight="1" s="51">
       <c r="A449" s="29" t="n"/>
       <c r="B449" s="29" t="n"/>
       <c r="C449" s="29" t="n"/>
@@ -13095,7 +12952,7 @@
       <c r="X449" s="5" t="n"/>
       <c r="Y449" s="5" t="n"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1" s="52">
+    <row r="450" ht="15.75" customHeight="1" s="51">
       <c r="A450" s="29" t="n"/>
       <c r="B450" s="29" t="n"/>
       <c r="C450" s="29" t="n"/>
@@ -13122,7 +12979,7 @@
       <c r="X450" s="5" t="n"/>
       <c r="Y450" s="5" t="n"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1" s="52">
+    <row r="451" ht="15.75" customHeight="1" s="51">
       <c r="A451" s="29" t="n"/>
       <c r="B451" s="29" t="n"/>
       <c r="C451" s="29" t="n"/>
@@ -13149,7 +13006,7 @@
       <c r="X451" s="5" t="n"/>
       <c r="Y451" s="5" t="n"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1" s="52">
+    <row r="452" ht="15.75" customHeight="1" s="51">
       <c r="A452" s="29" t="n"/>
       <c r="B452" s="29" t="n"/>
       <c r="C452" s="29" t="n"/>
@@ -13176,7 +13033,7 @@
       <c r="X452" s="5" t="n"/>
       <c r="Y452" s="5" t="n"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1" s="52">
+    <row r="453" ht="15.75" customHeight="1" s="51">
       <c r="A453" s="29" t="n"/>
       <c r="B453" s="29" t="n"/>
       <c r="C453" s="29" t="n"/>
@@ -13203,7 +13060,7 @@
       <c r="X453" s="5" t="n"/>
       <c r="Y453" s="5" t="n"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1" s="52">
+    <row r="454" ht="15.75" customHeight="1" s="51">
       <c r="A454" s="29" t="n"/>
       <c r="B454" s="29" t="n"/>
       <c r="C454" s="29" t="n"/>
@@ -13230,7 +13087,7 @@
       <c r="X454" s="5" t="n"/>
       <c r="Y454" s="5" t="n"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1" s="52">
+    <row r="455" ht="15.75" customHeight="1" s="51">
       <c r="A455" s="29" t="n"/>
       <c r="B455" s="29" t="n"/>
       <c r="C455" s="29" t="n"/>
@@ -13257,7 +13114,7 @@
       <c r="X455" s="5" t="n"/>
       <c r="Y455" s="5" t="n"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1" s="52">
+    <row r="456" ht="15.75" customHeight="1" s="51">
       <c r="A456" s="29" t="n"/>
       <c r="B456" s="29" t="n"/>
       <c r="C456" s="29" t="n"/>
@@ -13284,7 +13141,7 @@
       <c r="X456" s="5" t="n"/>
       <c r="Y456" s="5" t="n"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1" s="52">
+    <row r="457" ht="15.75" customHeight="1" s="51">
       <c r="A457" s="29" t="n"/>
       <c r="B457" s="29" t="n"/>
       <c r="C457" s="29" t="n"/>
@@ -13311,7 +13168,7 @@
       <c r="X457" s="5" t="n"/>
       <c r="Y457" s="5" t="n"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1" s="52">
+    <row r="458" ht="15.75" customHeight="1" s="51">
       <c r="A458" s="29" t="n"/>
       <c r="B458" s="29" t="n"/>
       <c r="C458" s="29" t="n"/>
@@ -13338,7 +13195,7 @@
       <c r="X458" s="5" t="n"/>
       <c r="Y458" s="5" t="n"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1" s="52">
+    <row r="459" ht="15.75" customHeight="1" s="51">
       <c r="A459" s="29" t="n"/>
       <c r="B459" s="29" t="n"/>
       <c r="C459" s="29" t="n"/>
@@ -13365,7 +13222,7 @@
       <c r="X459" s="5" t="n"/>
       <c r="Y459" s="5" t="n"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1" s="52">
+    <row r="460" ht="15.75" customHeight="1" s="51">
       <c r="A460" s="29" t="n"/>
       <c r="B460" s="29" t="n"/>
       <c r="C460" s="29" t="n"/>
@@ -13392,7 +13249,7 @@
       <c r="X460" s="5" t="n"/>
       <c r="Y460" s="5" t="n"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1" s="52">
+    <row r="461" ht="15.75" customHeight="1" s="51">
       <c r="A461" s="29" t="n"/>
       <c r="B461" s="29" t="n"/>
       <c r="C461" s="29" t="n"/>
@@ -13419,7 +13276,7 @@
       <c r="X461" s="5" t="n"/>
       <c r="Y461" s="5" t="n"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1" s="52">
+    <row r="462" ht="15.75" customHeight="1" s="51">
       <c r="A462" s="29" t="n"/>
       <c r="B462" s="29" t="n"/>
       <c r="C462" s="29" t="n"/>
@@ -13446,7 +13303,7 @@
       <c r="X462" s="5" t="n"/>
       <c r="Y462" s="5" t="n"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1" s="52">
+    <row r="463" ht="15.75" customHeight="1" s="51">
       <c r="A463" s="29" t="n"/>
       <c r="B463" s="29" t="n"/>
       <c r="C463" s="29" t="n"/>
@@ -13473,7 +13330,7 @@
       <c r="X463" s="5" t="n"/>
       <c r="Y463" s="5" t="n"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1" s="52">
+    <row r="464" ht="15.75" customHeight="1" s="51">
       <c r="A464" s="29" t="n"/>
       <c r="B464" s="29" t="n"/>
       <c r="C464" s="29" t="n"/>
@@ -13500,7 +13357,7 @@
       <c r="X464" s="5" t="n"/>
       <c r="Y464" s="5" t="n"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1" s="52">
+    <row r="465" ht="15.75" customHeight="1" s="51">
       <c r="A465" s="29" t="n"/>
       <c r="B465" s="29" t="n"/>
       <c r="C465" s="29" t="n"/>
@@ -13527,7 +13384,7 @@
       <c r="X465" s="5" t="n"/>
       <c r="Y465" s="5" t="n"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1" s="52">
+    <row r="466" ht="15.75" customHeight="1" s="51">
       <c r="A466" s="29" t="n"/>
       <c r="B466" s="29" t="n"/>
       <c r="C466" s="29" t="n"/>
@@ -13554,7 +13411,7 @@
       <c r="X466" s="5" t="n"/>
       <c r="Y466" s="5" t="n"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1" s="52">
+    <row r="467" ht="15.75" customHeight="1" s="51">
       <c r="A467" s="29" t="n"/>
       <c r="B467" s="29" t="n"/>
       <c r="C467" s="29" t="n"/>
@@ -13581,7 +13438,7 @@
       <c r="X467" s="5" t="n"/>
       <c r="Y467" s="5" t="n"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1" s="52">
+    <row r="468" ht="15.75" customHeight="1" s="51">
       <c r="A468" s="29" t="n"/>
       <c r="B468" s="29" t="n"/>
       <c r="C468" s="29" t="n"/>
@@ -13608,7 +13465,7 @@
       <c r="X468" s="5" t="n"/>
       <c r="Y468" s="5" t="n"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1" s="52">
+    <row r="469" ht="15.75" customHeight="1" s="51">
       <c r="A469" s="29" t="n"/>
       <c r="B469" s="29" t="n"/>
       <c r="C469" s="29" t="n"/>
@@ -13635,7 +13492,7 @@
       <c r="X469" s="5" t="n"/>
       <c r="Y469" s="5" t="n"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1" s="52">
+    <row r="470" ht="15.75" customHeight="1" s="51">
       <c r="A470" s="29" t="n"/>
       <c r="B470" s="29" t="n"/>
       <c r="C470" s="29" t="n"/>
@@ -13662,7 +13519,7 @@
       <c r="X470" s="5" t="n"/>
       <c r="Y470" s="5" t="n"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1" s="52">
+    <row r="471" ht="15.75" customHeight="1" s="51">
       <c r="A471" s="29" t="n"/>
       <c r="B471" s="29" t="n"/>
       <c r="C471" s="29" t="n"/>
@@ -13689,7 +13546,7 @@
       <c r="X471" s="5" t="n"/>
       <c r="Y471" s="5" t="n"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1" s="52">
+    <row r="472" ht="15.75" customHeight="1" s="51">
       <c r="A472" s="29" t="n"/>
       <c r="B472" s="29" t="n"/>
       <c r="C472" s="29" t="n"/>
@@ -13716,7 +13573,7 @@
       <c r="X472" s="5" t="n"/>
       <c r="Y472" s="5" t="n"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1" s="52">
+    <row r="473" ht="15.75" customHeight="1" s="51">
       <c r="A473" s="29" t="n"/>
       <c r="B473" s="29" t="n"/>
       <c r="C473" s="29" t="n"/>
@@ -13743,7 +13600,7 @@
       <c r="X473" s="5" t="n"/>
       <c r="Y473" s="5" t="n"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1" s="52">
+    <row r="474" ht="15.75" customHeight="1" s="51">
       <c r="A474" s="29" t="n"/>
       <c r="B474" s="29" t="n"/>
       <c r="C474" s="29" t="n"/>
@@ -13770,7 +13627,7 @@
       <c r="X474" s="5" t="n"/>
       <c r="Y474" s="5" t="n"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1" s="52">
+    <row r="475" ht="15.75" customHeight="1" s="51">
       <c r="A475" s="29" t="n"/>
       <c r="B475" s="29" t="n"/>
       <c r="C475" s="29" t="n"/>
@@ -13797,7 +13654,7 @@
       <c r="X475" s="5" t="n"/>
       <c r="Y475" s="5" t="n"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1" s="52">
+    <row r="476" ht="15.75" customHeight="1" s="51">
       <c r="A476" s="29" t="n"/>
       <c r="B476" s="29" t="n"/>
       <c r="C476" s="29" t="n"/>
@@ -13824,7 +13681,7 @@
       <c r="X476" s="5" t="n"/>
       <c r="Y476" s="5" t="n"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1" s="52">
+    <row r="477" ht="15.75" customHeight="1" s="51">
       <c r="A477" s="29" t="n"/>
       <c r="B477" s="29" t="n"/>
       <c r="C477" s="29" t="n"/>
@@ -13851,7 +13708,7 @@
       <c r="X477" s="5" t="n"/>
       <c r="Y477" s="5" t="n"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1" s="52">
+    <row r="478" ht="15.75" customHeight="1" s="51">
       <c r="A478" s="29" t="n"/>
       <c r="B478" s="29" t="n"/>
       <c r="C478" s="29" t="n"/>
@@ -13878,7 +13735,7 @@
       <c r="X478" s="5" t="n"/>
       <c r="Y478" s="5" t="n"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1" s="52">
+    <row r="479" ht="15.75" customHeight="1" s="51">
       <c r="A479" s="29" t="n"/>
       <c r="B479" s="29" t="n"/>
       <c r="C479" s="29" t="n"/>
@@ -13905,7 +13762,7 @@
       <c r="X479" s="5" t="n"/>
       <c r="Y479" s="5" t="n"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1" s="52">
+    <row r="480" ht="15.75" customHeight="1" s="51">
       <c r="A480" s="29" t="n"/>
       <c r="B480" s="29" t="n"/>
       <c r="C480" s="29" t="n"/>
@@ -13932,7 +13789,7 @@
       <c r="X480" s="5" t="n"/>
       <c r="Y480" s="5" t="n"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1" s="52">
+    <row r="481" ht="15.75" customHeight="1" s="51">
       <c r="A481" s="29" t="n"/>
       <c r="B481" s="29" t="n"/>
       <c r="C481" s="29" t="n"/>
@@ -13959,7 +13816,7 @@
       <c r="X481" s="5" t="n"/>
       <c r="Y481" s="5" t="n"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1" s="52">
+    <row r="482" ht="15.75" customHeight="1" s="51">
       <c r="A482" s="29" t="n"/>
       <c r="B482" s="29" t="n"/>
       <c r="C482" s="29" t="n"/>
@@ -13986,7 +13843,7 @@
       <c r="X482" s="5" t="n"/>
       <c r="Y482" s="5" t="n"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1" s="52">
+    <row r="483" ht="15.75" customHeight="1" s="51">
       <c r="A483" s="29" t="n"/>
       <c r="B483" s="29" t="n"/>
       <c r="C483" s="29" t="n"/>
@@ -14013,7 +13870,7 @@
       <c r="X483" s="5" t="n"/>
       <c r="Y483" s="5" t="n"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1" s="52">
+    <row r="484" ht="15.75" customHeight="1" s="51">
       <c r="A484" s="29" t="n"/>
       <c r="B484" s="29" t="n"/>
       <c r="C484" s="29" t="n"/>
@@ -14040,7 +13897,7 @@
       <c r="X484" s="5" t="n"/>
       <c r="Y484" s="5" t="n"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1" s="52">
+    <row r="485" ht="15.75" customHeight="1" s="51">
       <c r="A485" s="29" t="n"/>
       <c r="B485" s="29" t="n"/>
       <c r="C485" s="29" t="n"/>
@@ -14067,7 +13924,7 @@
       <c r="X485" s="5" t="n"/>
       <c r="Y485" s="5" t="n"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1" s="52">
+    <row r="486" ht="15.75" customHeight="1" s="51">
       <c r="A486" s="29" t="n"/>
       <c r="B486" s="29" t="n"/>
       <c r="C486" s="29" t="n"/>
@@ -14094,7 +13951,7 @@
       <c r="X486" s="5" t="n"/>
       <c r="Y486" s="5" t="n"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1" s="52">
+    <row r="487" ht="15.75" customHeight="1" s="51">
       <c r="A487" s="29" t="n"/>
       <c r="B487" s="29" t="n"/>
       <c r="C487" s="29" t="n"/>
@@ -14121,7 +13978,7 @@
       <c r="X487" s="5" t="n"/>
       <c r="Y487" s="5" t="n"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1" s="52">
+    <row r="488" ht="15.75" customHeight="1" s="51">
       <c r="A488" s="29" t="n"/>
       <c r="B488" s="29" t="n"/>
       <c r="C488" s="29" t="n"/>
@@ -14148,7 +14005,7 @@
       <c r="X488" s="5" t="n"/>
       <c r="Y488" s="5" t="n"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1" s="52">
+    <row r="489" ht="15.75" customHeight="1" s="51">
       <c r="A489" s="29" t="n"/>
       <c r="B489" s="29" t="n"/>
       <c r="C489" s="29" t="n"/>
@@ -14175,7 +14032,7 @@
       <c r="X489" s="5" t="n"/>
       <c r="Y489" s="5" t="n"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1" s="52">
+    <row r="490" ht="15.75" customHeight="1" s="51">
       <c r="A490" s="29" t="n"/>
       <c r="B490" s="29" t="n"/>
       <c r="C490" s="29" t="n"/>
@@ -14202,7 +14059,7 @@
       <c r="X490" s="5" t="n"/>
       <c r="Y490" s="5" t="n"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1" s="52">
+    <row r="491" ht="15.75" customHeight="1" s="51">
       <c r="A491" s="29" t="n"/>
       <c r="B491" s="29" t="n"/>
       <c r="C491" s="29" t="n"/>
@@ -14229,7 +14086,7 @@
       <c r="X491" s="5" t="n"/>
       <c r="Y491" s="5" t="n"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1" s="52">
+    <row r="492" ht="15.75" customHeight="1" s="51">
       <c r="A492" s="29" t="n"/>
       <c r="B492" s="29" t="n"/>
       <c r="C492" s="29" t="n"/>
@@ -14256,7 +14113,7 @@
       <c r="X492" s="5" t="n"/>
       <c r="Y492" s="5" t="n"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1" s="52">
+    <row r="493" ht="15.75" customHeight="1" s="51">
       <c r="A493" s="29" t="n"/>
       <c r="B493" s="29" t="n"/>
       <c r="C493" s="29" t="n"/>
@@ -14283,7 +14140,7 @@
       <c r="X493" s="5" t="n"/>
       <c r="Y493" s="5" t="n"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1" s="52">
+    <row r="494" ht="15.75" customHeight="1" s="51">
       <c r="A494" s="29" t="n"/>
       <c r="B494" s="29" t="n"/>
       <c r="C494" s="29" t="n"/>
@@ -14310,7 +14167,7 @@
       <c r="X494" s="5" t="n"/>
       <c r="Y494" s="5" t="n"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1" s="52">
+    <row r="495" ht="15.75" customHeight="1" s="51">
       <c r="A495" s="29" t="n"/>
       <c r="B495" s="29" t="n"/>
       <c r="C495" s="29" t="n"/>
@@ -14337,7 +14194,7 @@
       <c r="X495" s="5" t="n"/>
       <c r="Y495" s="5" t="n"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1" s="52">
+    <row r="496" ht="15.75" customHeight="1" s="51">
       <c r="A496" s="29" t="n"/>
       <c r="B496" s="29" t="n"/>
       <c r="C496" s="29" t="n"/>
@@ -14364,7 +14221,7 @@
       <c r="X496" s="5" t="n"/>
       <c r="Y496" s="5" t="n"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1" s="52">
+    <row r="497" ht="15.75" customHeight="1" s="51">
       <c r="A497" s="29" t="n"/>
       <c r="B497" s="29" t="n"/>
       <c r="C497" s="29" t="n"/>
@@ -14391,7 +14248,7 @@
       <c r="X497" s="5" t="n"/>
       <c r="Y497" s="5" t="n"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1" s="52">
+    <row r="498" ht="15.75" customHeight="1" s="51">
       <c r="A498" s="29" t="n"/>
       <c r="B498" s="29" t="n"/>
       <c r="C498" s="29" t="n"/>
@@ -14418,7 +14275,7 @@
       <c r="X498" s="5" t="n"/>
       <c r="Y498" s="5" t="n"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1" s="52">
+    <row r="499" ht="15.75" customHeight="1" s="51">
       <c r="A499" s="29" t="n"/>
       <c r="B499" s="29" t="n"/>
       <c r="C499" s="29" t="n"/>
@@ -14445,7 +14302,7 @@
       <c r="X499" s="5" t="n"/>
       <c r="Y499" s="5" t="n"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1" s="52">
+    <row r="500" ht="15.75" customHeight="1" s="51">
       <c r="A500" s="29" t="n"/>
       <c r="B500" s="29" t="n"/>
       <c r="C500" s="29" t="n"/>
@@ -14472,7 +14329,7 @@
       <c r="X500" s="5" t="n"/>
       <c r="Y500" s="5" t="n"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1" s="52">
+    <row r="501" ht="15.75" customHeight="1" s="51">
       <c r="A501" s="29" t="n"/>
       <c r="B501" s="29" t="n"/>
       <c r="C501" s="29" t="n"/>
@@ -14499,7 +14356,7 @@
       <c r="X501" s="5" t="n"/>
       <c r="Y501" s="5" t="n"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1" s="52">
+    <row r="502" ht="15.75" customHeight="1" s="51">
       <c r="A502" s="29" t="n"/>
       <c r="B502" s="29" t="n"/>
       <c r="C502" s="29" t="n"/>
@@ -14526,7 +14383,7 @@
       <c r="X502" s="5" t="n"/>
       <c r="Y502" s="5" t="n"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1" s="52">
+    <row r="503" ht="15.75" customHeight="1" s="51">
       <c r="A503" s="29" t="n"/>
       <c r="B503" s="29" t="n"/>
       <c r="C503" s="29" t="n"/>
@@ -14553,7 +14410,7 @@
       <c r="X503" s="5" t="n"/>
       <c r="Y503" s="5" t="n"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1" s="52">
+    <row r="504" ht="15.75" customHeight="1" s="51">
       <c r="A504" s="29" t="n"/>
       <c r="B504" s="29" t="n"/>
       <c r="C504" s="29" t="n"/>
@@ -14580,7 +14437,7 @@
       <c r="X504" s="5" t="n"/>
       <c r="Y504" s="5" t="n"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1" s="52">
+    <row r="505" ht="15.75" customHeight="1" s="51">
       <c r="A505" s="29" t="n"/>
       <c r="B505" s="29" t="n"/>
       <c r="C505" s="29" t="n"/>
@@ -14607,7 +14464,7 @@
       <c r="X505" s="5" t="n"/>
       <c r="Y505" s="5" t="n"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1" s="52">
+    <row r="506" ht="15.75" customHeight="1" s="51">
       <c r="A506" s="29" t="n"/>
       <c r="B506" s="29" t="n"/>
       <c r="C506" s="29" t="n"/>
@@ -14634,7 +14491,7 @@
       <c r="X506" s="5" t="n"/>
       <c r="Y506" s="5" t="n"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1" s="52">
+    <row r="507" ht="15.75" customHeight="1" s="51">
       <c r="A507" s="29" t="n"/>
       <c r="B507" s="29" t="n"/>
       <c r="C507" s="29" t="n"/>
@@ -14661,7 +14518,7 @@
       <c r="X507" s="5" t="n"/>
       <c r="Y507" s="5" t="n"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1" s="52">
+    <row r="508" ht="15.75" customHeight="1" s="51">
       <c r="A508" s="29" t="n"/>
       <c r="B508" s="29" t="n"/>
       <c r="C508" s="29" t="n"/>
@@ -14688,7 +14545,7 @@
       <c r="X508" s="5" t="n"/>
       <c r="Y508" s="5" t="n"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1" s="52">
+    <row r="509" ht="15.75" customHeight="1" s="51">
       <c r="A509" s="29" t="n"/>
       <c r="B509" s="29" t="n"/>
       <c r="C509" s="29" t="n"/>
@@ -14715,7 +14572,7 @@
       <c r="X509" s="5" t="n"/>
       <c r="Y509" s="5" t="n"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1" s="52">
+    <row r="510" ht="15.75" customHeight="1" s="51">
       <c r="A510" s="29" t="n"/>
       <c r="B510" s="29" t="n"/>
       <c r="C510" s="29" t="n"/>
@@ -14742,7 +14599,7 @@
       <c r="X510" s="5" t="n"/>
       <c r="Y510" s="5" t="n"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1" s="52">
+    <row r="511" ht="15.75" customHeight="1" s="51">
       <c r="A511" s="29" t="n"/>
       <c r="B511" s="29" t="n"/>
       <c r="C511" s="29" t="n"/>
@@ -14769,7 +14626,7 @@
       <c r="X511" s="5" t="n"/>
       <c r="Y511" s="5" t="n"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1" s="52">
+    <row r="512" ht="15.75" customHeight="1" s="51">
       <c r="A512" s="29" t="n"/>
       <c r="B512" s="29" t="n"/>
       <c r="C512" s="29" t="n"/>
@@ -14796,7 +14653,7 @@
       <c r="X512" s="5" t="n"/>
       <c r="Y512" s="5" t="n"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1" s="52">
+    <row r="513" ht="15.75" customHeight="1" s="51">
       <c r="A513" s="29" t="n"/>
       <c r="B513" s="29" t="n"/>
       <c r="C513" s="29" t="n"/>
@@ -14823,7 +14680,7 @@
       <c r="X513" s="5" t="n"/>
       <c r="Y513" s="5" t="n"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1" s="52">
+    <row r="514" ht="15.75" customHeight="1" s="51">
       <c r="A514" s="29" t="n"/>
       <c r="B514" s="29" t="n"/>
       <c r="C514" s="29" t="n"/>
@@ -14850,7 +14707,7 @@
       <c r="X514" s="5" t="n"/>
       <c r="Y514" s="5" t="n"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1" s="52">
+    <row r="515" ht="15.75" customHeight="1" s="51">
       <c r="A515" s="29" t="n"/>
       <c r="B515" s="29" t="n"/>
       <c r="C515" s="29" t="n"/>
@@ -14877,7 +14734,7 @@
       <c r="X515" s="5" t="n"/>
       <c r="Y515" s="5" t="n"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1" s="52">
+    <row r="516" ht="15.75" customHeight="1" s="51">
       <c r="A516" s="29" t="n"/>
       <c r="B516" s="29" t="n"/>
       <c r="C516" s="29" t="n"/>
@@ -14904,7 +14761,7 @@
       <c r="X516" s="5" t="n"/>
       <c r="Y516" s="5" t="n"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1" s="52">
+    <row r="517" ht="15.75" customHeight="1" s="51">
       <c r="A517" s="29" t="n"/>
       <c r="B517" s="29" t="n"/>
       <c r="C517" s="29" t="n"/>
@@ -14931,7 +14788,7 @@
       <c r="X517" s="5" t="n"/>
       <c r="Y517" s="5" t="n"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1" s="52">
+    <row r="518" ht="15.75" customHeight="1" s="51">
       <c r="A518" s="29" t="n"/>
       <c r="B518" s="29" t="n"/>
       <c r="C518" s="29" t="n"/>
@@ -14958,7 +14815,7 @@
       <c r="X518" s="5" t="n"/>
       <c r="Y518" s="5" t="n"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1" s="52">
+    <row r="519" ht="15.75" customHeight="1" s="51">
       <c r="A519" s="29" t="n"/>
       <c r="B519" s="29" t="n"/>
       <c r="C519" s="29" t="n"/>
@@ -14985,7 +14842,7 @@
       <c r="X519" s="5" t="n"/>
       <c r="Y519" s="5" t="n"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1" s="52">
+    <row r="520" ht="15.75" customHeight="1" s="51">
       <c r="A520" s="29" t="n"/>
       <c r="B520" s="29" t="n"/>
       <c r="C520" s="29" t="n"/>
@@ -15012,7 +14869,7 @@
       <c r="X520" s="5" t="n"/>
       <c r="Y520" s="5" t="n"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1" s="52">
+    <row r="521" ht="15.75" customHeight="1" s="51">
       <c r="A521" s="29" t="n"/>
       <c r="B521" s="29" t="n"/>
       <c r="C521" s="29" t="n"/>
@@ -15039,7 +14896,7 @@
       <c r="X521" s="5" t="n"/>
       <c r="Y521" s="5" t="n"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1" s="52">
+    <row r="522" ht="15.75" customHeight="1" s="51">
       <c r="A522" s="29" t="n"/>
       <c r="B522" s="29" t="n"/>
       <c r="C522" s="29" t="n"/>
@@ -15066,7 +14923,7 @@
       <c r="X522" s="5" t="n"/>
       <c r="Y522" s="5" t="n"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1" s="52">
+    <row r="523" ht="15.75" customHeight="1" s="51">
       <c r="A523" s="29" t="n"/>
       <c r="B523" s="29" t="n"/>
       <c r="C523" s="29" t="n"/>
@@ -15093,7 +14950,7 @@
       <c r="X523" s="5" t="n"/>
       <c r="Y523" s="5" t="n"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1" s="52">
+    <row r="524" ht="15.75" customHeight="1" s="51">
       <c r="A524" s="29" t="n"/>
       <c r="B524" s="29" t="n"/>
       <c r="C524" s="29" t="n"/>
@@ -15120,7 +14977,7 @@
       <c r="X524" s="5" t="n"/>
       <c r="Y524" s="5" t="n"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1" s="52">
+    <row r="525" ht="15.75" customHeight="1" s="51">
       <c r="A525" s="29" t="n"/>
       <c r="B525" s="29" t="n"/>
       <c r="C525" s="29" t="n"/>
@@ -15147,7 +15004,7 @@
       <c r="X525" s="5" t="n"/>
       <c r="Y525" s="5" t="n"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1" s="52">
+    <row r="526" ht="15.75" customHeight="1" s="51">
       <c r="A526" s="29" t="n"/>
       <c r="B526" s="29" t="n"/>
       <c r="C526" s="29" t="n"/>
@@ -15174,7 +15031,7 @@
       <c r="X526" s="5" t="n"/>
       <c r="Y526" s="5" t="n"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1" s="52">
+    <row r="527" ht="15.75" customHeight="1" s="51">
       <c r="A527" s="29" t="n"/>
       <c r="B527" s="29" t="n"/>
       <c r="C527" s="29" t="n"/>
@@ -15201,7 +15058,7 @@
       <c r="X527" s="5" t="n"/>
       <c r="Y527" s="5" t="n"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1" s="52">
+    <row r="528" ht="15.75" customHeight="1" s="51">
       <c r="A528" s="29" t="n"/>
       <c r="B528" s="29" t="n"/>
       <c r="C528" s="29" t="n"/>
@@ -15228,7 +15085,7 @@
       <c r="X528" s="5" t="n"/>
       <c r="Y528" s="5" t="n"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1" s="52">
+    <row r="529" ht="15.75" customHeight="1" s="51">
       <c r="A529" s="29" t="n"/>
       <c r="B529" s="29" t="n"/>
       <c r="C529" s="29" t="n"/>
@@ -15255,7 +15112,7 @@
       <c r="X529" s="5" t="n"/>
       <c r="Y529" s="5" t="n"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1" s="52">
+    <row r="530" ht="15.75" customHeight="1" s="51">
       <c r="A530" s="29" t="n"/>
       <c r="B530" s="29" t="n"/>
       <c r="C530" s="29" t="n"/>
@@ -15282,7 +15139,7 @@
       <c r="X530" s="5" t="n"/>
       <c r="Y530" s="5" t="n"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1" s="52">
+    <row r="531" ht="15.75" customHeight="1" s="51">
       <c r="A531" s="29" t="n"/>
       <c r="B531" s="29" t="n"/>
       <c r="C531" s="29" t="n"/>
@@ -15309,7 +15166,7 @@
       <c r="X531" s="5" t="n"/>
       <c r="Y531" s="5" t="n"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1" s="52">
+    <row r="532" ht="15.75" customHeight="1" s="51">
       <c r="A532" s="29" t="n"/>
       <c r="B532" s="29" t="n"/>
       <c r="C532" s="29" t="n"/>
@@ -15336,7 +15193,7 @@
       <c r="X532" s="5" t="n"/>
       <c r="Y532" s="5" t="n"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1" s="52">
+    <row r="533" ht="15.75" customHeight="1" s="51">
       <c r="A533" s="29" t="n"/>
       <c r="B533" s="29" t="n"/>
       <c r="C533" s="29" t="n"/>
@@ -15363,7 +15220,7 @@
       <c r="X533" s="5" t="n"/>
       <c r="Y533" s="5" t="n"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1" s="52">
+    <row r="534" ht="15.75" customHeight="1" s="51">
       <c r="A534" s="29" t="n"/>
       <c r="B534" s="29" t="n"/>
       <c r="C534" s="29" t="n"/>
@@ -15390,7 +15247,7 @@
       <c r="X534" s="5" t="n"/>
       <c r="Y534" s="5" t="n"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1" s="52">
+    <row r="535" ht="15.75" customHeight="1" s="51">
       <c r="A535" s="29" t="n"/>
       <c r="B535" s="29" t="n"/>
       <c r="C535" s="29" t="n"/>
@@ -15417,7 +15274,7 @@
       <c r="X535" s="5" t="n"/>
       <c r="Y535" s="5" t="n"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1" s="52">
+    <row r="536" ht="15.75" customHeight="1" s="51">
       <c r="A536" s="29" t="n"/>
       <c r="B536" s="29" t="n"/>
       <c r="C536" s="29" t="n"/>
@@ -15444,7 +15301,7 @@
       <c r="X536" s="5" t="n"/>
       <c r="Y536" s="5" t="n"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1" s="52">
+    <row r="537" ht="15.75" customHeight="1" s="51">
       <c r="A537" s="29" t="n"/>
       <c r="B537" s="29" t="n"/>
       <c r="C537" s="29" t="n"/>
@@ -15471,7 +15328,7 @@
       <c r="X537" s="5" t="n"/>
       <c r="Y537" s="5" t="n"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1" s="52">
+    <row r="538" ht="15.75" customHeight="1" s="51">
       <c r="A538" s="29" t="n"/>
       <c r="B538" s="29" t="n"/>
       <c r="C538" s="29" t="n"/>
@@ -15498,7 +15355,7 @@
       <c r="X538" s="5" t="n"/>
       <c r="Y538" s="5" t="n"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1" s="52">
+    <row r="539" ht="15.75" customHeight="1" s="51">
       <c r="A539" s="29" t="n"/>
       <c r="B539" s="29" t="n"/>
       <c r="C539" s="29" t="n"/>
@@ -15525,7 +15382,7 @@
       <c r="X539" s="5" t="n"/>
       <c r="Y539" s="5" t="n"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1" s="52">
+    <row r="540" ht="15.75" customHeight="1" s="51">
       <c r="A540" s="29" t="n"/>
       <c r="B540" s="29" t="n"/>
       <c r="C540" s="29" t="n"/>
@@ -15552,7 +15409,7 @@
       <c r="X540" s="5" t="n"/>
       <c r="Y540" s="5" t="n"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1" s="52">
+    <row r="541" ht="15.75" customHeight="1" s="51">
       <c r="A541" s="29" t="n"/>
       <c r="B541" s="29" t="n"/>
       <c r="C541" s="29" t="n"/>
@@ -15579,7 +15436,7 @@
       <c r="X541" s="5" t="n"/>
       <c r="Y541" s="5" t="n"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1" s="52">
+    <row r="542" ht="15.75" customHeight="1" s="51">
       <c r="A542" s="29" t="n"/>
       <c r="B542" s="29" t="n"/>
       <c r="C542" s="29" t="n"/>
@@ -15606,7 +15463,7 @@
       <c r="X542" s="5" t="n"/>
       <c r="Y542" s="5" t="n"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1" s="52">
+    <row r="543" ht="15.75" customHeight="1" s="51">
       <c r="A543" s="29" t="n"/>
       <c r="B543" s="29" t="n"/>
       <c r="C543" s="29" t="n"/>
@@ -15633,7 +15490,7 @@
       <c r="X543" s="5" t="n"/>
       <c r="Y543" s="5" t="n"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1" s="52">
+    <row r="544" ht="15.75" customHeight="1" s="51">
       <c r="A544" s="29" t="n"/>
       <c r="B544" s="29" t="n"/>
       <c r="C544" s="29" t="n"/>
@@ -15660,7 +15517,7 @@
       <c r="X544" s="5" t="n"/>
       <c r="Y544" s="5" t="n"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1" s="52">
+    <row r="545" ht="15.75" customHeight="1" s="51">
       <c r="A545" s="29" t="n"/>
       <c r="B545" s="29" t="n"/>
       <c r="C545" s="29" t="n"/>
@@ -15687,7 +15544,7 @@
       <c r="X545" s="5" t="n"/>
       <c r="Y545" s="5" t="n"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1" s="52">
+    <row r="546" ht="15.75" customHeight="1" s="51">
       <c r="A546" s="29" t="n"/>
       <c r="B546" s="29" t="n"/>
       <c r="C546" s="29" t="n"/>
@@ -15714,7 +15571,7 @@
       <c r="X546" s="5" t="n"/>
       <c r="Y546" s="5" t="n"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1" s="52">
+    <row r="547" ht="15.75" customHeight="1" s="51">
       <c r="A547" s="29" t="n"/>
       <c r="B547" s="29" t="n"/>
       <c r="C547" s="29" t="n"/>
@@ -15741,7 +15598,7 @@
       <c r="X547" s="5" t="n"/>
       <c r="Y547" s="5" t="n"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1" s="52">
+    <row r="548" ht="15.75" customHeight="1" s="51">
       <c r="A548" s="29" t="n"/>
       <c r="B548" s="29" t="n"/>
       <c r="C548" s="29" t="n"/>
@@ -15768,7 +15625,7 @@
       <c r="X548" s="5" t="n"/>
       <c r="Y548" s="5" t="n"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1" s="52">
+    <row r="549" ht="15.75" customHeight="1" s="51">
       <c r="A549" s="29" t="n"/>
       <c r="B549" s="29" t="n"/>
       <c r="C549" s="29" t="n"/>
@@ -15795,7 +15652,7 @@
       <c r="X549" s="5" t="n"/>
       <c r="Y549" s="5" t="n"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1" s="52">
+    <row r="550" ht="15.75" customHeight="1" s="51">
       <c r="A550" s="29" t="n"/>
       <c r="B550" s="29" t="n"/>
       <c r="C550" s="29" t="n"/>
@@ -15822,7 +15679,7 @@
       <c r="X550" s="5" t="n"/>
       <c r="Y550" s="5" t="n"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1" s="52">
+    <row r="551" ht="15.75" customHeight="1" s="51">
       <c r="A551" s="29" t="n"/>
       <c r="B551" s="29" t="n"/>
       <c r="C551" s="29" t="n"/>
@@ -15849,7 +15706,7 @@
       <c r="X551" s="5" t="n"/>
       <c r="Y551" s="5" t="n"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1" s="52">
+    <row r="552" ht="15.75" customHeight="1" s="51">
       <c r="A552" s="29" t="n"/>
       <c r="B552" s="29" t="n"/>
       <c r="C552" s="29" t="n"/>
@@ -15876,7 +15733,7 @@
       <c r="X552" s="5" t="n"/>
       <c r="Y552" s="5" t="n"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1" s="52">
+    <row r="553" ht="15.75" customHeight="1" s="51">
       <c r="A553" s="29" t="n"/>
       <c r="B553" s="29" t="n"/>
       <c r="C553" s="29" t="n"/>
@@ -15903,7 +15760,7 @@
       <c r="X553" s="5" t="n"/>
       <c r="Y553" s="5" t="n"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1" s="52">
+    <row r="554" ht="15.75" customHeight="1" s="51">
       <c r="A554" s="29" t="n"/>
       <c r="B554" s="29" t="n"/>
       <c r="C554" s="29" t="n"/>
@@ -15930,7 +15787,7 @@
       <c r="X554" s="5" t="n"/>
       <c r="Y554" s="5" t="n"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1" s="52">
+    <row r="555" ht="15.75" customHeight="1" s="51">
       <c r="A555" s="29" t="n"/>
       <c r="B555" s="29" t="n"/>
       <c r="C555" s="29" t="n"/>
@@ -15957,7 +15814,7 @@
       <c r="X555" s="5" t="n"/>
       <c r="Y555" s="5" t="n"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1" s="52">
+    <row r="556" ht="15.75" customHeight="1" s="51">
       <c r="A556" s="29" t="n"/>
       <c r="B556" s="29" t="n"/>
       <c r="C556" s="29" t="n"/>
@@ -15984,7 +15841,7 @@
       <c r="X556" s="5" t="n"/>
       <c r="Y556" s="5" t="n"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1" s="52">
+    <row r="557" ht="15.75" customHeight="1" s="51">
       <c r="A557" s="29" t="n"/>
       <c r="B557" s="29" t="n"/>
       <c r="C557" s="29" t="n"/>
@@ -16011,7 +15868,7 @@
       <c r="X557" s="5" t="n"/>
       <c r="Y557" s="5" t="n"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1" s="52">
+    <row r="558" ht="15.75" customHeight="1" s="51">
       <c r="A558" s="29" t="n"/>
       <c r="B558" s="29" t="n"/>
       <c r="C558" s="29" t="n"/>
@@ -16038,7 +15895,7 @@
       <c r="X558" s="5" t="n"/>
       <c r="Y558" s="5" t="n"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1" s="52">
+    <row r="559" ht="15.75" customHeight="1" s="51">
       <c r="A559" s="29" t="n"/>
       <c r="B559" s="29" t="n"/>
       <c r="C559" s="29" t="n"/>
@@ -16065,7 +15922,7 @@
       <c r="X559" s="5" t="n"/>
       <c r="Y559" s="5" t="n"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1" s="52">
+    <row r="560" ht="15.75" customHeight="1" s="51">
       <c r="A560" s="29" t="n"/>
       <c r="B560" s="29" t="n"/>
       <c r="C560" s="29" t="n"/>
@@ -16092,7 +15949,7 @@
       <c r="X560" s="5" t="n"/>
       <c r="Y560" s="5" t="n"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1" s="52">
+    <row r="561" ht="15.75" customHeight="1" s="51">
       <c r="A561" s="29" t="n"/>
       <c r="B561" s="29" t="n"/>
       <c r="C561" s="29" t="n"/>
@@ -16119,7 +15976,7 @@
       <c r="X561" s="5" t="n"/>
       <c r="Y561" s="5" t="n"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1" s="52">
+    <row r="562" ht="15.75" customHeight="1" s="51">
       <c r="A562" s="29" t="n"/>
       <c r="B562" s="29" t="n"/>
       <c r="C562" s="29" t="n"/>
@@ -16146,7 +16003,7 @@
       <c r="X562" s="5" t="n"/>
       <c r="Y562" s="5" t="n"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1" s="52">
+    <row r="563" ht="15.75" customHeight="1" s="51">
       <c r="A563" s="29" t="n"/>
       <c r="B563" s="29" t="n"/>
       <c r="C563" s="29" t="n"/>
@@ -16173,7 +16030,7 @@
       <c r="X563" s="5" t="n"/>
       <c r="Y563" s="5" t="n"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1" s="52">
+    <row r="564" ht="15.75" customHeight="1" s="51">
       <c r="A564" s="29" t="n"/>
       <c r="B564" s="29" t="n"/>
       <c r="C564" s="29" t="n"/>
@@ -16200,7 +16057,7 @@
       <c r="X564" s="5" t="n"/>
       <c r="Y564" s="5" t="n"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1" s="52">
+    <row r="565" ht="15.75" customHeight="1" s="51">
       <c r="A565" s="29" t="n"/>
       <c r="B565" s="29" t="n"/>
       <c r="C565" s="29" t="n"/>
@@ -16227,7 +16084,7 @@
       <c r="X565" s="5" t="n"/>
       <c r="Y565" s="5" t="n"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1" s="52">
+    <row r="566" ht="15.75" customHeight="1" s="51">
       <c r="A566" s="29" t="n"/>
       <c r="B566" s="29" t="n"/>
       <c r="C566" s="29" t="n"/>
@@ -16254,7 +16111,7 @@
       <c r="X566" s="5" t="n"/>
       <c r="Y566" s="5" t="n"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1" s="52">
+    <row r="567" ht="15.75" customHeight="1" s="51">
       <c r="A567" s="29" t="n"/>
       <c r="B567" s="29" t="n"/>
       <c r="C567" s="29" t="n"/>
@@ -16281,7 +16138,7 @@
       <c r="X567" s="5" t="n"/>
       <c r="Y567" s="5" t="n"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1" s="52">
+    <row r="568" ht="15.75" customHeight="1" s="51">
       <c r="A568" s="29" t="n"/>
       <c r="B568" s="29" t="n"/>
       <c r="C568" s="29" t="n"/>
@@ -16308,7 +16165,7 @@
       <c r="X568" s="5" t="n"/>
       <c r="Y568" s="5" t="n"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1" s="52">
+    <row r="569" ht="15.75" customHeight="1" s="51">
       <c r="A569" s="29" t="n"/>
       <c r="B569" s="29" t="n"/>
       <c r="C569" s="29" t="n"/>
@@ -16335,7 +16192,7 @@
       <c r="X569" s="5" t="n"/>
       <c r="Y569" s="5" t="n"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1" s="52">
+    <row r="570" ht="15.75" customHeight="1" s="51">
       <c r="A570" s="29" t="n"/>
       <c r="B570" s="29" t="n"/>
       <c r="C570" s="29" t="n"/>
@@ -16362,7 +16219,7 @@
       <c r="X570" s="5" t="n"/>
       <c r="Y570" s="5" t="n"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1" s="52">
+    <row r="571" ht="15.75" customHeight="1" s="51">
       <c r="A571" s="29" t="n"/>
       <c r="B571" s="29" t="n"/>
       <c r="C571" s="29" t="n"/>
@@ -16389,7 +16246,7 @@
       <c r="X571" s="5" t="n"/>
       <c r="Y571" s="5" t="n"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1" s="52">
+    <row r="572" ht="15.75" customHeight="1" s="51">
       <c r="A572" s="29" t="n"/>
       <c r="B572" s="29" t="n"/>
       <c r="C572" s="29" t="n"/>
@@ -16416,7 +16273,7 @@
       <c r="X572" s="5" t="n"/>
       <c r="Y572" s="5" t="n"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1" s="52">
+    <row r="573" ht="15.75" customHeight="1" s="51">
       <c r="A573" s="29" t="n"/>
       <c r="B573" s="29" t="n"/>
       <c r="C573" s="29" t="n"/>
@@ -16443,7 +16300,7 @@
       <c r="X573" s="5" t="n"/>
       <c r="Y573" s="5" t="n"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1" s="52">
+    <row r="574" ht="15.75" customHeight="1" s="51">
       <c r="A574" s="29" t="n"/>
       <c r="B574" s="29" t="n"/>
       <c r="C574" s="29" t="n"/>
@@ -16470,7 +16327,7 @@
       <c r="X574" s="5" t="n"/>
       <c r="Y574" s="5" t="n"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1" s="52">
+    <row r="575" ht="15.75" customHeight="1" s="51">
       <c r="A575" s="29" t="n"/>
       <c r="B575" s="29" t="n"/>
       <c r="C575" s="29" t="n"/>
@@ -16497,7 +16354,7 @@
       <c r="X575" s="5" t="n"/>
       <c r="Y575" s="5" t="n"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1" s="52">
+    <row r="576" ht="15.75" customHeight="1" s="51">
       <c r="A576" s="29" t="n"/>
       <c r="B576" s="29" t="n"/>
       <c r="C576" s="29" t="n"/>
@@ -16524,7 +16381,7 @@
       <c r="X576" s="5" t="n"/>
       <c r="Y576" s="5" t="n"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1" s="52">
+    <row r="577" ht="15.75" customHeight="1" s="51">
       <c r="A577" s="29" t="n"/>
       <c r="B577" s="29" t="n"/>
       <c r="C577" s="29" t="n"/>
@@ -16551,7 +16408,7 @@
       <c r="X577" s="5" t="n"/>
       <c r="Y577" s="5" t="n"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1" s="52">
+    <row r="578" ht="15.75" customHeight="1" s="51">
       <c r="A578" s="29" t="n"/>
       <c r="B578" s="29" t="n"/>
       <c r="C578" s="29" t="n"/>
@@ -16578,7 +16435,7 @@
       <c r="X578" s="5" t="n"/>
       <c r="Y578" s="5" t="n"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1" s="52">
+    <row r="579" ht="15.75" customHeight="1" s="51">
       <c r="A579" s="29" t="n"/>
       <c r="B579" s="29" t="n"/>
       <c r="C579" s="29" t="n"/>
@@ -16605,7 +16462,7 @@
       <c r="X579" s="5" t="n"/>
       <c r="Y579" s="5" t="n"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1" s="52">
+    <row r="580" ht="15.75" customHeight="1" s="51">
       <c r="A580" s="29" t="n"/>
       <c r="B580" s="29" t="n"/>
       <c r="C580" s="29" t="n"/>
@@ -16632,7 +16489,7 @@
       <c r="X580" s="5" t="n"/>
       <c r="Y580" s="5" t="n"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1" s="52">
+    <row r="581" ht="15.75" customHeight="1" s="51">
       <c r="A581" s="29" t="n"/>
       <c r="B581" s="29" t="n"/>
       <c r="C581" s="29" t="n"/>
@@ -16659,7 +16516,7 @@
       <c r="X581" s="5" t="n"/>
       <c r="Y581" s="5" t="n"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1" s="52">
+    <row r="582" ht="15.75" customHeight="1" s="51">
       <c r="A582" s="29" t="n"/>
       <c r="B582" s="29" t="n"/>
       <c r="C582" s="29" t="n"/>
@@ -16686,7 +16543,7 @@
       <c r="X582" s="5" t="n"/>
       <c r="Y582" s="5" t="n"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1" s="52">
+    <row r="583" ht="15.75" customHeight="1" s="51">
       <c r="A583" s="29" t="n"/>
       <c r="B583" s="29" t="n"/>
       <c r="C583" s="29" t="n"/>
@@ -16713,7 +16570,7 @@
       <c r="X583" s="5" t="n"/>
       <c r="Y583" s="5" t="n"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1" s="52">
+    <row r="584" ht="15.75" customHeight="1" s="51">
       <c r="A584" s="29" t="n"/>
       <c r="B584" s="29" t="n"/>
       <c r="C584" s="29" t="n"/>
@@ -16740,7 +16597,7 @@
       <c r="X584" s="5" t="n"/>
       <c r="Y584" s="5" t="n"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1" s="52">
+    <row r="585" ht="15.75" customHeight="1" s="51">
       <c r="A585" s="29" t="n"/>
       <c r="B585" s="29" t="n"/>
       <c r="C585" s="29" t="n"/>
@@ -16767,7 +16624,7 @@
       <c r="X585" s="5" t="n"/>
       <c r="Y585" s="5" t="n"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1" s="52">
+    <row r="586" ht="15.75" customHeight="1" s="51">
       <c r="A586" s="29" t="n"/>
       <c r="B586" s="29" t="n"/>
       <c r="C586" s="29" t="n"/>
@@ -16794,7 +16651,7 @@
       <c r="X586" s="5" t="n"/>
       <c r="Y586" s="5" t="n"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1" s="52">
+    <row r="587" ht="15.75" customHeight="1" s="51">
       <c r="A587" s="29" t="n"/>
       <c r="B587" s="29" t="n"/>
       <c r="C587" s="29" t="n"/>
@@ -16821,7 +16678,7 @@
       <c r="X587" s="5" t="n"/>
       <c r="Y587" s="5" t="n"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1" s="52">
+    <row r="588" ht="15.75" customHeight="1" s="51">
       <c r="A588" s="29" t="n"/>
       <c r="B588" s="29" t="n"/>
       <c r="C588" s="29" t="n"/>
@@ -16848,7 +16705,7 @@
       <c r="X588" s="5" t="n"/>
       <c r="Y588" s="5" t="n"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1" s="52">
+    <row r="589" ht="15.75" customHeight="1" s="51">
       <c r="A589" s="29" t="n"/>
       <c r="B589" s="29" t="n"/>
       <c r="C589" s="29" t="n"/>
@@ -16875,7 +16732,7 @@
       <c r="X589" s="5" t="n"/>
       <c r="Y589" s="5" t="n"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1" s="52">
+    <row r="590" ht="15.75" customHeight="1" s="51">
       <c r="A590" s="29" t="n"/>
       <c r="B590" s="29" t="n"/>
       <c r="C590" s="29" t="n"/>
@@ -16902,7 +16759,7 @@
       <c r="X590" s="5" t="n"/>
       <c r="Y590" s="5" t="n"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1" s="52">
+    <row r="591" ht="15.75" customHeight="1" s="51">
       <c r="A591" s="29" t="n"/>
       <c r="B591" s="29" t="n"/>
       <c r="C591" s="29" t="n"/>
@@ -16929,7 +16786,7 @@
       <c r="X591" s="5" t="n"/>
       <c r="Y591" s="5" t="n"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1" s="52">
+    <row r="592" ht="15.75" customHeight="1" s="51">
       <c r="A592" s="29" t="n"/>
       <c r="B592" s="29" t="n"/>
       <c r="C592" s="29" t="n"/>
@@ -16956,7 +16813,7 @@
       <c r="X592" s="5" t="n"/>
       <c r="Y592" s="5" t="n"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1" s="52">
+    <row r="593" ht="15.75" customHeight="1" s="51">
       <c r="A593" s="29" t="n"/>
       <c r="B593" s="29" t="n"/>
       <c r="C593" s="29" t="n"/>
@@ -16983,7 +16840,7 @@
       <c r="X593" s="5" t="n"/>
       <c r="Y593" s="5" t="n"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1" s="52">
+    <row r="594" ht="15.75" customHeight="1" s="51">
       <c r="A594" s="29" t="n"/>
       <c r="B594" s="29" t="n"/>
       <c r="C594" s="29" t="n"/>
@@ -17010,7 +16867,7 @@
       <c r="X594" s="5" t="n"/>
       <c r="Y594" s="5" t="n"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1" s="52">
+    <row r="595" ht="15.75" customHeight="1" s="51">
       <c r="A595" s="29" t="n"/>
       <c r="B595" s="29" t="n"/>
       <c r="C595" s="29" t="n"/>
@@ -17037,7 +16894,7 @@
       <c r="X595" s="5" t="n"/>
       <c r="Y595" s="5" t="n"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1" s="52">
+    <row r="596" ht="15.75" customHeight="1" s="51">
       <c r="A596" s="29" t="n"/>
       <c r="B596" s="29" t="n"/>
       <c r="C596" s="29" t="n"/>
@@ -17064,7 +16921,7 @@
       <c r="X596" s="5" t="n"/>
       <c r="Y596" s="5" t="n"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1" s="52">
+    <row r="597" ht="15.75" customHeight="1" s="51">
       <c r="A597" s="29" t="n"/>
       <c r="B597" s="29" t="n"/>
       <c r="C597" s="29" t="n"/>
@@ -17091,7 +16948,7 @@
       <c r="X597" s="5" t="n"/>
       <c r="Y597" s="5" t="n"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1" s="52">
+    <row r="598" ht="15.75" customHeight="1" s="51">
       <c r="A598" s="29" t="n"/>
       <c r="B598" s="29" t="n"/>
       <c r="C598" s="29" t="n"/>
@@ -17118,7 +16975,7 @@
       <c r="X598" s="5" t="n"/>
       <c r="Y598" s="5" t="n"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1" s="52">
+    <row r="599" ht="15.75" customHeight="1" s="51">
       <c r="A599" s="29" t="n"/>
       <c r="B599" s="29" t="n"/>
       <c r="C599" s="29" t="n"/>
@@ -17145,7 +17002,7 @@
       <c r="X599" s="5" t="n"/>
       <c r="Y599" s="5" t="n"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1" s="52">
+    <row r="600" ht="15.75" customHeight="1" s="51">
       <c r="A600" s="29" t="n"/>
       <c r="B600" s="29" t="n"/>
       <c r="C600" s="29" t="n"/>
@@ -17172,7 +17029,7 @@
       <c r="X600" s="5" t="n"/>
       <c r="Y600" s="5" t="n"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1" s="52">
+    <row r="601" ht="15.75" customHeight="1" s="51">
       <c r="A601" s="29" t="n"/>
       <c r="B601" s="29" t="n"/>
       <c r="C601" s="29" t="n"/>
@@ -17199,7 +17056,7 @@
       <c r="X601" s="5" t="n"/>
       <c r="Y601" s="5" t="n"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1" s="52">
+    <row r="602" ht="15.75" customHeight="1" s="51">
       <c r="A602" s="29" t="n"/>
       <c r="B602" s="29" t="n"/>
       <c r="C602" s="29" t="n"/>
@@ -17226,7 +17083,7 @@
       <c r="X602" s="5" t="n"/>
       <c r="Y602" s="5" t="n"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1" s="52">
+    <row r="603" ht="15.75" customHeight="1" s="51">
       <c r="A603" s="29" t="n"/>
       <c r="B603" s="29" t="n"/>
       <c r="C603" s="29" t="n"/>
@@ -17253,7 +17110,7 @@
       <c r="X603" s="5" t="n"/>
       <c r="Y603" s="5" t="n"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1" s="52">
+    <row r="604" ht="15.75" customHeight="1" s="51">
       <c r="A604" s="29" t="n"/>
       <c r="B604" s="29" t="n"/>
       <c r="C604" s="29" t="n"/>
@@ -17280,7 +17137,7 @@
       <c r="X604" s="5" t="n"/>
       <c r="Y604" s="5" t="n"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1" s="52">
+    <row r="605" ht="15.75" customHeight="1" s="51">
       <c r="A605" s="29" t="n"/>
       <c r="B605" s="29" t="n"/>
       <c r="C605" s="29" t="n"/>
@@ -17307,7 +17164,7 @@
       <c r="X605" s="5" t="n"/>
       <c r="Y605" s="5" t="n"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1" s="52">
+    <row r="606" ht="15.75" customHeight="1" s="51">
       <c r="A606" s="29" t="n"/>
       <c r="B606" s="29" t="n"/>
       <c r="C606" s="29" t="n"/>
@@ -17334,7 +17191,7 @@
       <c r="X606" s="5" t="n"/>
       <c r="Y606" s="5" t="n"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1" s="52">
+    <row r="607" ht="15.75" customHeight="1" s="51">
       <c r="A607" s="29" t="n"/>
       <c r="B607" s="29" t="n"/>
       <c r="C607" s="29" t="n"/>
@@ -17361,7 +17218,7 @@
       <c r="X607" s="5" t="n"/>
       <c r="Y607" s="5" t="n"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1" s="52">
+    <row r="608" ht="15.75" customHeight="1" s="51">
       <c r="A608" s="29" t="n"/>
       <c r="B608" s="29" t="n"/>
       <c r="C608" s="29" t="n"/>
@@ -17388,7 +17245,7 @@
       <c r="X608" s="5" t="n"/>
       <c r="Y608" s="5" t="n"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1" s="52">
+    <row r="609" ht="15.75" customHeight="1" s="51">
       <c r="A609" s="29" t="n"/>
       <c r="B609" s="29" t="n"/>
       <c r="C609" s="29" t="n"/>
@@ -17415,7 +17272,7 @@
       <c r="X609" s="5" t="n"/>
       <c r="Y609" s="5" t="n"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1" s="52">
+    <row r="610" ht="15.75" customHeight="1" s="51">
       <c r="A610" s="29" t="n"/>
       <c r="B610" s="29" t="n"/>
       <c r="C610" s="29" t="n"/>
@@ -17442,7 +17299,7 @@
       <c r="X610" s="5" t="n"/>
       <c r="Y610" s="5" t="n"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1" s="52">
+    <row r="611" ht="15.75" customHeight="1" s="51">
       <c r="A611" s="29" t="n"/>
       <c r="B611" s="29" t="n"/>
       <c r="C611" s="29" t="n"/>
@@ -17469,7 +17326,7 @@
       <c r="X611" s="5" t="n"/>
       <c r="Y611" s="5" t="n"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1" s="52">
+    <row r="612" ht="15.75" customHeight="1" s="51">
       <c r="A612" s="29" t="n"/>
       <c r="B612" s="29" t="n"/>
       <c r="C612" s="29" t="n"/>
@@ -17496,7 +17353,7 @@
       <c r="X612" s="5" t="n"/>
       <c r="Y612" s="5" t="n"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1" s="52">
+    <row r="613" ht="15.75" customHeight="1" s="51">
       <c r="A613" s="29" t="n"/>
       <c r="B613" s="29" t="n"/>
       <c r="C613" s="29" t="n"/>
@@ -17523,7 +17380,7 @@
       <c r="X613" s="5" t="n"/>
       <c r="Y613" s="5" t="n"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1" s="52">
+    <row r="614" ht="15.75" customHeight="1" s="51">
       <c r="A614" s="29" t="n"/>
       <c r="B614" s="29" t="n"/>
       <c r="C614" s="29" t="n"/>
@@ -17550,7 +17407,7 @@
       <c r="X614" s="5" t="n"/>
       <c r="Y614" s="5" t="n"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1" s="52">
+    <row r="615" ht="15.75" customHeight="1" s="51">
       <c r="A615" s="29" t="n"/>
       <c r="B615" s="29" t="n"/>
       <c r="C615" s="29" t="n"/>
@@ -17577,7 +17434,7 @@
       <c r="X615" s="5" t="n"/>
       <c r="Y615" s="5" t="n"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1" s="52">
+    <row r="616" ht="15.75" customHeight="1" s="51">
       <c r="A616" s="29" t="n"/>
       <c r="B616" s="29" t="n"/>
       <c r="C616" s="29" t="n"/>
@@ -17604,7 +17461,7 @@
       <c r="X616" s="5" t="n"/>
       <c r="Y616" s="5" t="n"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1" s="52">
+    <row r="617" ht="15.75" customHeight="1" s="51">
       <c r="A617" s="29" t="n"/>
       <c r="B617" s="29" t="n"/>
       <c r="C617" s="29" t="n"/>
@@ -17631,7 +17488,7 @@
       <c r="X617" s="5" t="n"/>
       <c r="Y617" s="5" t="n"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1" s="52">
+    <row r="618" ht="15.75" customHeight="1" s="51">
       <c r="A618" s="29" t="n"/>
       <c r="B618" s="29" t="n"/>
       <c r="C618" s="29" t="n"/>
@@ -17658,7 +17515,7 @@
       <c r="X618" s="5" t="n"/>
       <c r="Y618" s="5" t="n"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1" s="52">
+    <row r="619" ht="15.75" customHeight="1" s="51">
       <c r="A619" s="29" t="n"/>
       <c r="B619" s="29" t="n"/>
       <c r="C619" s="29" t="n"/>
@@ -17685,7 +17542,7 @@
       <c r="X619" s="5" t="n"/>
       <c r="Y619" s="5" t="n"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1" s="52">
+    <row r="620" ht="15.75" customHeight="1" s="51">
       <c r="A620" s="29" t="n"/>
       <c r="B620" s="29" t="n"/>
       <c r="C620" s="29" t="n"/>
@@ -17712,7 +17569,7 @@
       <c r="X620" s="5" t="n"/>
       <c r="Y620" s="5" t="n"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1" s="52">
+    <row r="621" ht="15.75" customHeight="1" s="51">
       <c r="A621" s="29" t="n"/>
       <c r="B621" s="29" t="n"/>
       <c r="C621" s="29" t="n"/>
@@ -17739,7 +17596,7 @@
       <c r="X621" s="5" t="n"/>
       <c r="Y621" s="5" t="n"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1" s="52">
+    <row r="622" ht="15.75" customHeight="1" s="51">
       <c r="A622" s="29" t="n"/>
       <c r="B622" s="29" t="n"/>
       <c r="C622" s="29" t="n"/>
@@ -17766,7 +17623,7 @@
       <c r="X622" s="5" t="n"/>
       <c r="Y622" s="5" t="n"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1" s="52">
+    <row r="623" ht="15.75" customHeight="1" s="51">
       <c r="A623" s="29" t="n"/>
       <c r="B623" s="29" t="n"/>
       <c r="C623" s="29" t="n"/>
@@ -17793,7 +17650,7 @@
       <c r="X623" s="5" t="n"/>
       <c r="Y623" s="5" t="n"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1" s="52">
+    <row r="624" ht="15.75" customHeight="1" s="51">
       <c r="A624" s="29" t="n"/>
       <c r="B624" s="29" t="n"/>
       <c r="C624" s="29" t="n"/>
@@ -17820,7 +17677,7 @@
       <c r="X624" s="5" t="n"/>
       <c r="Y624" s="5" t="n"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1" s="52">
+    <row r="625" ht="15.75" customHeight="1" s="51">
       <c r="A625" s="29" t="n"/>
       <c r="B625" s="29" t="n"/>
       <c r="C625" s="29" t="n"/>
@@ -17847,7 +17704,7 @@
       <c r="X625" s="5" t="n"/>
       <c r="Y625" s="5" t="n"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1" s="52">
+    <row r="626" ht="15.75" customHeight="1" s="51">
       <c r="A626" s="29" t="n"/>
       <c r="B626" s="29" t="n"/>
       <c r="C626" s="29" t="n"/>
@@ -17874,7 +17731,7 @@
       <c r="X626" s="5" t="n"/>
       <c r="Y626" s="5" t="n"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1" s="52">
+    <row r="627" ht="15.75" customHeight="1" s="51">
       <c r="A627" s="29" t="n"/>
       <c r="B627" s="29" t="n"/>
       <c r="C627" s="29" t="n"/>
@@ -17901,7 +17758,7 @@
       <c r="X627" s="5" t="n"/>
       <c r="Y627" s="5" t="n"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1" s="52">
+    <row r="628" ht="15.75" customHeight="1" s="51">
       <c r="A628" s="29" t="n"/>
       <c r="B628" s="29" t="n"/>
       <c r="C628" s="29" t="n"/>
@@ -17928,7 +17785,7 @@
       <c r="X628" s="5" t="n"/>
       <c r="Y628" s="5" t="n"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1" s="52">
+    <row r="629" ht="15.75" customHeight="1" s="51">
       <c r="A629" s="29" t="n"/>
       <c r="B629" s="29" t="n"/>
       <c r="C629" s="29" t="n"/>
@@ -17955,7 +17812,7 @@
       <c r="X629" s="5" t="n"/>
       <c r="Y629" s="5" t="n"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1" s="52">
+    <row r="630" ht="15.75" customHeight="1" s="51">
       <c r="A630" s="29" t="n"/>
       <c r="B630" s="29" t="n"/>
       <c r="C630" s="29" t="n"/>
@@ -17982,7 +17839,7 @@
       <c r="X630" s="5" t="n"/>
       <c r="Y630" s="5" t="n"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1" s="52">
+    <row r="631" ht="15.75" customHeight="1" s="51">
       <c r="A631" s="29" t="n"/>
       <c r="B631" s="29" t="n"/>
       <c r="C631" s="29" t="n"/>
@@ -18009,7 +17866,7 @@
       <c r="X631" s="5" t="n"/>
       <c r="Y631" s="5" t="n"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1" s="52">
+    <row r="632" ht="15.75" customHeight="1" s="51">
       <c r="A632" s="29" t="n"/>
       <c r="B632" s="29" t="n"/>
       <c r="C632" s="29" t="n"/>
@@ -18036,7 +17893,7 @@
       <c r="X632" s="5" t="n"/>
       <c r="Y632" s="5" t="n"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1" s="52">
+    <row r="633" ht="15.75" customHeight="1" s="51">
       <c r="A633" s="29" t="n"/>
       <c r="B633" s="29" t="n"/>
       <c r="C633" s="29" t="n"/>
@@ -18063,7 +17920,7 @@
       <c r="X633" s="5" t="n"/>
       <c r="Y633" s="5" t="n"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1" s="52">
+    <row r="634" ht="15.75" customHeight="1" s="51">
       <c r="A634" s="29" t="n"/>
       <c r="B634" s="29" t="n"/>
       <c r="C634" s="29" t="n"/>
@@ -18090,7 +17947,7 @@
       <c r="X634" s="5" t="n"/>
       <c r="Y634" s="5" t="n"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1" s="52">
+    <row r="635" ht="15.75" customHeight="1" s="51">
       <c r="A635" s="29" t="n"/>
       <c r="B635" s="29" t="n"/>
       <c r="C635" s="29" t="n"/>
@@ -18117,7 +17974,7 @@
       <c r="X635" s="5" t="n"/>
       <c r="Y635" s="5" t="n"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1" s="52">
+    <row r="636" ht="15.75" customHeight="1" s="51">
       <c r="A636" s="29" t="n"/>
       <c r="B636" s="29" t="n"/>
       <c r="C636" s="29" t="n"/>
@@ -18144,7 +18001,7 @@
       <c r="X636" s="5" t="n"/>
       <c r="Y636" s="5" t="n"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1" s="52">
+    <row r="637" ht="15.75" customHeight="1" s="51">
       <c r="A637" s="29" t="n"/>
       <c r="B637" s="29" t="n"/>
       <c r="C637" s="29" t="n"/>
@@ -18171,7 +18028,7 @@
       <c r="X637" s="5" t="n"/>
       <c r="Y637" s="5" t="n"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1" s="52">
+    <row r="638" ht="15.75" customHeight="1" s="51">
       <c r="A638" s="29" t="n"/>
       <c r="B638" s="29" t="n"/>
       <c r="C638" s="29" t="n"/>
@@ -18198,7 +18055,7 @@
       <c r="X638" s="5" t="n"/>
       <c r="Y638" s="5" t="n"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1" s="52">
+    <row r="639" ht="15.75" customHeight="1" s="51">
       <c r="A639" s="29" t="n"/>
       <c r="B639" s="29" t="n"/>
       <c r="C639" s="29" t="n"/>
@@ -18225,7 +18082,7 @@
       <c r="X639" s="5" t="n"/>
       <c r="Y639" s="5" t="n"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1" s="52">
+    <row r="640" ht="15.75" customHeight="1" s="51">
       <c r="A640" s="29" t="n"/>
       <c r="B640" s="29" t="n"/>
       <c r="C640" s="29" t="n"/>
@@ -18252,7 +18109,7 @@
       <c r="X640" s="5" t="n"/>
       <c r="Y640" s="5" t="n"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1" s="52">
+    <row r="641" ht="15.75" customHeight="1" s="51">
       <c r="A641" s="29" t="n"/>
       <c r="B641" s="29" t="n"/>
       <c r="C641" s="29" t="n"/>
@@ -18279,7 +18136,7 @@
       <c r="X641" s="5" t="n"/>
       <c r="Y641" s="5" t="n"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1" s="52">
+    <row r="642" ht="15.75" customHeight="1" s="51">
       <c r="A642" s="29" t="n"/>
       <c r="B642" s="29" t="n"/>
       <c r="C642" s="29" t="n"/>
@@ -18306,7 +18163,7 @@
       <c r="X642" s="5" t="n"/>
       <c r="Y642" s="5" t="n"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1" s="52">
+    <row r="643" ht="15.75" customHeight="1" s="51">
       <c r="A643" s="29" t="n"/>
       <c r="B643" s="29" t="n"/>
       <c r="C643" s="29" t="n"/>
@@ -18333,7 +18190,7 @@
       <c r="X643" s="5" t="n"/>
       <c r="Y643" s="5" t="n"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1" s="52">
+    <row r="644" ht="15.75" customHeight="1" s="51">
       <c r="A644" s="29" t="n"/>
       <c r="B644" s="29" t="n"/>
       <c r="C644" s="29" t="n"/>
@@ -18360,7 +18217,7 @@
       <c r="X644" s="5" t="n"/>
       <c r="Y644" s="5" t="n"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1" s="52">
+    <row r="645" ht="15.75" customHeight="1" s="51">
       <c r="A645" s="29" t="n"/>
       <c r="B645" s="29" t="n"/>
       <c r="C645" s="29" t="n"/>
@@ -18387,7 +18244,7 @@
       <c r="X645" s="5" t="n"/>
       <c r="Y645" s="5" t="n"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1" s="52">
+    <row r="646" ht="15.75" customHeight="1" s="51">
       <c r="A646" s="29" t="n"/>
       <c r="B646" s="29" t="n"/>
       <c r="C646" s="29" t="n"/>
@@ -18414,7 +18271,7 @@
       <c r="X646" s="5" t="n"/>
       <c r="Y646" s="5" t="n"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1" s="52">
+    <row r="647" ht="15.75" customHeight="1" s="51">
       <c r="A647" s="29" t="n"/>
       <c r="B647" s="29" t="n"/>
       <c r="C647" s="29" t="n"/>
@@ -18441,7 +18298,7 @@
       <c r="X647" s="5" t="n"/>
       <c r="Y647" s="5" t="n"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1" s="52">
+    <row r="648" ht="15.75" customHeight="1" s="51">
       <c r="A648" s="29" t="n"/>
       <c r="B648" s="29" t="n"/>
       <c r="C648" s="29" t="n"/>
@@ -18468,7 +18325,7 @@
       <c r="X648" s="5" t="n"/>
       <c r="Y648" s="5" t="n"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1" s="52">
+    <row r="649" ht="15.75" customHeight="1" s="51">
       <c r="A649" s="29" t="n"/>
       <c r="B649" s="29" t="n"/>
       <c r="C649" s="29" t="n"/>
@@ -18495,7 +18352,7 @@
       <c r="X649" s="5" t="n"/>
       <c r="Y649" s="5" t="n"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1" s="52">
+    <row r="650" ht="15.75" customHeight="1" s="51">
       <c r="A650" s="29" t="n"/>
       <c r="B650" s="29" t="n"/>
       <c r="C650" s="29" t="n"/>
@@ -18522,7 +18379,7 @@
       <c r="X650" s="5" t="n"/>
       <c r="Y650" s="5" t="n"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1" s="52">
+    <row r="651" ht="15.75" customHeight="1" s="51">
       <c r="A651" s="29" t="n"/>
       <c r="B651" s="29" t="n"/>
       <c r="C651" s="29" t="n"/>
@@ -18549,7 +18406,7 @@
       <c r="X651" s="5" t="n"/>
       <c r="Y651" s="5" t="n"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1" s="52">
+    <row r="652" ht="15.75" customHeight="1" s="51">
       <c r="A652" s="29" t="n"/>
       <c r="B652" s="29" t="n"/>
       <c r="C652" s="29" t="n"/>
@@ -18576,7 +18433,7 @@
       <c r="X652" s="5" t="n"/>
       <c r="Y652" s="5" t="n"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1" s="52">
+    <row r="653" ht="15.75" customHeight="1" s="51">
       <c r="A653" s="29" t="n"/>
       <c r="B653" s="29" t="n"/>
       <c r="C653" s="29" t="n"/>
@@ -18603,7 +18460,7 @@
       <c r="X653" s="5" t="n"/>
       <c r="Y653" s="5" t="n"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1" s="52">
+    <row r="654" ht="15.75" customHeight="1" s="51">
       <c r="A654" s="29" t="n"/>
       <c r="B654" s="29" t="n"/>
       <c r="C654" s="29" t="n"/>
@@ -18630,7 +18487,7 @@
       <c r="X654" s="5" t="n"/>
       <c r="Y654" s="5" t="n"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1" s="52">
+    <row r="655" ht="15.75" customHeight="1" s="51">
       <c r="A655" s="29" t="n"/>
       <c r="B655" s="29" t="n"/>
       <c r="C655" s="29" t="n"/>
@@ -18657,7 +18514,7 @@
       <c r="X655" s="5" t="n"/>
       <c r="Y655" s="5" t="n"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1" s="52">
+    <row r="656" ht="15.75" customHeight="1" s="51">
       <c r="A656" s="29" t="n"/>
       <c r="B656" s="29" t="n"/>
       <c r="C656" s="29" t="n"/>
@@ -18684,7 +18541,7 @@
       <c r="X656" s="5" t="n"/>
       <c r="Y656" s="5" t="n"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1" s="52">
+    <row r="657" ht="15.75" customHeight="1" s="51">
       <c r="A657" s="29" t="n"/>
       <c r="B657" s="29" t="n"/>
       <c r="C657" s="29" t="n"/>
@@ -18711,7 +18568,7 @@
       <c r="X657" s="5" t="n"/>
       <c r="Y657" s="5" t="n"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1" s="52">
+    <row r="658" ht="15.75" customHeight="1" s="51">
       <c r="A658" s="29" t="n"/>
       <c r="B658" s="29" t="n"/>
       <c r="C658" s="29" t="n"/>
@@ -18738,7 +18595,7 @@
       <c r="X658" s="5" t="n"/>
       <c r="Y658" s="5" t="n"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1" s="52">
+    <row r="659" ht="15.75" customHeight="1" s="51">
       <c r="A659" s="29" t="n"/>
       <c r="B659" s="29" t="n"/>
       <c r="C659" s="29" t="n"/>
@@ -18765,7 +18622,7 @@
       <c r="X659" s="5" t="n"/>
       <c r="Y659" s="5" t="n"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1" s="52">
+    <row r="660" ht="15.75" customHeight="1" s="51">
       <c r="A660" s="29" t="n"/>
       <c r="B660" s="29" t="n"/>
       <c r="C660" s="29" t="n"/>
@@ -18792,7 +18649,7 @@
       <c r="X660" s="5" t="n"/>
       <c r="Y660" s="5" t="n"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1" s="52">
+    <row r="661" ht="15.75" customHeight="1" s="51">
       <c r="A661" s="29" t="n"/>
       <c r="B661" s="29" t="n"/>
       <c r="C661" s="29" t="n"/>
@@ -18819,7 +18676,7 @@
       <c r="X661" s="5" t="n"/>
       <c r="Y661" s="5" t="n"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1" s="52">
+    <row r="662" ht="15.75" customHeight="1" s="51">
       <c r="A662" s="29" t="n"/>
       <c r="B662" s="29" t="n"/>
       <c r="C662" s="29" t="n"/>
@@ -18846,7 +18703,7 @@
       <c r="X662" s="5" t="n"/>
       <c r="Y662" s="5" t="n"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1" s="52">
+    <row r="663" ht="15.75" customHeight="1" s="51">
       <c r="A663" s="29" t="n"/>
       <c r="B663" s="29" t="n"/>
       <c r="C663" s="29" t="n"/>
@@ -18873,7 +18730,7 @@
       <c r="X663" s="5" t="n"/>
       <c r="Y663" s="5" t="n"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1" s="52">
+    <row r="664" ht="15.75" customHeight="1" s="51">
       <c r="A664" s="29" t="n"/>
       <c r="B664" s="29" t="n"/>
       <c r="C664" s="29" t="n"/>
@@ -18900,7 +18757,7 @@
       <c r="X664" s="5" t="n"/>
       <c r="Y664" s="5" t="n"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1" s="52">
+    <row r="665" ht="15.75" customHeight="1" s="51">
       <c r="A665" s="29" t="n"/>
       <c r="B665" s="29" t="n"/>
       <c r="C665" s="29" t="n"/>
@@ -18927,7 +18784,7 @@
       <c r="X665" s="5" t="n"/>
       <c r="Y665" s="5" t="n"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1" s="52">
+    <row r="666" ht="15.75" customHeight="1" s="51">
       <c r="A666" s="29" t="n"/>
       <c r="B666" s="29" t="n"/>
       <c r="C666" s="29" t="n"/>
@@ -18954,7 +18811,7 @@
       <c r="X666" s="5" t="n"/>
       <c r="Y666" s="5" t="n"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1" s="52">
+    <row r="667" ht="15.75" customHeight="1" s="51">
       <c r="A667" s="29" t="n"/>
       <c r="B667" s="29" t="n"/>
       <c r="C667" s="29" t="n"/>
@@ -18981,7 +18838,7 @@
       <c r="X667" s="5" t="n"/>
       <c r="Y667" s="5" t="n"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1" s="52">
+    <row r="668" ht="15.75" customHeight="1" s="51">
       <c r="A668" s="29" t="n"/>
       <c r="B668" s="29" t="n"/>
       <c r="C668" s="29" t="n"/>
@@ -19008,7 +18865,7 @@
       <c r="X668" s="5" t="n"/>
       <c r="Y668" s="5" t="n"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1" s="52">
+    <row r="669" ht="15.75" customHeight="1" s="51">
       <c r="A669" s="29" t="n"/>
       <c r="B669" s="29" t="n"/>
       <c r="C669" s="29" t="n"/>
@@ -19035,7 +18892,7 @@
       <c r="X669" s="5" t="n"/>
       <c r="Y669" s="5" t="n"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1" s="52">
+    <row r="670" ht="15.75" customHeight="1" s="51">
       <c r="A670" s="29" t="n"/>
       <c r="B670" s="29" t="n"/>
       <c r="C670" s="29" t="n"/>
@@ -19062,7 +18919,7 @@
       <c r="X670" s="5" t="n"/>
       <c r="Y670" s="5" t="n"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1" s="52">
+    <row r="671" ht="15.75" customHeight="1" s="51">
       <c r="A671" s="29" t="n"/>
       <c r="B671" s="29" t="n"/>
       <c r="C671" s="29" t="n"/>
@@ -19089,7 +18946,7 @@
       <c r="X671" s="5" t="n"/>
       <c r="Y671" s="5" t="n"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1" s="52">
+    <row r="672" ht="15.75" customHeight="1" s="51">
       <c r="A672" s="29" t="n"/>
       <c r="B672" s="29" t="n"/>
       <c r="C672" s="29" t="n"/>
@@ -19116,7 +18973,7 @@
       <c r="X672" s="5" t="n"/>
       <c r="Y672" s="5" t="n"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1" s="52">
+    <row r="673" ht="15.75" customHeight="1" s="51">
       <c r="A673" s="29" t="n"/>
       <c r="B673" s="29" t="n"/>
       <c r="C673" s="29" t="n"/>
@@ -19143,7 +19000,7 @@
       <c r="X673" s="5" t="n"/>
       <c r="Y673" s="5" t="n"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1" s="52">
+    <row r="674" ht="15.75" customHeight="1" s="51">
       <c r="A674" s="29" t="n"/>
       <c r="B674" s="29" t="n"/>
       <c r="C674" s="29" t="n"/>
@@ -19170,7 +19027,7 @@
       <c r="X674" s="5" t="n"/>
       <c r="Y674" s="5" t="n"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1" s="52">
+    <row r="675" ht="15.75" customHeight="1" s="51">
       <c r="A675" s="29" t="n"/>
       <c r="B675" s="29" t="n"/>
       <c r="C675" s="29" t="n"/>
@@ -19197,7 +19054,7 @@
       <c r="X675" s="5" t="n"/>
       <c r="Y675" s="5" t="n"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1" s="52">
+    <row r="676" ht="15.75" customHeight="1" s="51">
       <c r="A676" s="29" t="n"/>
       <c r="B676" s="29" t="n"/>
       <c r="C676" s="29" t="n"/>
@@ -19224,7 +19081,7 @@
       <c r="X676" s="5" t="n"/>
       <c r="Y676" s="5" t="n"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1" s="52">
+    <row r="677" ht="15.75" customHeight="1" s="51">
       <c r="A677" s="29" t="n"/>
       <c r="B677" s="29" t="n"/>
       <c r="C677" s="29" t="n"/>
@@ -19251,7 +19108,7 @@
       <c r="X677" s="5" t="n"/>
       <c r="Y677" s="5" t="n"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1" s="52">
+    <row r="678" ht="15.75" customHeight="1" s="51">
       <c r="A678" s="29" t="n"/>
       <c r="B678" s="29" t="n"/>
       <c r="C678" s="29" t="n"/>
@@ -19278,7 +19135,7 @@
       <c r="X678" s="5" t="n"/>
       <c r="Y678" s="5" t="n"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1" s="52">
+    <row r="679" ht="15.75" customHeight="1" s="51">
       <c r="A679" s="29" t="n"/>
       <c r="B679" s="29" t="n"/>
       <c r="C679" s="29" t="n"/>
@@ -19305,7 +19162,7 @@
       <c r="X679" s="5" t="n"/>
       <c r="Y679" s="5" t="n"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1" s="52">
+    <row r="680" ht="15.75" customHeight="1" s="51">
       <c r="A680" s="29" t="n"/>
       <c r="B680" s="29" t="n"/>
       <c r="C680" s="29" t="n"/>
@@ -19332,7 +19189,7 @@
       <c r="X680" s="5" t="n"/>
       <c r="Y680" s="5" t="n"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1" s="52">
+    <row r="681" ht="15.75" customHeight="1" s="51">
       <c r="A681" s="29" t="n"/>
       <c r="B681" s="29" t="n"/>
       <c r="C681" s="29" t="n"/>
@@ -19359,7 +19216,7 @@
       <c r="X681" s="5" t="n"/>
       <c r="Y681" s="5" t="n"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1" s="52">
+    <row r="682" ht="15.75" customHeight="1" s="51">
       <c r="A682" s="29" t="n"/>
       <c r="B682" s="29" t="n"/>
       <c r="C682" s="29" t="n"/>
@@ -19386,7 +19243,7 @@
       <c r="X682" s="5" t="n"/>
       <c r="Y682" s="5" t="n"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1" s="52">
+    <row r="683" ht="15.75" customHeight="1" s="51">
       <c r="A683" s="29" t="n"/>
       <c r="B683" s="29" t="n"/>
       <c r="C683" s="29" t="n"/>
@@ -19413,7 +19270,7 @@
       <c r="X683" s="5" t="n"/>
       <c r="Y683" s="5" t="n"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1" s="52">
+    <row r="684" ht="15.75" customHeight="1" s="51">
       <c r="A684" s="29" t="n"/>
       <c r="B684" s="29" t="n"/>
       <c r="C684" s="29" t="n"/>
@@ -19440,7 +19297,7 @@
       <c r="X684" s="5" t="n"/>
       <c r="Y684" s="5" t="n"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1" s="52">
+    <row r="685" ht="15.75" customHeight="1" s="51">
       <c r="A685" s="29" t="n"/>
       <c r="B685" s="29" t="n"/>
       <c r="C685" s="29" t="n"/>
@@ -19467,7 +19324,7 @@
       <c r="X685" s="5" t="n"/>
       <c r="Y685" s="5" t="n"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1" s="52">
+    <row r="686" ht="15.75" customHeight="1" s="51">
       <c r="A686" s="29" t="n"/>
       <c r="B686" s="29" t="n"/>
       <c r="C686" s="29" t="n"/>
@@ -19494,7 +19351,7 @@
       <c r="X686" s="5" t="n"/>
       <c r="Y686" s="5" t="n"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1" s="52">
+    <row r="687" ht="15.75" customHeight="1" s="51">
       <c r="A687" s="29" t="n"/>
       <c r="B687" s="29" t="n"/>
       <c r="C687" s="29" t="n"/>
@@ -19521,7 +19378,7 @@
       <c r="X687" s="5" t="n"/>
       <c r="Y687" s="5" t="n"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1" s="52">
+    <row r="688" ht="15.75" customHeight="1" s="51">
       <c r="A688" s="29" t="n"/>
       <c r="B688" s="29" t="n"/>
       <c r="C688" s="29" t="n"/>
@@ -19548,7 +19405,7 @@
       <c r="X688" s="5" t="n"/>
       <c r="Y688" s="5" t="n"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1" s="52">
+    <row r="689" ht="15.75" customHeight="1" s="51">
       <c r="A689" s="29" t="n"/>
       <c r="B689" s="29" t="n"/>
       <c r="C689" s="29" t="n"/>
@@ -19575,7 +19432,7 @@
       <c r="X689" s="5" t="n"/>
       <c r="Y689" s="5" t="n"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1" s="52">
+    <row r="690" ht="15.75" customHeight="1" s="51">
       <c r="A690" s="29" t="n"/>
       <c r="B690" s="29" t="n"/>
       <c r="C690" s="29" t="n"/>
@@ -19602,7 +19459,7 @@
       <c r="X690" s="5" t="n"/>
       <c r="Y690" s="5" t="n"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1" s="52">
+    <row r="691" ht="15.75" customHeight="1" s="51">
       <c r="A691" s="29" t="n"/>
       <c r="B691" s="29" t="n"/>
       <c r="C691" s="29" t="n"/>
@@ -19629,7 +19486,7 @@
       <c r="X691" s="5" t="n"/>
       <c r="Y691" s="5" t="n"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1" s="52">
+    <row r="692" ht="15.75" customHeight="1" s="51">
       <c r="A692" s="29" t="n"/>
       <c r="B692" s="29" t="n"/>
       <c r="C692" s="29" t="n"/>
@@ -19656,7 +19513,7 @@
       <c r="X692" s="5" t="n"/>
       <c r="Y692" s="5" t="n"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1" s="52">
+    <row r="693" ht="15.75" customHeight="1" s="51">
       <c r="A693" s="29" t="n"/>
       <c r="B693" s="29" t="n"/>
       <c r="C693" s="29" t="n"/>
@@ -19683,7 +19540,7 @@
       <c r="X693" s="5" t="n"/>
       <c r="Y693" s="5" t="n"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1" s="52">
+    <row r="694" ht="15.75" customHeight="1" s="51">
       <c r="A694" s="29" t="n"/>
       <c r="B694" s="29" t="n"/>
       <c r="C694" s="29" t="n"/>
@@ -19710,7 +19567,7 @@
       <c r="X694" s="5" t="n"/>
       <c r="Y694" s="5" t="n"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1" s="52">
+    <row r="695" ht="15.75" customHeight="1" s="51">
       <c r="A695" s="29" t="n"/>
       <c r="B695" s="29" t="n"/>
       <c r="C695" s="29" t="n"/>
@@ -19737,7 +19594,7 @@
       <c r="X695" s="5" t="n"/>
       <c r="Y695" s="5" t="n"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1" s="52">
+    <row r="696" ht="15.75" customHeight="1" s="51">
       <c r="A696" s="29" t="n"/>
       <c r="B696" s="29" t="n"/>
       <c r="C696" s="29" t="n"/>
@@ -19764,7 +19621,7 @@
       <c r="X696" s="5" t="n"/>
       <c r="Y696" s="5" t="n"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1" s="52">
+    <row r="697" ht="15.75" customHeight="1" s="51">
       <c r="A697" s="29" t="n"/>
       <c r="B697" s="29" t="n"/>
       <c r="C697" s="29" t="n"/>
@@ -19791,7 +19648,7 @@
       <c r="X697" s="5" t="n"/>
       <c r="Y697" s="5" t="n"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1" s="52">
+    <row r="698" ht="15.75" customHeight="1" s="51">
       <c r="A698" s="29" t="n"/>
       <c r="B698" s="29" t="n"/>
       <c r="C698" s="29" t="n"/>
@@ -19818,7 +19675,7 @@
       <c r="X698" s="5" t="n"/>
       <c r="Y698" s="5" t="n"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1" s="52">
+    <row r="699" ht="15.75" customHeight="1" s="51">
       <c r="A699" s="29" t="n"/>
       <c r="B699" s="29" t="n"/>
       <c r="C699" s="29" t="n"/>
@@ -19845,7 +19702,7 @@
       <c r="X699" s="5" t="n"/>
       <c r="Y699" s="5" t="n"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1" s="52">
+    <row r="700" ht="15.75" customHeight="1" s="51">
       <c r="A700" s="29" t="n"/>
       <c r="B700" s="29" t="n"/>
       <c r="C700" s="29" t="n"/>
@@ -19872,7 +19729,7 @@
       <c r="X700" s="5" t="n"/>
       <c r="Y700" s="5" t="n"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1" s="52">
+    <row r="701" ht="15.75" customHeight="1" s="51">
       <c r="A701" s="29" t="n"/>
       <c r="B701" s="29" t="n"/>
       <c r="C701" s="29" t="n"/>
@@ -19899,7 +19756,7 @@
       <c r="X701" s="5" t="n"/>
       <c r="Y701" s="5" t="n"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1" s="52">
+    <row r="702" ht="15.75" customHeight="1" s="51">
       <c r="A702" s="29" t="n"/>
       <c r="B702" s="29" t="n"/>
       <c r="C702" s="29" t="n"/>
@@ -19926,7 +19783,7 @@
       <c r="X702" s="5" t="n"/>
       <c r="Y702" s="5" t="n"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1" s="52">
+    <row r="703" ht="15.75" customHeight="1" s="51">
       <c r="A703" s="29" t="n"/>
       <c r="B703" s="29" t="n"/>
       <c r="C703" s="29" t="n"/>
@@ -19953,7 +19810,7 @@
       <c r="X703" s="5" t="n"/>
       <c r="Y703" s="5" t="n"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1" s="52">
+    <row r="704" ht="15.75" customHeight="1" s="51">
       <c r="A704" s="29" t="n"/>
       <c r="B704" s="29" t="n"/>
       <c r="C704" s="29" t="n"/>
@@ -19980,7 +19837,7 @@
       <c r="X704" s="5" t="n"/>
       <c r="Y704" s="5" t="n"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1" s="52">
+    <row r="705" ht="15.75" customHeight="1" s="51">
       <c r="A705" s="29" t="n"/>
       <c r="B705" s="29" t="n"/>
       <c r="C705" s="29" t="n"/>
@@ -20007,7 +19864,7 @@
       <c r="X705" s="5" t="n"/>
       <c r="Y705" s="5" t="n"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1" s="52">
+    <row r="706" ht="15.75" customHeight="1" s="51">
       <c r="A706" s="29" t="n"/>
       <c r="B706" s="29" t="n"/>
       <c r="C706" s="29" t="n"/>
@@ -20034,7 +19891,7 @@
       <c r="X706" s="5" t="n"/>
       <c r="Y706" s="5" t="n"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1" s="52">
+    <row r="707" ht="15.75" customHeight="1" s="51">
       <c r="A707" s="29" t="n"/>
       <c r="B707" s="29" t="n"/>
       <c r="C707" s="29" t="n"/>
@@ -20061,7 +19918,7 @@
       <c r="X707" s="5" t="n"/>
       <c r="Y707" s="5" t="n"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1" s="52">
+    <row r="708" ht="15.75" customHeight="1" s="51">
       <c r="A708" s="29" t="n"/>
       <c r="B708" s="29" t="n"/>
       <c r="C708" s="29" t="n"/>
@@ -20088,7 +19945,7 @@
       <c r="X708" s="5" t="n"/>
       <c r="Y708" s="5" t="n"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1" s="52">
+    <row r="709" ht="15.75" customHeight="1" s="51">
       <c r="A709" s="29" t="n"/>
       <c r="B709" s="29" t="n"/>
       <c r="C709" s="29" t="n"/>
@@ -20115,7 +19972,7 @@
       <c r="X709" s="5" t="n"/>
       <c r="Y709" s="5" t="n"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1" s="52">
+    <row r="710" ht="15.75" customHeight="1" s="51">
       <c r="A710" s="29" t="n"/>
       <c r="B710" s="29" t="n"/>
       <c r="C710" s="29" t="n"/>
@@ -20142,7 +19999,7 @@
       <c r="X710" s="5" t="n"/>
       <c r="Y710" s="5" t="n"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1" s="52">
+    <row r="711" ht="15.75" customHeight="1" s="51">
       <c r="A711" s="29" t="n"/>
       <c r="B711" s="29" t="n"/>
       <c r="C711" s="29" t="n"/>
@@ -20169,7 +20026,7 @@
       <c r="X711" s="5" t="n"/>
       <c r="Y711" s="5" t="n"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1" s="52">
+    <row r="712" ht="15.75" customHeight="1" s="51">
       <c r="A712" s="29" t="n"/>
       <c r="B712" s="29" t="n"/>
       <c r="C712" s="29" t="n"/>
@@ -20196,7 +20053,7 @@
       <c r="X712" s="5" t="n"/>
       <c r="Y712" s="5" t="n"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1" s="52">
+    <row r="713" ht="15.75" customHeight="1" s="51">
       <c r="A713" s="29" t="n"/>
       <c r="B713" s="29" t="n"/>
       <c r="C713" s="29" t="n"/>
@@ -20223,7 +20080,7 @@
       <c r="X713" s="5" t="n"/>
       <c r="Y713" s="5" t="n"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1" s="52">
+    <row r="714" ht="15.75" customHeight="1" s="51">
       <c r="A714" s="29" t="n"/>
       <c r="B714" s="29" t="n"/>
       <c r="C714" s="29" t="n"/>
@@ -20250,7 +20107,7 @@
       <c r="X714" s="5" t="n"/>
       <c r="Y714" s="5" t="n"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1" s="52">
+    <row r="715" ht="15.75" customHeight="1" s="51">
       <c r="A715" s="29" t="n"/>
       <c r="B715" s="29" t="n"/>
       <c r="C715" s="29" t="n"/>
@@ -20277,7 +20134,7 @@
       <c r="X715" s="5" t="n"/>
       <c r="Y715" s="5" t="n"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1" s="52">
+    <row r="716" ht="15.75" customHeight="1" s="51">
       <c r="A716" s="29" t="n"/>
       <c r="B716" s="29" t="n"/>
       <c r="C716" s="29" t="n"/>
@@ -20304,7 +20161,7 @@
       <c r="X716" s="5" t="n"/>
       <c r="Y716" s="5" t="n"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1" s="52">
+    <row r="717" ht="15.75" customHeight="1" s="51">
       <c r="A717" s="29" t="n"/>
       <c r="B717" s="29" t="n"/>
       <c r="C717" s="29" t="n"/>
@@ -20331,7 +20188,7 @@
       <c r="X717" s="5" t="n"/>
       <c r="Y717" s="5" t="n"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1" s="52">
+    <row r="718" ht="15.75" customHeight="1" s="51">
       <c r="A718" s="29" t="n"/>
       <c r="B718" s="29" t="n"/>
       <c r="C718" s="29" t="n"/>
@@ -20358,7 +20215,7 @@
       <c r="X718" s="5" t="n"/>
       <c r="Y718" s="5" t="n"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1" s="52">
+    <row r="719" ht="15.75" customHeight="1" s="51">
       <c r="A719" s="29" t="n"/>
       <c r="B719" s="29" t="n"/>
       <c r="C719" s="29" t="n"/>
@@ -20385,7 +20242,7 @@
       <c r="X719" s="5" t="n"/>
       <c r="Y719" s="5" t="n"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1" s="52">
+    <row r="720" ht="15.75" customHeight="1" s="51">
       <c r="A720" s="29" t="n"/>
       <c r="B720" s="29" t="n"/>
       <c r="C720" s="29" t="n"/>
@@ -20412,7 +20269,7 @@
       <c r="X720" s="5" t="n"/>
       <c r="Y720" s="5" t="n"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1" s="52">
+    <row r="721" ht="15.75" customHeight="1" s="51">
       <c r="A721" s="29" t="n"/>
       <c r="B721" s="29" t="n"/>
       <c r="C721" s="29" t="n"/>
@@ -20439,7 +20296,7 @@
       <c r="X721" s="5" t="n"/>
       <c r="Y721" s="5" t="n"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1" s="52">
+    <row r="722" ht="15.75" customHeight="1" s="51">
       <c r="A722" s="29" t="n"/>
       <c r="B722" s="29" t="n"/>
       <c r="C722" s="29" t="n"/>
@@ -20466,7 +20323,7 @@
       <c r="X722" s="5" t="n"/>
       <c r="Y722" s="5" t="n"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1" s="52">
+    <row r="723" ht="15.75" customHeight="1" s="51">
       <c r="A723" s="29" t="n"/>
       <c r="B723" s="29" t="n"/>
       <c r="C723" s="29" t="n"/>
@@ -20493,7 +20350,7 @@
       <c r="X723" s="5" t="n"/>
       <c r="Y723" s="5" t="n"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1" s="52">
+    <row r="724" ht="15.75" customHeight="1" s="51">
       <c r="A724" s="29" t="n"/>
       <c r="B724" s="29" t="n"/>
       <c r="C724" s="29" t="n"/>
@@ -20520,7 +20377,7 @@
       <c r="X724" s="5" t="n"/>
       <c r="Y724" s="5" t="n"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1" s="52">
+    <row r="725" ht="15.75" customHeight="1" s="51">
       <c r="A725" s="29" t="n"/>
       <c r="B725" s="29" t="n"/>
       <c r="C725" s="29" t="n"/>
@@ -20547,7 +20404,7 @@
       <c r="X725" s="5" t="n"/>
       <c r="Y725" s="5" t="n"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1" s="52">
+    <row r="726" ht="15.75" customHeight="1" s="51">
       <c r="A726" s="29" t="n"/>
       <c r="B726" s="29" t="n"/>
       <c r="C726" s="29" t="n"/>
@@ -20574,7 +20431,7 @@
       <c r="X726" s="5" t="n"/>
       <c r="Y726" s="5" t="n"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1" s="52">
+    <row r="727" ht="15.75" customHeight="1" s="51">
       <c r="A727" s="29" t="n"/>
       <c r="B727" s="29" t="n"/>
       <c r="C727" s="29" t="n"/>
@@ -20601,7 +20458,7 @@
       <c r="X727" s="5" t="n"/>
       <c r="Y727" s="5" t="n"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1" s="52">
+    <row r="728" ht="15.75" customHeight="1" s="51">
       <c r="A728" s="29" t="n"/>
       <c r="B728" s="29" t="n"/>
       <c r="C728" s="29" t="n"/>
@@ -20628,7 +20485,7 @@
       <c r="X728" s="5" t="n"/>
       <c r="Y728" s="5" t="n"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1" s="52">
+    <row r="729" ht="15.75" customHeight="1" s="51">
       <c r="A729" s="29" t="n"/>
       <c r="B729" s="29" t="n"/>
       <c r="C729" s="29" t="n"/>
@@ -20655,7 +20512,7 @@
       <c r="X729" s="5" t="n"/>
       <c r="Y729" s="5" t="n"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1" s="52">
+    <row r="730" ht="15.75" customHeight="1" s="51">
       <c r="A730" s="29" t="n"/>
       <c r="B730" s="29" t="n"/>
       <c r="C730" s="29" t="n"/>
@@ -20682,7 +20539,7 @@
       <c r="X730" s="5" t="n"/>
       <c r="Y730" s="5" t="n"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1" s="52">
+    <row r="731" ht="15.75" customHeight="1" s="51">
       <c r="A731" s="29" t="n"/>
       <c r="B731" s="29" t="n"/>
       <c r="C731" s="29" t="n"/>
@@ -20709,7 +20566,7 @@
       <c r="X731" s="5" t="n"/>
       <c r="Y731" s="5" t="n"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1" s="52">
+    <row r="732" ht="15.75" customHeight="1" s="51">
       <c r="A732" s="29" t="n"/>
       <c r="B732" s="29" t="n"/>
       <c r="C732" s="29" t="n"/>
@@ -20736,7 +20593,7 @@
       <c r="X732" s="5" t="n"/>
       <c r="Y732" s="5" t="n"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1" s="52">
+    <row r="733" ht="15.75" customHeight="1" s="51">
       <c r="A733" s="29" t="n"/>
       <c r="B733" s="29" t="n"/>
       <c r="C733" s="29" t="n"/>
@@ -20763,7 +20620,7 @@
       <c r="X733" s="5" t="n"/>
       <c r="Y733" s="5" t="n"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1" s="52">
+    <row r="734" ht="15.75" customHeight="1" s="51">
       <c r="A734" s="29" t="n"/>
       <c r="B734" s="29" t="n"/>
       <c r="C734" s="29" t="n"/>
@@ -20790,7 +20647,7 @@
       <c r="X734" s="5" t="n"/>
       <c r="Y734" s="5" t="n"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1" s="52">
+    <row r="735" ht="15.75" customHeight="1" s="51">
       <c r="A735" s="29" t="n"/>
       <c r="B735" s="29" t="n"/>
       <c r="C735" s="29" t="n"/>
@@ -20817,7 +20674,7 @@
       <c r="X735" s="5" t="n"/>
       <c r="Y735" s="5" t="n"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1" s="52">
+    <row r="736" ht="15.75" customHeight="1" s="51">
       <c r="A736" s="29" t="n"/>
       <c r="B736" s="29" t="n"/>
       <c r="C736" s="29" t="n"/>
@@ -20844,7 +20701,7 @@
       <c r="X736" s="5" t="n"/>
       <c r="Y736" s="5" t="n"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1" s="52">
+    <row r="737" ht="15.75" customHeight="1" s="51">
       <c r="A737" s="29" t="n"/>
       <c r="B737" s="29" t="n"/>
       <c r="C737" s="29" t="n"/>
@@ -20871,7 +20728,7 @@
       <c r="X737" s="5" t="n"/>
       <c r="Y737" s="5" t="n"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1" s="52">
+    <row r="738" ht="15.75" customHeight="1" s="51">
       <c r="A738" s="29" t="n"/>
       <c r="B738" s="29" t="n"/>
       <c r="C738" s="29" t="n"/>
@@ -20898,7 +20755,7 @@
       <c r="X738" s="5" t="n"/>
       <c r="Y738" s="5" t="n"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1" s="52">
+    <row r="739" ht="15.75" customHeight="1" s="51">
       <c r="A739" s="29" t="n"/>
       <c r="B739" s="29" t="n"/>
       <c r="C739" s="29" t="n"/>
@@ -20925,7 +20782,7 @@
       <c r="X739" s="5" t="n"/>
       <c r="Y739" s="5" t="n"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1" s="52">
+    <row r="740" ht="15.75" customHeight="1" s="51">
       <c r="A740" s="29" t="n"/>
       <c r="B740" s="29" t="n"/>
       <c r="C740" s="29" t="n"/>
@@ -20952,7 +20809,7 @@
       <c r="X740" s="5" t="n"/>
       <c r="Y740" s="5" t="n"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1" s="52">
+    <row r="741" ht="15.75" customHeight="1" s="51">
       <c r="A741" s="29" t="n"/>
       <c r="B741" s="29" t="n"/>
       <c r="C741" s="29" t="n"/>
@@ -20979,7 +20836,7 @@
       <c r="X741" s="5" t="n"/>
       <c r="Y741" s="5" t="n"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1" s="52">
+    <row r="742" ht="15.75" customHeight="1" s="51">
       <c r="A742" s="29" t="n"/>
       <c r="B742" s="29" t="n"/>
       <c r="C742" s="29" t="n"/>
@@ -21006,7 +20863,7 @@
       <c r="X742" s="5" t="n"/>
       <c r="Y742" s="5" t="n"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1" s="52">
+    <row r="743" ht="15.75" customHeight="1" s="51">
       <c r="A743" s="29" t="n"/>
       <c r="B743" s="29" t="n"/>
       <c r="C743" s="29" t="n"/>
@@ -21033,7 +20890,7 @@
       <c r="X743" s="5" t="n"/>
       <c r="Y743" s="5" t="n"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1" s="52">
+    <row r="744" ht="15.75" customHeight="1" s="51">
       <c r="A744" s="29" t="n"/>
       <c r="B744" s="29" t="n"/>
       <c r="C744" s="29" t="n"/>
@@ -21060,7 +20917,7 @@
       <c r="X744" s="5" t="n"/>
       <c r="Y744" s="5" t="n"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1" s="52">
+    <row r="745" ht="15.75" customHeight="1" s="51">
       <c r="A745" s="29" t="n"/>
       <c r="B745" s="29" t="n"/>
       <c r="C745" s="29" t="n"/>
@@ -21087,7 +20944,7 @@
       <c r="X745" s="5" t="n"/>
       <c r="Y745" s="5" t="n"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1" s="52">
+    <row r="746" ht="15.75" customHeight="1" s="51">
       <c r="A746" s="29" t="n"/>
       <c r="B746" s="29" t="n"/>
       <c r="C746" s="29" t="n"/>
@@ -21114,7 +20971,7 @@
       <c r="X746" s="5" t="n"/>
       <c r="Y746" s="5" t="n"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1" s="52">
+    <row r="747" ht="15.75" customHeight="1" s="51">
       <c r="A747" s="29" t="n"/>
       <c r="B747" s="29" t="n"/>
       <c r="C747" s="29" t="n"/>
@@ -21141,7 +20998,7 @@
       <c r="X747" s="5" t="n"/>
       <c r="Y747" s="5" t="n"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1" s="52">
+    <row r="748" ht="15.75" customHeight="1" s="51">
       <c r="A748" s="29" t="n"/>
       <c r="B748" s="29" t="n"/>
       <c r="C748" s="29" t="n"/>
@@ -21168,7 +21025,7 @@
       <c r="X748" s="5" t="n"/>
       <c r="Y748" s="5" t="n"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1" s="52">
+    <row r="749" ht="15.75" customHeight="1" s="51">
       <c r="A749" s="29" t="n"/>
       <c r="B749" s="29" t="n"/>
       <c r="C749" s="29" t="n"/>
@@ -21195,7 +21052,7 @@
       <c r="X749" s="5" t="n"/>
       <c r="Y749" s="5" t="n"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1" s="52">
+    <row r="750" ht="15.75" customHeight="1" s="51">
       <c r="A750" s="29" t="n"/>
       <c r="B750" s="29" t="n"/>
       <c r="C750" s="29" t="n"/>
@@ -21222,7 +21079,7 @@
       <c r="X750" s="5" t="n"/>
       <c r="Y750" s="5" t="n"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1" s="52">
+    <row r="751" ht="15.75" customHeight="1" s="51">
       <c r="A751" s="29" t="n"/>
       <c r="B751" s="29" t="n"/>
       <c r="C751" s="29" t="n"/>
@@ -21249,7 +21106,7 @@
       <c r="X751" s="5" t="n"/>
       <c r="Y751" s="5" t="n"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1" s="52">
+    <row r="752" ht="15.75" customHeight="1" s="51">
       <c r="A752" s="29" t="n"/>
       <c r="B752" s="29" t="n"/>
       <c r="C752" s="29" t="n"/>
@@ -21276,7 +21133,7 @@
       <c r="X752" s="5" t="n"/>
       <c r="Y752" s="5" t="n"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1" s="52">
+    <row r="753" ht="15.75" customHeight="1" s="51">
       <c r="A753" s="29" t="n"/>
       <c r="B753" s="29" t="n"/>
       <c r="C753" s="29" t="n"/>
@@ -21303,7 +21160,7 @@
       <c r="X753" s="5" t="n"/>
       <c r="Y753" s="5" t="n"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1" s="52">
+    <row r="754" ht="15.75" customHeight="1" s="51">
       <c r="A754" s="29" t="n"/>
       <c r="B754" s="29" t="n"/>
       <c r="C754" s="29" t="n"/>
@@ -21330,7 +21187,7 @@
       <c r="X754" s="5" t="n"/>
       <c r="Y754" s="5" t="n"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1" s="52">
+    <row r="755" ht="15.75" customHeight="1" s="51">
       <c r="A755" s="29" t="n"/>
       <c r="B755" s="29" t="n"/>
       <c r="C755" s="29" t="n"/>
@@ -21357,7 +21214,7 @@
       <c r="X755" s="5" t="n"/>
       <c r="Y755" s="5" t="n"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1" s="52">
+    <row r="756" ht="15.75" customHeight="1" s="51">
       <c r="A756" s="29" t="n"/>
       <c r="B756" s="29" t="n"/>
       <c r="C756" s="29" t="n"/>
@@ -21384,7 +21241,7 @@
       <c r="X756" s="5" t="n"/>
       <c r="Y756" s="5" t="n"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1" s="52">
+    <row r="757" ht="15.75" customHeight="1" s="51">
       <c r="A757" s="29" t="n"/>
       <c r="B757" s="29" t="n"/>
       <c r="C757" s="29" t="n"/>
@@ -21411,7 +21268,7 @@
       <c r="X757" s="5" t="n"/>
       <c r="Y757" s="5" t="n"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1" s="52">
+    <row r="758" ht="15.75" customHeight="1" s="51">
       <c r="A758" s="29" t="n"/>
       <c r="B758" s="29" t="n"/>
       <c r="C758" s="29" t="n"/>
@@ -21438,7 +21295,7 @@
       <c r="X758" s="5" t="n"/>
       <c r="Y758" s="5" t="n"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1" s="52">
+    <row r="759" ht="15.75" customHeight="1" s="51">
       <c r="A759" s="29" t="n"/>
       <c r="B759" s="29" t="n"/>
       <c r="C759" s="29" t="n"/>
@@ -21465,7 +21322,7 @@
       <c r="X759" s="5" t="n"/>
       <c r="Y759" s="5" t="n"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1" s="52">
+    <row r="760" ht="15.75" customHeight="1" s="51">
       <c r="A760" s="29" t="n"/>
       <c r="B760" s="29" t="n"/>
       <c r="C760" s="29" t="n"/>
@@ -21492,7 +21349,7 @@
       <c r="X760" s="5" t="n"/>
       <c r="Y760" s="5" t="n"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1" s="52">
+    <row r="761" ht="15.75" customHeight="1" s="51">
       <c r="A761" s="29" t="n"/>
       <c r="B761" s="29" t="n"/>
       <c r="C761" s="29" t="n"/>
@@ -21519,7 +21376,7 @@
       <c r="X761" s="5" t="n"/>
       <c r="Y761" s="5" t="n"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1" s="52">
+    <row r="762" ht="15.75" customHeight="1" s="51">
       <c r="A762" s="29" t="n"/>
       <c r="B762" s="29" t="n"/>
       <c r="C762" s="29" t="n"/>
@@ -21546,7 +21403,7 @@
       <c r="X762" s="5" t="n"/>
       <c r="Y762" s="5" t="n"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1" s="52">
+    <row r="763" ht="15.75" customHeight="1" s="51">
       <c r="A763" s="29" t="n"/>
       <c r="B763" s="29" t="n"/>
       <c r="C763" s="29" t="n"/>
@@ -21573,7 +21430,7 @@
       <c r="X763" s="5" t="n"/>
       <c r="Y763" s="5" t="n"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1" s="52">
+    <row r="764" ht="15.75" customHeight="1" s="51">
       <c r="A764" s="29" t="n"/>
       <c r="B764" s="29" t="n"/>
       <c r="C764" s="29" t="n"/>
@@ -21600,7 +21457,7 @@
       <c r="X764" s="5" t="n"/>
       <c r="Y764" s="5" t="n"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1" s="52">
+    <row r="765" ht="15.75" customHeight="1" s="51">
       <c r="A765" s="29" t="n"/>
       <c r="B765" s="29" t="n"/>
       <c r="C765" s="29" t="n"/>
@@ -21627,7 +21484,7 @@
       <c r="X765" s="5" t="n"/>
       <c r="Y765" s="5" t="n"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1" s="52">
+    <row r="766" ht="15.75" customHeight="1" s="51">
       <c r="A766" s="29" t="n"/>
       <c r="B766" s="29" t="n"/>
       <c r="C766" s="29" t="n"/>
@@ -21654,7 +21511,7 @@
       <c r="X766" s="5" t="n"/>
       <c r="Y766" s="5" t="n"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1" s="52">
+    <row r="767" ht="15.75" customHeight="1" s="51">
       <c r="A767" s="29" t="n"/>
       <c r="B767" s="29" t="n"/>
       <c r="C767" s="29" t="n"/>
@@ -21681,7 +21538,7 @@
       <c r="X767" s="5" t="n"/>
       <c r="Y767" s="5" t="n"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1" s="52">
+    <row r="768" ht="15.75" customHeight="1" s="51">
       <c r="A768" s="29" t="n"/>
       <c r="B768" s="29" t="n"/>
       <c r="C768" s="29" t="n"/>
@@ -21708,7 +21565,7 @@
       <c r="X768" s="5" t="n"/>
       <c r="Y768" s="5" t="n"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1" s="52">
+    <row r="769" ht="15.75" customHeight="1" s="51">
       <c r="A769" s="29" t="n"/>
       <c r="B769" s="29" t="n"/>
       <c r="C769" s="29" t="n"/>
@@ -21735,7 +21592,7 @@
       <c r="X769" s="5" t="n"/>
       <c r="Y769" s="5" t="n"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1" s="52">
+    <row r="770" ht="15.75" customHeight="1" s="51">
       <c r="A770" s="29" t="n"/>
       <c r="B770" s="29" t="n"/>
       <c r="C770" s="29" t="n"/>
@@ -21762,7 +21619,7 @@
       <c r="X770" s="5" t="n"/>
       <c r="Y770" s="5" t="n"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1" s="52">
+    <row r="771" ht="15.75" customHeight="1" s="51">
       <c r="A771" s="29" t="n"/>
       <c r="B771" s="29" t="n"/>
       <c r="C771" s="29" t="n"/>
@@ -21789,7 +21646,7 @@
       <c r="X771" s="5" t="n"/>
       <c r="Y771" s="5" t="n"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1" s="52">
+    <row r="772" ht="15.75" customHeight="1" s="51">
       <c r="A772" s="29" t="n"/>
       <c r="B772" s="29" t="n"/>
       <c r="C772" s="29" t="n"/>
@@ -21816,7 +21673,7 @@
       <c r="X772" s="5" t="n"/>
       <c r="Y772" s="5" t="n"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1" s="52">
+    <row r="773" ht="15.75" customHeight="1" s="51">
       <c r="A773" s="29" t="n"/>
       <c r="B773" s="29" t="n"/>
       <c r="C773" s="29" t="n"/>
@@ -21843,7 +21700,7 @@
       <c r="X773" s="5" t="n"/>
       <c r="Y773" s="5" t="n"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1" s="52">
+    <row r="774" ht="15.75" customHeight="1" s="51">
       <c r="A774" s="29" t="n"/>
       <c r="B774" s="29" t="n"/>
       <c r="C774" s="29" t="n"/>
@@ -21870,7 +21727,7 @@
       <c r="X774" s="5" t="n"/>
       <c r="Y774" s="5" t="n"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1" s="52">
+    <row r="775" ht="15.75" customHeight="1" s="51">
       <c r="A775" s="29" t="n"/>
       <c r="B775" s="29" t="n"/>
       <c r="C775" s="29" t="n"/>
@@ -21897,7 +21754,7 @@
       <c r="X775" s="5" t="n"/>
       <c r="Y775" s="5" t="n"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1" s="52">
+    <row r="776" ht="15.75" customHeight="1" s="51">
       <c r="A776" s="29" t="n"/>
       <c r="B776" s="29" t="n"/>
       <c r="C776" s="29" t="n"/>
@@ -21924,7 +21781,7 @@
       <c r="X776" s="5" t="n"/>
       <c r="Y776" s="5" t="n"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1" s="52">
+    <row r="777" ht="15.75" customHeight="1" s="51">
       <c r="A777" s="29" t="n"/>
       <c r="B777" s="29" t="n"/>
       <c r="C777" s="29" t="n"/>
@@ -21951,7 +21808,7 @@
       <c r="X777" s="5" t="n"/>
       <c r="Y777" s="5" t="n"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1" s="52">
+    <row r="778" ht="15.75" customHeight="1" s="51">
       <c r="A778" s="29" t="n"/>
       <c r="B778" s="29" t="n"/>
       <c r="C778" s="29" t="n"/>
@@ -21978,7 +21835,7 @@
       <c r="X778" s="5" t="n"/>
       <c r="Y778" s="5" t="n"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1" s="52">
+    <row r="779" ht="15.75" customHeight="1" s="51">
       <c r="A779" s="29" t="n"/>
       <c r="B779" s="29" t="n"/>
       <c r="C779" s="29" t="n"/>
@@ -22005,7 +21862,7 @@
       <c r="X779" s="5" t="n"/>
       <c r="Y779" s="5" t="n"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1" s="52">
+    <row r="780" ht="15.75" customHeight="1" s="51">
       <c r="A780" s="29" t="n"/>
       <c r="B780" s="29" t="n"/>
       <c r="C780" s="29" t="n"/>
@@ -22032,7 +21889,7 @@
       <c r="X780" s="5" t="n"/>
       <c r="Y780" s="5" t="n"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1" s="52">
+    <row r="781" ht="15.75" customHeight="1" s="51">
       <c r="A781" s="29" t="n"/>
       <c r="B781" s="29" t="n"/>
       <c r="C781" s="29" t="n"/>
@@ -22059,7 +21916,7 @@
       <c r="X781" s="5" t="n"/>
       <c r="Y781" s="5" t="n"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1" s="52">
+    <row r="782" ht="15.75" customHeight="1" s="51">
       <c r="A782" s="29" t="n"/>
       <c r="B782" s="29" t="n"/>
       <c r="C782" s="29" t="n"/>
@@ -22086,7 +21943,7 @@
       <c r="X782" s="5" t="n"/>
       <c r="Y782" s="5" t="n"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1" s="52">
+    <row r="783" ht="15.75" customHeight="1" s="51">
       <c r="A783" s="29" t="n"/>
       <c r="B783" s="29" t="n"/>
       <c r="C783" s="29" t="n"/>
@@ -22113,7 +21970,7 @@
       <c r="X783" s="5" t="n"/>
       <c r="Y783" s="5" t="n"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1" s="52">
+    <row r="784" ht="15.75" customHeight="1" s="51">
       <c r="A784" s="29" t="n"/>
       <c r="B784" s="29" t="n"/>
       <c r="C784" s="29" t="n"/>
@@ -22140,7 +21997,7 @@
       <c r="X784" s="5" t="n"/>
       <c r="Y784" s="5" t="n"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1" s="52">
+    <row r="785" ht="15.75" customHeight="1" s="51">
       <c r="A785" s="29" t="n"/>
       <c r="B785" s="29" t="n"/>
       <c r="C785" s="29" t="n"/>
@@ -22167,7 +22024,7 @@
       <c r="X785" s="5" t="n"/>
       <c r="Y785" s="5" t="n"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1" s="52">
+    <row r="786" ht="15.75" customHeight="1" s="51">
       <c r="A786" s="29" t="n"/>
       <c r="B786" s="29" t="n"/>
       <c r="C786" s="29" t="n"/>
@@ -22194,7 +22051,7 @@
       <c r="X786" s="5" t="n"/>
       <c r="Y786" s="5" t="n"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1" s="52">
+    <row r="787" ht="15.75" customHeight="1" s="51">
       <c r="A787" s="29" t="n"/>
       <c r="B787" s="29" t="n"/>
       <c r="C787" s="29" t="n"/>
@@ -22221,7 +22078,7 @@
       <c r="X787" s="5" t="n"/>
       <c r="Y787" s="5" t="n"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1" s="52">
+    <row r="788" ht="15.75" customHeight="1" s="51">
       <c r="A788" s="29" t="n"/>
       <c r="B788" s="29" t="n"/>
       <c r="C788" s="29" t="n"/>
@@ -22248,7 +22105,7 @@
       <c r="X788" s="5" t="n"/>
       <c r="Y788" s="5" t="n"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1" s="52">
+    <row r="789" ht="15.75" customHeight="1" s="51">
       <c r="A789" s="29" t="n"/>
       <c r="B789" s="29" t="n"/>
       <c r="C789" s="29" t="n"/>
@@ -22275,7 +22132,7 @@
       <c r="X789" s="5" t="n"/>
       <c r="Y789" s="5" t="n"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1" s="52">
+    <row r="790" ht="15.75" customHeight="1" s="51">
       <c r="A790" s="29" t="n"/>
       <c r="B790" s="29" t="n"/>
       <c r="C790" s="29" t="n"/>
@@ -22302,7 +22159,7 @@
       <c r="X790" s="5" t="n"/>
       <c r="Y790" s="5" t="n"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1" s="52">
+    <row r="791" ht="15.75" customHeight="1" s="51">
       <c r="A791" s="29" t="n"/>
       <c r="B791" s="29" t="n"/>
       <c r="C791" s="29" t="n"/>
@@ -22329,7 +22186,7 @@
       <c r="X791" s="5" t="n"/>
       <c r="Y791" s="5" t="n"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1" s="52">
+    <row r="792" ht="15.75" customHeight="1" s="51">
       <c r="A792" s="29" t="n"/>
       <c r="B792" s="29" t="n"/>
       <c r="C792" s="29" t="n"/>
@@ -22356,7 +22213,7 @@
       <c r="X792" s="5" t="n"/>
       <c r="Y792" s="5" t="n"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1" s="52">
+    <row r="793" ht="15.75" customHeight="1" s="51">
       <c r="A793" s="29" t="n"/>
       <c r="B793" s="29" t="n"/>
       <c r="C793" s="29" t="n"/>
@@ -22383,7 +22240,7 @@
       <c r="X793" s="5" t="n"/>
       <c r="Y793" s="5" t="n"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1" s="52">
+    <row r="794" ht="15.75" customHeight="1" s="51">
       <c r="A794" s="29" t="n"/>
       <c r="B794" s="29" t="n"/>
       <c r="C794" s="29" t="n"/>
@@ -22410,7 +22267,7 @@
       <c r="X794" s="5" t="n"/>
       <c r="Y794" s="5" t="n"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1" s="52">
+    <row r="795" ht="15.75" customHeight="1" s="51">
       <c r="A795" s="29" t="n"/>
       <c r="B795" s="29" t="n"/>
       <c r="C795" s="29" t="n"/>
@@ -22437,7 +22294,7 @@
       <c r="X795" s="5" t="n"/>
       <c r="Y795" s="5" t="n"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1" s="52">
+    <row r="796" ht="15.75" customHeight="1" s="51">
       <c r="A796" s="29" t="n"/>
       <c r="B796" s="29" t="n"/>
       <c r="C796" s="29" t="n"/>
@@ -22464,7 +22321,7 @@
       <c r="X796" s="5" t="n"/>
       <c r="Y796" s="5" t="n"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1" s="52">
+    <row r="797" ht="15.75" customHeight="1" s="51">
       <c r="A797" s="29" t="n"/>
       <c r="B797" s="29" t="n"/>
       <c r="C797" s="29" t="n"/>
@@ -22491,7 +22348,7 @@
       <c r="X797" s="5" t="n"/>
       <c r="Y797" s="5" t="n"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1" s="52">
+    <row r="798" ht="15.75" customHeight="1" s="51">
       <c r="A798" s="29" t="n"/>
       <c r="B798" s="29" t="n"/>
       <c r="C798" s="29" t="n"/>
@@ -22518,7 +22375,7 @@
       <c r="X798" s="5" t="n"/>
       <c r="Y798" s="5" t="n"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1" s="52">
+    <row r="799" ht="15.75" customHeight="1" s="51">
       <c r="A799" s="29" t="n"/>
       <c r="B799" s="29" t="n"/>
       <c r="C799" s="29" t="n"/>
@@ -22545,7 +22402,7 @@
       <c r="X799" s="5" t="n"/>
       <c r="Y799" s="5" t="n"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1" s="52">
+    <row r="800" ht="15.75" customHeight="1" s="51">
       <c r="A800" s="29" t="n"/>
       <c r="B800" s="29" t="n"/>
       <c r="C800" s="29" t="n"/>
@@ -22572,7 +22429,7 @@
       <c r="X800" s="5" t="n"/>
       <c r="Y800" s="5" t="n"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1" s="52">
+    <row r="801" ht="15.75" customHeight="1" s="51">
       <c r="A801" s="29" t="n"/>
       <c r="B801" s="29" t="n"/>
       <c r="C801" s="29" t="n"/>
@@ -22599,7 +22456,7 @@
       <c r="X801" s="5" t="n"/>
       <c r="Y801" s="5" t="n"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1" s="52">
+    <row r="802" ht="15.75" customHeight="1" s="51">
       <c r="A802" s="29" t="n"/>
       <c r="B802" s="29" t="n"/>
       <c r="C802" s="29" t="n"/>
@@ -22626,7 +22483,7 @@
       <c r="X802" s="5" t="n"/>
       <c r="Y802" s="5" t="n"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1" s="52">
+    <row r="803" ht="15.75" customHeight="1" s="51">
       <c r="A803" s="29" t="n"/>
       <c r="B803" s="29" t="n"/>
       <c r="C803" s="29" t="n"/>
@@ -22653,7 +22510,7 @@
       <c r="X803" s="5" t="n"/>
       <c r="Y803" s="5" t="n"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1" s="52">
+    <row r="804" ht="15.75" customHeight="1" s="51">
       <c r="A804" s="29" t="n"/>
       <c r="B804" s="29" t="n"/>
       <c r="C804" s="29" t="n"/>
@@ -22680,7 +22537,7 @@
       <c r="X804" s="5" t="n"/>
       <c r="Y804" s="5" t="n"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1" s="52">
+    <row r="805" ht="15.75" customHeight="1" s="51">
       <c r="A805" s="29" t="n"/>
       <c r="B805" s="29" t="n"/>
       <c r="C805" s="29" t="n"/>
@@ -22707,7 +22564,7 @@
       <c r="X805" s="5" t="n"/>
       <c r="Y805" s="5" t="n"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1" s="52">
+    <row r="806" ht="15.75" customHeight="1" s="51">
       <c r="A806" s="29" t="n"/>
       <c r="B806" s="29" t="n"/>
       <c r="C806" s="29" t="n"/>
@@ -22734,7 +22591,7 @@
       <c r="X806" s="5" t="n"/>
       <c r="Y806" s="5" t="n"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1" s="52">
+    <row r="807" ht="15.75" customHeight="1" s="51">
       <c r="A807" s="29" t="n"/>
       <c r="B807" s="29" t="n"/>
       <c r="C807" s="29" t="n"/>
@@ -22761,7 +22618,7 @@
       <c r="X807" s="5" t="n"/>
       <c r="Y807" s="5" t="n"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1" s="52">
+    <row r="808" ht="15.75" customHeight="1" s="51">
       <c r="A808" s="29" t="n"/>
       <c r="B808" s="29" t="n"/>
       <c r="C808" s="29" t="n"/>
@@ -22788,7 +22645,7 @@
       <c r="X808" s="5" t="n"/>
       <c r="Y808" s="5" t="n"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1" s="52">
+    <row r="809" ht="15.75" customHeight="1" s="51">
       <c r="A809" s="29" t="n"/>
       <c r="B809" s="29" t="n"/>
       <c r="C809" s="29" t="n"/>
@@ -22815,7 +22672,7 @@
       <c r="X809" s="5" t="n"/>
       <c r="Y809" s="5" t="n"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1" s="52">
+    <row r="810" ht="15.75" customHeight="1" s="51">
       <c r="A810" s="29" t="n"/>
       <c r="B810" s="29" t="n"/>
       <c r="C810" s="29" t="n"/>
@@ -22842,7 +22699,7 @@
       <c r="X810" s="5" t="n"/>
       <c r="Y810" s="5" t="n"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1" s="52">
+    <row r="811" ht="15.75" customHeight="1" s="51">
       <c r="A811" s="29" t="n"/>
       <c r="B811" s="29" t="n"/>
       <c r="C811" s="29" t="n"/>
@@ -22869,7 +22726,7 @@
       <c r="X811" s="5" t="n"/>
       <c r="Y811" s="5" t="n"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1" s="52">
+    <row r="812" ht="15.75" customHeight="1" s="51">
       <c r="A812" s="29" t="n"/>
       <c r="B812" s="29" t="n"/>
       <c r="C812" s="29" t="n"/>
@@ -22896,7 +22753,7 @@
       <c r="X812" s="5" t="n"/>
       <c r="Y812" s="5" t="n"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1" s="52">
+    <row r="813" ht="15.75" customHeight="1" s="51">
       <c r="A813" s="29" t="n"/>
       <c r="B813" s="29" t="n"/>
       <c r="C813" s="29" t="n"/>
@@ -22923,7 +22780,7 @@
       <c r="X813" s="5" t="n"/>
       <c r="Y813" s="5" t="n"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1" s="52">
+    <row r="814" ht="15.75" customHeight="1" s="51">
       <c r="A814" s="29" t="n"/>
       <c r="B814" s="29" t="n"/>
       <c r="C814" s="29" t="n"/>
@@ -22950,7 +22807,7 @@
       <c r="X814" s="5" t="n"/>
       <c r="Y814" s="5" t="n"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1" s="52">
+    <row r="815" ht="15.75" customHeight="1" s="51">
       <c r="A815" s="29" t="n"/>
       <c r="B815" s="29" t="n"/>
       <c r="C815" s="29" t="n"/>
@@ -22977,7 +22834,7 @@
       <c r="X815" s="5" t="n"/>
       <c r="Y815" s="5" t="n"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1" s="52">
+    <row r="816" ht="15.75" customHeight="1" s="51">
       <c r="A816" s="29" t="n"/>
       <c r="B816" s="29" t="n"/>
       <c r="C816" s="29" t="n"/>
@@ -23004,7 +22861,7 @@
       <c r="X816" s="5" t="n"/>
       <c r="Y816" s="5" t="n"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1" s="52">
+    <row r="817" ht="15.75" customHeight="1" s="51">
       <c r="A817" s="29" t="n"/>
       <c r="B817" s="29" t="n"/>
       <c r="C817" s="29" t="n"/>
@@ -23031,7 +22888,7 @@
       <c r="X817" s="5" t="n"/>
       <c r="Y817" s="5" t="n"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1" s="52">
+    <row r="818" ht="15.75" customHeight="1" s="51">
       <c r="A818" s="29" t="n"/>
       <c r="B818" s="29" t="n"/>
       <c r="C818" s="29" t="n"/>
@@ -23058,7 +22915,7 @@
       <c r="X818" s="5" t="n"/>
       <c r="Y818" s="5" t="n"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1" s="52">
+    <row r="819" ht="15.75" customHeight="1" s="51">
       <c r="A819" s="29" t="n"/>
       <c r="B819" s="29" t="n"/>
       <c r="C819" s="29" t="n"/>
@@ -23085,7 +22942,7 @@
       <c r="X819" s="5" t="n"/>
       <c r="Y819" s="5" t="n"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1" s="52">
+    <row r="820" ht="15.75" customHeight="1" s="51">
       <c r="A820" s="29" t="n"/>
       <c r="B820" s="29" t="n"/>
       <c r="C820" s="29" t="n"/>
@@ -23112,7 +22969,7 @@
       <c r="X820" s="5" t="n"/>
       <c r="Y820" s="5" t="n"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1" s="52">
+    <row r="821" ht="15.75" customHeight="1" s="51">
       <c r="A821" s="29" t="n"/>
       <c r="B821" s="29" t="n"/>
       <c r="C821" s="29" t="n"/>
@@ -23139,7 +22996,7 @@
       <c r="X821" s="5" t="n"/>
       <c r="Y821" s="5" t="n"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1" s="52">
+    <row r="822" ht="15.75" customHeight="1" s="51">
       <c r="A822" s="29" t="n"/>
       <c r="B822" s="29" t="n"/>
       <c r="C822" s="29" t="n"/>
@@ -23166,7 +23023,7 @@
       <c r="X822" s="5" t="n"/>
       <c r="Y822" s="5" t="n"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1" s="52">
+    <row r="823" ht="15.75" customHeight="1" s="51">
       <c r="A823" s="29" t="n"/>
       <c r="B823" s="29" t="n"/>
       <c r="C823" s="29" t="n"/>
@@ -23193,7 +23050,7 @@
       <c r="X823" s="5" t="n"/>
       <c r="Y823" s="5" t="n"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1" s="52">
+    <row r="824" ht="15.75" customHeight="1" s="51">
       <c r="A824" s="29" t="n"/>
       <c r="B824" s="29" t="n"/>
       <c r="C824" s="29" t="n"/>
@@ -23220,7 +23077,7 @@
       <c r="X824" s="5" t="n"/>
       <c r="Y824" s="5" t="n"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1" s="52">
+    <row r="825" ht="15.75" customHeight="1" s="51">
       <c r="A825" s="29" t="n"/>
       <c r="B825" s="29" t="n"/>
       <c r="C825" s="29" t="n"/>
@@ -23247,7 +23104,7 @@
       <c r="X825" s="5" t="n"/>
       <c r="Y825" s="5" t="n"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1" s="52">
+    <row r="826" ht="15.75" customHeight="1" s="51">
       <c r="A826" s="29" t="n"/>
       <c r="B826" s="29" t="n"/>
       <c r="C826" s="29" t="n"/>
@@ -23274,7 +23131,7 @@
       <c r="X826" s="5" t="n"/>
       <c r="Y826" s="5" t="n"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1" s="52">
+    <row r="827" ht="15.75" customHeight="1" s="51">
       <c r="A827" s="29" t="n"/>
       <c r="B827" s="29" t="n"/>
       <c r="C827" s="29" t="n"/>
@@ -23301,7 +23158,7 @@
       <c r="X827" s="5" t="n"/>
       <c r="Y827" s="5" t="n"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1" s="52">
+    <row r="828" ht="15.75" customHeight="1" s="51">
       <c r="A828" s="29" t="n"/>
       <c r="B828" s="29" t="n"/>
       <c r="C828" s="29" t="n"/>
@@ -23328,7 +23185,7 @@
       <c r="X828" s="5" t="n"/>
       <c r="Y828" s="5" t="n"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1" s="52">
+    <row r="829" ht="15.75" customHeight="1" s="51">
       <c r="A829" s="29" t="n"/>
       <c r="B829" s="29" t="n"/>
       <c r="C829" s="29" t="n"/>
@@ -23355,7 +23212,7 @@
       <c r="X829" s="5" t="n"/>
       <c r="Y829" s="5" t="n"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1" s="52">
+    <row r="830" ht="15.75" customHeight="1" s="51">
       <c r="A830" s="29" t="n"/>
       <c r="B830" s="29" t="n"/>
       <c r="C830" s="29" t="n"/>
@@ -23382,7 +23239,7 @@
       <c r="X830" s="5" t="n"/>
       <c r="Y830" s="5" t="n"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1" s="52">
+    <row r="831" ht="15.75" customHeight="1" s="51">
       <c r="A831" s="29" t="n"/>
       <c r="B831" s="29" t="n"/>
       <c r="C831" s="29" t="n"/>
@@ -23409,7 +23266,7 @@
       <c r="X831" s="5" t="n"/>
       <c r="Y831" s="5" t="n"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1" s="52">
+    <row r="832" ht="15.75" customHeight="1" s="51">
       <c r="A832" s="29" t="n"/>
       <c r="B832" s="29" t="n"/>
       <c r="C832" s="29" t="n"/>
@@ -23436,7 +23293,7 @@
       <c r="X832" s="5" t="n"/>
       <c r="Y832" s="5" t="n"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1" s="52">
+    <row r="833" ht="15.75" customHeight="1" s="51">
       <c r="A833" s="29" t="n"/>
       <c r="B833" s="29" t="n"/>
       <c r="C833" s="29" t="n"/>
@@ -23463,7 +23320,7 @@
       <c r="X833" s="5" t="n"/>
       <c r="Y833" s="5" t="n"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1" s="52">
+    <row r="834" ht="15.75" customHeight="1" s="51">
       <c r="A834" s="29" t="n"/>
       <c r="B834" s="29" t="n"/>
       <c r="C834" s="29" t="n"/>
@@ -23490,7 +23347,7 @@
       <c r="X834" s="5" t="n"/>
       <c r="Y834" s="5" t="n"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1" s="52">
+    <row r="835" ht="15.75" customHeight="1" s="51">
       <c r="A835" s="29" t="n"/>
       <c r="B835" s="29" t="n"/>
       <c r="C835" s="29" t="n"/>
@@ -23517,7 +23374,7 @@
       <c r="X835" s="5" t="n"/>
       <c r="Y835" s="5" t="n"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1" s="52">
+    <row r="836" ht="15.75" customHeight="1" s="51">
       <c r="A836" s="29" t="n"/>
       <c r="B836" s="29" t="n"/>
       <c r="C836" s="29" t="n"/>
@@ -23544,7 +23401,7 @@
       <c r="X836" s="5" t="n"/>
       <c r="Y836" s="5" t="n"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1" s="52">
+    <row r="837" ht="15.75" customHeight="1" s="51">
       <c r="A837" s="29" t="n"/>
       <c r="B837" s="29" t="n"/>
       <c r="C837" s="29" t="n"/>
@@ -23571,7 +23428,7 @@
       <c r="X837" s="5" t="n"/>
       <c r="Y837" s="5" t="n"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1" s="52">
+    <row r="838" ht="15.75" customHeight="1" s="51">
       <c r="A838" s="29" t="n"/>
       <c r="B838" s="29" t="n"/>
       <c r="C838" s="29" t="n"/>
@@ -23598,7 +23455,7 @@
       <c r="X838" s="5" t="n"/>
       <c r="Y838" s="5" t="n"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1" s="52">
+    <row r="839" ht="15.75" customHeight="1" s="51">
       <c r="A839" s="29" t="n"/>
       <c r="B839" s="29" t="n"/>
       <c r="C839" s="29" t="n"/>
@@ -23625,7 +23482,7 @@
       <c r="X839" s="5" t="n"/>
       <c r="Y839" s="5" t="n"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1" s="52">
+    <row r="840" ht="15.75" customHeight="1" s="51">
       <c r="A840" s="29" t="n"/>
       <c r="B840" s="29" t="n"/>
       <c r="C840" s="29" t="n"/>
@@ -23652,7 +23509,7 @@
       <c r="X840" s="5" t="n"/>
       <c r="Y840" s="5" t="n"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1" s="52">
+    <row r="841" ht="15.75" customHeight="1" s="51">
       <c r="A841" s="29" t="n"/>
       <c r="B841" s="29" t="n"/>
       <c r="C841" s="29" t="n"/>
@@ -23679,7 +23536,7 @@
       <c r="X841" s="5" t="n"/>
       <c r="Y841" s="5" t="n"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1" s="52">
+    <row r="842" ht="15.75" customHeight="1" s="51">
       <c r="A842" s="29" t="n"/>
       <c r="B842" s="29" t="n"/>
       <c r="C842" s="29" t="n"/>
@@ -23706,7 +23563,7 @@
       <c r="X842" s="5" t="n"/>
       <c r="Y842" s="5" t="n"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1" s="52">
+    <row r="843" ht="15.75" customHeight="1" s="51">
       <c r="A843" s="29" t="n"/>
       <c r="B843" s="29" t="n"/>
       <c r="C843" s="29" t="n"/>
@@ -23733,7 +23590,7 @@
       <c r="X843" s="5" t="n"/>
       <c r="Y843" s="5" t="n"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1" s="52">
+    <row r="844" ht="15.75" customHeight="1" s="51">
       <c r="A844" s="29" t="n"/>
       <c r="B844" s="29" t="n"/>
       <c r="C844" s="29" t="n"/>
@@ -23760,7 +23617,7 @@
       <c r="X844" s="5" t="n"/>
       <c r="Y844" s="5" t="n"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1" s="52">
+    <row r="845" ht="15.75" customHeight="1" s="51">
       <c r="A845" s="29" t="n"/>
       <c r="B845" s="29" t="n"/>
       <c r="C845" s="29" t="n"/>
@@ -23787,7 +23644,7 @@
       <c r="X845" s="5" t="n"/>
       <c r="Y845" s="5" t="n"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1" s="52">
+    <row r="846" ht="15.75" customHeight="1" s="51">
       <c r="A846" s="29" t="n"/>
       <c r="B846" s="29" t="n"/>
       <c r="C846" s="29" t="n"/>
@@ -23814,7 +23671,7 @@
       <c r="X846" s="5" t="n"/>
       <c r="Y846" s="5" t="n"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1" s="52">
+    <row r="847" ht="15.75" customHeight="1" s="51">
       <c r="A847" s="29" t="n"/>
       <c r="B847" s="29" t="n"/>
       <c r="C847" s="29" t="n"/>
@@ -23841,7 +23698,7 @@
       <c r="X847" s="5" t="n"/>
       <c r="Y847" s="5" t="n"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1" s="52">
+    <row r="848" ht="15.75" customHeight="1" s="51">
       <c r="A848" s="29" t="n"/>
       <c r="B848" s="29" t="n"/>
       <c r="C848" s="29" t="n"/>
@@ -23868,7 +23725,7 @@
       <c r="X848" s="5" t="n"/>
       <c r="Y848" s="5" t="n"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1" s="52">
+    <row r="849" ht="15.75" customHeight="1" s="51">
       <c r="A849" s="29" t="n"/>
       <c r="B849" s="29" t="n"/>
       <c r="C849" s="29" t="n"/>
@@ -23895,7 +23752,7 @@
       <c r="X849" s="5" t="n"/>
       <c r="Y849" s="5" t="n"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1" s="52">
+    <row r="850" ht="15.75" customHeight="1" s="51">
       <c r="A850" s="29" t="n"/>
       <c r="B850" s="29" t="n"/>
       <c r="C850" s="29" t="n"/>
@@ -23922,7 +23779,7 @@
       <c r="X850" s="5" t="n"/>
       <c r="Y850" s="5" t="n"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1" s="52">
+    <row r="851" ht="15.75" customHeight="1" s="51">
       <c r="A851" s="29" t="n"/>
       <c r="B851" s="29" t="n"/>
       <c r="C851" s="29" t="n"/>
@@ -23949,7 +23806,7 @@
       <c r="X851" s="5" t="n"/>
       <c r="Y851" s="5" t="n"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1" s="52">
+    <row r="852" ht="15.75" customHeight="1" s="51">
       <c r="A852" s="29" t="n"/>
       <c r="B852" s="29" t="n"/>
       <c r="C852" s="29" t="n"/>
@@ -23976,7 +23833,7 @@
       <c r="X852" s="5" t="n"/>
       <c r="Y852" s="5" t="n"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1" s="52">
+    <row r="853" ht="15.75" customHeight="1" s="51">
       <c r="A853" s="29" t="n"/>
       <c r="B853" s="29" t="n"/>
       <c r="C853" s="29" t="n"/>
@@ -24003,7 +23860,7 @@
       <c r="X853" s="5" t="n"/>
       <c r="Y853" s="5" t="n"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1" s="52">
+    <row r="854" ht="15.75" customHeight="1" s="51">
       <c r="A854" s="29" t="n"/>
       <c r="B854" s="29" t="n"/>
       <c r="C854" s="29" t="n"/>
@@ -24030,7 +23887,7 @@
       <c r="X854" s="5" t="n"/>
       <c r="Y854" s="5" t="n"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1" s="52">
+    <row r="855" ht="15.75" customHeight="1" s="51">
       <c r="A855" s="29" t="n"/>
       <c r="B855" s="29" t="n"/>
       <c r="C855" s="29" t="n"/>
@@ -24057,7 +23914,7 @@
       <c r="X855" s="5" t="n"/>
       <c r="Y855" s="5" t="n"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1" s="52">
+    <row r="856" ht="15.75" customHeight="1" s="51">
       <c r="A856" s="29" t="n"/>
       <c r="B856" s="29" t="n"/>
       <c r="C856" s="29" t="n"/>
@@ -24084,7 +23941,7 @@
       <c r="X856" s="5" t="n"/>
       <c r="Y856" s="5" t="n"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1" s="52">
+    <row r="857" ht="15.75" customHeight="1" s="51">
       <c r="A857" s="29" t="n"/>
       <c r="B857" s="29" t="n"/>
       <c r="C857" s="29" t="n"/>
@@ -24111,7 +23968,7 @@
       <c r="X857" s="5" t="n"/>
       <c r="Y857" s="5" t="n"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1" s="52">
+    <row r="858" ht="15.75" customHeight="1" s="51">
       <c r="A858" s="29" t="n"/>
       <c r="B858" s="29" t="n"/>
       <c r="C858" s="29" t="n"/>
@@ -24138,7 +23995,7 @@
       <c r="X858" s="5" t="n"/>
       <c r="Y858" s="5" t="n"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1" s="52">
+    <row r="859" ht="15.75" customHeight="1" s="51">
       <c r="A859" s="29" t="n"/>
       <c r="B859" s="29" t="n"/>
       <c r="C859" s="29" t="n"/>
@@ -24165,7 +24022,7 @@
       <c r="X859" s="5" t="n"/>
       <c r="Y859" s="5" t="n"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1" s="52">
+    <row r="860" ht="15.75" customHeight="1" s="51">
       <c r="A860" s="29" t="n"/>
       <c r="B860" s="29" t="n"/>
       <c r="C860" s="29" t="n"/>
@@ -24192,7 +24049,7 @@
       <c r="X860" s="5" t="n"/>
       <c r="Y860" s="5" t="n"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1" s="52">
+    <row r="861" ht="15.75" customHeight="1" s="51">
       <c r="A861" s="29" t="n"/>
       <c r="B861" s="29" t="n"/>
       <c r="C861" s="29" t="n"/>
@@ -24219,7 +24076,7 @@
       <c r="X861" s="5" t="n"/>
       <c r="Y861" s="5" t="n"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1" s="52">
+    <row r="862" ht="15.75" customHeight="1" s="51">
       <c r="A862" s="29" t="n"/>
       <c r="B862" s="29" t="n"/>
       <c r="C862" s="29" t="n"/>
@@ -24246,7 +24103,7 @@
       <c r="X862" s="5" t="n"/>
       <c r="Y862" s="5" t="n"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1" s="52">
+    <row r="863" ht="15.75" customHeight="1" s="51">
       <c r="A863" s="29" t="n"/>
       <c r="B863" s="29" t="n"/>
       <c r="C863" s="29" t="n"/>
@@ -24273,7 +24130,7 @@
       <c r="X863" s="5" t="n"/>
       <c r="Y863" s="5" t="n"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1" s="52">
+    <row r="864" ht="15.75" customHeight="1" s="51">
       <c r="A864" s="29" t="n"/>
       <c r="B864" s="29" t="n"/>
       <c r="C864" s="29" t="n"/>
@@ -24300,7 +24157,7 @@
       <c r="X864" s="5" t="n"/>
       <c r="Y864" s="5" t="n"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1" s="52">
+    <row r="865" ht="15.75" customHeight="1" s="51">
       <c r="A865" s="29" t="n"/>
       <c r="B865" s="29" t="n"/>
       <c r="C865" s="29" t="n"/>
@@ -24327,7 +24184,7 @@
       <c r="X865" s="5" t="n"/>
       <c r="Y865" s="5" t="n"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1" s="52">
+    <row r="866" ht="15.75" customHeight="1" s="51">
       <c r="A866" s="29" t="n"/>
       <c r="B866" s="29" t="n"/>
       <c r="C866" s="29" t="n"/>
@@ -24354,7 +24211,7 @@
       <c r="X866" s="5" t="n"/>
       <c r="Y866" s="5" t="n"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1" s="52">
+    <row r="867" ht="15.75" customHeight="1" s="51">
       <c r="A867" s="29" t="n"/>
       <c r="B867" s="29" t="n"/>
       <c r="C867" s="29" t="n"/>
@@ -24381,7 +24238,7 @@
       <c r="X867" s="5" t="n"/>
       <c r="Y867" s="5" t="n"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1" s="52">
+    <row r="868" ht="15.75" customHeight="1" s="51">
       <c r="A868" s="29" t="n"/>
       <c r="B868" s="29" t="n"/>
       <c r="C868" s="29" t="n"/>
@@ -24408,7 +24265,7 @@
       <c r="X868" s="5" t="n"/>
       <c r="Y868" s="5" t="n"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1" s="52">
+    <row r="869" ht="15.75" customHeight="1" s="51">
       <c r="A869" s="29" t="n"/>
       <c r="B869" s="29" t="n"/>
       <c r="C869" s="29" t="n"/>
@@ -24435,7 +24292,7 @@
       <c r="X869" s="5" t="n"/>
       <c r="Y869" s="5" t="n"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1" s="52">
+    <row r="870" ht="15.75" customHeight="1" s="51">
       <c r="A870" s="29" t="n"/>
       <c r="B870" s="29" t="n"/>
       <c r="C870" s="29" t="n"/>
@@ -24462,7 +24319,7 @@
       <c r="X870" s="5" t="n"/>
       <c r="Y870" s="5" t="n"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1" s="52">
+    <row r="871" ht="15.75" customHeight="1" s="51">
       <c r="A871" s="29" t="n"/>
       <c r="B871" s="29" t="n"/>
       <c r="C871" s="29" t="n"/>
@@ -24489,7 +24346,7 @@
       <c r="X871" s="5" t="n"/>
       <c r="Y871" s="5" t="n"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1" s="52">
+    <row r="872" ht="15.75" customHeight="1" s="51">
       <c r="A872" s="29" t="n"/>
       <c r="B872" s="29" t="n"/>
       <c r="C872" s="29" t="n"/>
@@ -24516,7 +24373,7 @@
       <c r="X872" s="5" t="n"/>
       <c r="Y872" s="5" t="n"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1" s="52">
+    <row r="873" ht="15.75" customHeight="1" s="51">
       <c r="A873" s="29" t="n"/>
       <c r="B873" s="29" t="n"/>
       <c r="C873" s="29" t="n"/>
@@ -24543,7 +24400,7 @@
       <c r="X873" s="5" t="n"/>
       <c r="Y873" s="5" t="n"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1" s="52">
+    <row r="874" ht="15.75" customHeight="1" s="51">
       <c r="A874" s="29" t="n"/>
       <c r="B874" s="29" t="n"/>
       <c r="C874" s="29" t="n"/>
@@ -24570,7 +24427,7 @@
       <c r="X874" s="5" t="n"/>
       <c r="Y874" s="5" t="n"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1" s="52">
+    <row r="875" ht="15.75" customHeight="1" s="51">
       <c r="A875" s="29" t="n"/>
       <c r="B875" s="29" t="n"/>
       <c r="C875" s="29" t="n"/>
@@ -24597,7 +24454,7 @@
       <c r="X875" s="5" t="n"/>
       <c r="Y875" s="5" t="n"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1" s="52">
+    <row r="876" ht="15.75" customHeight="1" s="51">
       <c r="A876" s="29" t="n"/>
       <c r="B876" s="29" t="n"/>
       <c r="C876" s="29" t="n"/>
@@ -24624,7 +24481,7 @@
       <c r="X876" s="5" t="n"/>
       <c r="Y876" s="5" t="n"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1" s="52">
+    <row r="877" ht="15.75" customHeight="1" s="51">
       <c r="A877" s="29" t="n"/>
       <c r="B877" s="29" t="n"/>
       <c r="C877" s="29" t="n"/>
@@ -24651,7 +24508,7 @@
       <c r="X877" s="5" t="n"/>
       <c r="Y877" s="5" t="n"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1" s="52">
+    <row r="878" ht="15.75" customHeight="1" s="51">
       <c r="A878" s="29" t="n"/>
       <c r="B878" s="29" t="n"/>
       <c r="C878" s="29" t="n"/>
@@ -24678,7 +24535,7 @@
       <c r="X878" s="5" t="n"/>
       <c r="Y878" s="5" t="n"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1" s="52">
+    <row r="879" ht="15.75" customHeight="1" s="51">
       <c r="A879" s="29" t="n"/>
       <c r="B879" s="29" t="n"/>
       <c r="C879" s="29" t="n"/>
@@ -24705,7 +24562,7 @@
       <c r="X879" s="5" t="n"/>
       <c r="Y879" s="5" t="n"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1" s="52">
+    <row r="880" ht="15.75" customHeight="1" s="51">
       <c r="A880" s="29" t="n"/>
       <c r="B880" s="29" t="n"/>
       <c r="C880" s="29" t="n"/>
@@ -24732,7 +24589,7 @@
       <c r="X880" s="5" t="n"/>
       <c r="Y880" s="5" t="n"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1" s="52">
+    <row r="881" ht="15.75" customHeight="1" s="51">
       <c r="A881" s="29" t="n"/>
       <c r="B881" s="29" t="n"/>
       <c r="C881" s="29" t="n"/>
@@ -24759,7 +24616,7 @@
       <c r="X881" s="5" t="n"/>
       <c r="Y881" s="5" t="n"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1" s="52">
+    <row r="882" ht="15.75" customHeight="1" s="51">
       <c r="A882" s="29" t="n"/>
       <c r="B882" s="29" t="n"/>
       <c r="C882" s="29" t="n"/>
@@ -24786,7 +24643,7 @@
       <c r="X882" s="5" t="n"/>
       <c r="Y882" s="5" t="n"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1" s="52">
+    <row r="883" ht="15.75" customHeight="1" s="51">
       <c r="A883" s="29" t="n"/>
       <c r="B883" s="29" t="n"/>
       <c r="C883" s="29" t="n"/>
@@ -24813,7 +24670,7 @@
       <c r="X883" s="5" t="n"/>
       <c r="Y883" s="5" t="n"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1" s="52">
+    <row r="884" ht="15.75" customHeight="1" s="51">
       <c r="A884" s="29" t="n"/>
       <c r="B884" s="29" t="n"/>
       <c r="C884" s="29" t="n"/>
@@ -24840,7 +24697,7 @@
       <c r="X884" s="5" t="n"/>
       <c r="Y884" s="5" t="n"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1" s="52">
+    <row r="885" ht="15.75" customHeight="1" s="51">
       <c r="A885" s="29" t="n"/>
       <c r="B885" s="29" t="n"/>
       <c r="C885" s="29" t="n"/>
@@ -24867,7 +24724,7 @@
       <c r="X885" s="5" t="n"/>
       <c r="Y885" s="5" t="n"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1" s="52">
+    <row r="886" ht="15.75" customHeight="1" s="51">
       <c r="A886" s="29" t="n"/>
       <c r="B886" s="29" t="n"/>
       <c r="C886" s="29" t="n"/>
@@ -24894,7 +24751,7 @@
       <c r="X886" s="5" t="n"/>
       <c r="Y886" s="5" t="n"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1" s="52">
+    <row r="887" ht="15.75" customHeight="1" s="51">
       <c r="A887" s="29" t="n"/>
       <c r="B887" s="29" t="n"/>
       <c r="C887" s="29" t="n"/>
@@ -24921,7 +24778,7 @@
       <c r="X887" s="5" t="n"/>
       <c r="Y887" s="5" t="n"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1" s="52">
+    <row r="888" ht="15.75" customHeight="1" s="51">
       <c r="A888" s="29" t="n"/>
       <c r="B888" s="29" t="n"/>
       <c r="C888" s="29" t="n"/>
@@ -24948,7 +24805,7 @@
       <c r="X888" s="5" t="n"/>
       <c r="Y888" s="5" t="n"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1" s="52">
+    <row r="889" ht="15.75" customHeight="1" s="51">
       <c r="A889" s="29" t="n"/>
       <c r="B889" s="29" t="n"/>
       <c r="C889" s="29" t="n"/>
@@ -24975,7 +24832,7 @@
       <c r="X889" s="5" t="n"/>
       <c r="Y889" s="5" t="n"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1" s="52">
+    <row r="890" ht="15.75" customHeight="1" s="51">
       <c r="A890" s="29" t="n"/>
       <c r="B890" s="29" t="n"/>
       <c r="C890" s="29" t="n"/>
@@ -25002,7 +24859,7 @@
       <c r="X890" s="5" t="n"/>
       <c r="Y890" s="5" t="n"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1" s="52">
+    <row r="891" ht="15.75" customHeight="1" s="51">
       <c r="A891" s="29" t="n"/>
       <c r="B891" s="29" t="n"/>
       <c r="C891" s="29" t="n"/>
@@ -25029,7 +24886,7 @@
       <c r="X891" s="5" t="n"/>
       <c r="Y891" s="5" t="n"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1" s="52">
+    <row r="892" ht="15.75" customHeight="1" s="51">
       <c r="A892" s="29" t="n"/>
       <c r="B892" s="29" t="n"/>
       <c r="C892" s="29" t="n"/>
@@ -25056,7 +24913,7 @@
       <c r="X892" s="5" t="n"/>
       <c r="Y892" s="5" t="n"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1" s="52">
+    <row r="893" ht="15.75" customHeight="1" s="51">
       <c r="A893" s="29" t="n"/>
       <c r="B893" s="29" t="n"/>
       <c r="C893" s="29" t="n"/>
@@ -25083,7 +24940,7 @@
       <c r="X893" s="5" t="n"/>
       <c r="Y893" s="5" t="n"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1" s="52">
+    <row r="894" ht="15.75" customHeight="1" s="51">
       <c r="A894" s="29" t="n"/>
       <c r="B894" s="29" t="n"/>
       <c r="C894" s="29" t="n"/>
@@ -25110,7 +24967,7 @@
       <c r="X894" s="5" t="n"/>
       <c r="Y894" s="5" t="n"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1" s="52">
+    <row r="895" ht="15.75" customHeight="1" s="51">
       <c r="A895" s="29" t="n"/>
       <c r="B895" s="29" t="n"/>
       <c r="C895" s="29" t="n"/>
@@ -25137,7 +24994,7 @@
       <c r="X895" s="5" t="n"/>
       <c r="Y895" s="5" t="n"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1" s="52">
+    <row r="896" ht="15.75" customHeight="1" s="51">
       <c r="A896" s="29" t="n"/>
       <c r="B896" s="29" t="n"/>
       <c r="C896" s="29" t="n"/>
@@ -25164,7 +25021,7 @@
       <c r="X896" s="5" t="n"/>
       <c r="Y896" s="5" t="n"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1" s="52">
+    <row r="897" ht="15.75" customHeight="1" s="51">
       <c r="A897" s="29" t="n"/>
       <c r="B897" s="29" t="n"/>
       <c r="C897" s="29" t="n"/>
@@ -25191,7 +25048,7 @@
       <c r="X897" s="5" t="n"/>
       <c r="Y897" s="5" t="n"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1" s="52">
+    <row r="898" ht="15.75" customHeight="1" s="51">
       <c r="A898" s="29" t="n"/>
       <c r="B898" s="29" t="n"/>
       <c r="C898" s="29" t="n"/>
@@ -25218,7 +25075,7 @@
       <c r="X898" s="5" t="n"/>
       <c r="Y898" s="5" t="n"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1" s="52">
+    <row r="899" ht="15.75" customHeight="1" s="51">
       <c r="A899" s="29" t="n"/>
       <c r="B899" s="29" t="n"/>
       <c r="C899" s="29" t="n"/>
@@ -25245,7 +25102,7 @@
       <c r="X899" s="5" t="n"/>
       <c r="Y899" s="5" t="n"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1" s="52">
+    <row r="900" ht="15.75" customHeight="1" s="51">
       <c r="A900" s="29" t="n"/>
       <c r="B900" s="29" t="n"/>
       <c r="C900" s="29" t="n"/>
@@ -25272,7 +25129,7 @@
       <c r="X900" s="5" t="n"/>
       <c r="Y900" s="5" t="n"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1" s="52">
+    <row r="901" ht="15.75" customHeight="1" s="51">
       <c r="A901" s="29" t="n"/>
       <c r="B901" s="29" t="n"/>
       <c r="C901" s="29" t="n"/>
@@ -25299,7 +25156,7 @@
       <c r="X901" s="5" t="n"/>
       <c r="Y901" s="5" t="n"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1" s="52">
+    <row r="902" ht="15.75" customHeight="1" s="51">
       <c r="A902" s="29" t="n"/>
       <c r="B902" s="29" t="n"/>
       <c r="C902" s="29" t="n"/>
@@ -25326,7 +25183,7 @@
       <c r="X902" s="5" t="n"/>
       <c r="Y902" s="5" t="n"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1" s="52">
+    <row r="903" ht="15.75" customHeight="1" s="51">
       <c r="A903" s="29" t="n"/>
       <c r="B903" s="29" t="n"/>
       <c r="C903" s="29" t="n"/>
@@ -25353,7 +25210,7 @@
       <c r="X903" s="5" t="n"/>
       <c r="Y903" s="5" t="n"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1" s="52">
+    <row r="904" ht="15.75" customHeight="1" s="51">
       <c r="A904" s="29" t="n"/>
       <c r="B904" s="29" t="n"/>
       <c r="C904" s="29" t="n"/>
@@ -25380,7 +25237,7 @@
       <c r="X904" s="5" t="n"/>
       <c r="Y904" s="5" t="n"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1" s="52">
+    <row r="905" ht="15.75" customHeight="1" s="51">
       <c r="A905" s="29" t="n"/>
       <c r="B905" s="29" t="n"/>
       <c r="C905" s="29" t="n"/>
@@ -25407,7 +25264,7 @@
       <c r="X905" s="5" t="n"/>
       <c r="Y905" s="5" t="n"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1" s="52">
+    <row r="906" ht="15.75" customHeight="1" s="51">
       <c r="A906" s="29" t="n"/>
       <c r="B906" s="29" t="n"/>
       <c r="C906" s="29" t="n"/>
@@ -25434,7 +25291,7 @@
       <c r="X906" s="5" t="n"/>
       <c r="Y906" s="5" t="n"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1" s="52">
+    <row r="907" ht="15.75" customHeight="1" s="51">
       <c r="A907" s="29" t="n"/>
       <c r="B907" s="29" t="n"/>
       <c r="C907" s="29" t="n"/>
@@ -25461,7 +25318,7 @@
       <c r="X907" s="5" t="n"/>
       <c r="Y907" s="5" t="n"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1" s="52">
+    <row r="908" ht="15.75" customHeight="1" s="51">
       <c r="A908" s="29" t="n"/>
       <c r="B908" s="29" t="n"/>
       <c r="C908" s="29" t="n"/>
@@ -25488,7 +25345,7 @@
       <c r="X908" s="5" t="n"/>
       <c r="Y908" s="5" t="n"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1" s="52">
+    <row r="909" ht="15.75" customHeight="1" s="51">
       <c r="A909" s="29" t="n"/>
       <c r="B909" s="29" t="n"/>
       <c r="C909" s="29" t="n"/>
@@ -25515,7 +25372,7 @@
       <c r="X909" s="5" t="n"/>
       <c r="Y909" s="5" t="n"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1" s="52">
+    <row r="910" ht="15.75" customHeight="1" s="51">
       <c r="A910" s="29" t="n"/>
       <c r="B910" s="29" t="n"/>
       <c r="C910" s="29" t="n"/>
@@ -25542,7 +25399,7 @@
       <c r="X910" s="5" t="n"/>
       <c r="Y910" s="5" t="n"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1" s="52">
+    <row r="911" ht="15.75" customHeight="1" s="51">
       <c r="A911" s="29" t="n"/>
       <c r="B911" s="29" t="n"/>
       <c r="C911" s="29" t="n"/>
@@ -25569,7 +25426,7 @@
       <c r="X911" s="5" t="n"/>
       <c r="Y911" s="5" t="n"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1" s="52">
+    <row r="912" ht="15.75" customHeight="1" s="51">
       <c r="A912" s="29" t="n"/>
       <c r="B912" s="29" t="n"/>
       <c r="C912" s="29" t="n"/>
@@ -25596,7 +25453,7 @@
       <c r="X912" s="5" t="n"/>
       <c r="Y912" s="5" t="n"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1" s="52">
+    <row r="913" ht="15.75" customHeight="1" s="51">
       <c r="A913" s="29" t="n"/>
       <c r="B913" s="29" t="n"/>
       <c r="C913" s="29" t="n"/>
@@ -25623,7 +25480,7 @@
       <c r="X913" s="5" t="n"/>
       <c r="Y913" s="5" t="n"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1" s="52">
+    <row r="914" ht="15.75" customHeight="1" s="51">
       <c r="A914" s="29" t="n"/>
       <c r="B914" s="29" t="n"/>
       <c r="C914" s="29" t="n"/>
@@ -25650,7 +25507,7 @@
       <c r="X914" s="5" t="n"/>
       <c r="Y914" s="5" t="n"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1" s="52">
+    <row r="915" ht="15.75" customHeight="1" s="51">
       <c r="A915" s="29" t="n"/>
       <c r="B915" s="29" t="n"/>
       <c r="C915" s="29" t="n"/>
@@ -25677,7 +25534,7 @@
       <c r="X915" s="5" t="n"/>
       <c r="Y915" s="5" t="n"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1" s="52">
+    <row r="916" ht="15.75" customHeight="1" s="51">
       <c r="A916" s="29" t="n"/>
       <c r="B916" s="29" t="n"/>
       <c r="C916" s="29" t="n"/>
@@ -25704,7 +25561,7 @@
       <c r="X916" s="5" t="n"/>
       <c r="Y916" s="5" t="n"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1" s="52">
+    <row r="917" ht="15.75" customHeight="1" s="51">
       <c r="A917" s="29" t="n"/>
       <c r="B917" s="29" t="n"/>
       <c r="C917" s="29" t="n"/>
@@ -25731,7 +25588,7 @@
       <c r="X917" s="5" t="n"/>
       <c r="Y917" s="5" t="n"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1" s="52">
+    <row r="918" ht="15.75" customHeight="1" s="51">
       <c r="A918" s="29" t="n"/>
       <c r="B918" s="29" t="n"/>
       <c r="C918" s="29" t="n"/>
@@ -25758,7 +25615,7 @@
       <c r="X918" s="5" t="n"/>
       <c r="Y918" s="5" t="n"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1" s="52">
+    <row r="919" ht="15.75" customHeight="1" s="51">
       <c r="A919" s="29" t="n"/>
       <c r="B919" s="29" t="n"/>
       <c r="C919" s="29" t="n"/>
@@ -25785,7 +25642,7 @@
       <c r="X919" s="5" t="n"/>
       <c r="Y919" s="5" t="n"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1" s="52">
+    <row r="920" ht="15.75" customHeight="1" s="51">
       <c r="A920" s="29" t="n"/>
       <c r="B920" s="29" t="n"/>
       <c r="C920" s="29" t="n"/>
@@ -25812,7 +25669,7 @@
       <c r="X920" s="5" t="n"/>
       <c r="Y920" s="5" t="n"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1" s="52">
+    <row r="921" ht="15.75" customHeight="1" s="51">
       <c r="A921" s="29" t="n"/>
       <c r="B921" s="29" t="n"/>
       <c r="C921" s="29" t="n"/>
@@ -25839,7 +25696,7 @@
       <c r="X921" s="5" t="n"/>
       <c r="Y921" s="5" t="n"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1" s="52">
+    <row r="922" ht="15.75" customHeight="1" s="51">
       <c r="A922" s="29" t="n"/>
       <c r="B922" s="29" t="n"/>
       <c r="C922" s="29" t="n"/>
@@ -25866,7 +25723,7 @@
       <c r="X922" s="5" t="n"/>
       <c r="Y922" s="5" t="n"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1" s="52">
+    <row r="923" ht="15.75" customHeight="1" s="51">
       <c r="A923" s="29" t="n"/>
       <c r="B923" s="29" t="n"/>
       <c r="C923" s="29" t="n"/>
@@ -25893,7 +25750,7 @@
       <c r="X923" s="5" t="n"/>
       <c r="Y923" s="5" t="n"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1" s="52">
+    <row r="924" ht="15.75" customHeight="1" s="51">
       <c r="A924" s="29" t="n"/>
       <c r="B924" s="29" t="n"/>
       <c r="C924" s="29" t="n"/>
@@ -25920,7 +25777,7 @@
       <c r="X924" s="5" t="n"/>
       <c r="Y924" s="5" t="n"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1" s="52">
+    <row r="925" ht="15.75" customHeight="1" s="51">
       <c r="A925" s="29" t="n"/>
       <c r="B925" s="29" t="n"/>
       <c r="C925" s="29" t="n"/>
@@ -25947,7 +25804,7 @@
       <c r="X925" s="5" t="n"/>
       <c r="Y925" s="5" t="n"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1" s="52">
+    <row r="926" ht="15.75" customHeight="1" s="51">
       <c r="A926" s="29" t="n"/>
       <c r="B926" s="29" t="n"/>
       <c r="C926" s="29" t="n"/>
@@ -25974,7 +25831,7 @@
       <c r="X926" s="5" t="n"/>
       <c r="Y926" s="5" t="n"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1" s="52">
+    <row r="927" ht="15.75" customHeight="1" s="51">
       <c r="A927" s="29" t="n"/>
       <c r="B927" s="29" t="n"/>
       <c r="C927" s="29" t="n"/>
@@ -26001,7 +25858,7 @@
       <c r="X927" s="5" t="n"/>
       <c r="Y927" s="5" t="n"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1" s="52">
+    <row r="928" ht="15.75" customHeight="1" s="51">
       <c r="A928" s="29" t="n"/>
       <c r="B928" s="29" t="n"/>
       <c r="C928" s="29" t="n"/>
@@ -26028,7 +25885,7 @@
       <c r="X928" s="5" t="n"/>
       <c r="Y928" s="5" t="n"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1" s="52">
+    <row r="929" ht="15.75" customHeight="1" s="51">
       <c r="A929" s="29" t="n"/>
       <c r="B929" s="29" t="n"/>
       <c r="C929" s="29" t="n"/>
@@ -26055,7 +25912,7 @@
       <c r="X929" s="5" t="n"/>
       <c r="Y929" s="5" t="n"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1" s="52">
+    <row r="930" ht="15.75" customHeight="1" s="51">
       <c r="A930" s="29" t="n"/>
       <c r="B930" s="29" t="n"/>
       <c r="C930" s="29" t="n"/>
@@ -26082,7 +25939,7 @@
       <c r="X930" s="5" t="n"/>
       <c r="Y930" s="5" t="n"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1" s="52">
+    <row r="931" ht="15.75" customHeight="1" s="51">
       <c r="A931" s="29" t="n"/>
       <c r="B931" s="29" t="n"/>
       <c r="C931" s="29" t="n"/>
@@ -26109,7 +25966,7 @@
       <c r="X931" s="5" t="n"/>
       <c r="Y931" s="5" t="n"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1" s="52">
+    <row r="932" ht="15.75" customHeight="1" s="51">
       <c r="A932" s="29" t="n"/>
       <c r="B932" s="29" t="n"/>
       <c r="C932" s="29" t="n"/>
@@ -26136,7 +25993,7 @@
       <c r="X932" s="5" t="n"/>
       <c r="Y932" s="5" t="n"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1" s="52">
+    <row r="933" ht="15.75" customHeight="1" s="51">
       <c r="A933" s="29" t="n"/>
       <c r="B933" s="29" t="n"/>
       <c r="C933" s="29" t="n"/>
@@ -26163,7 +26020,7 @@
       <c r="X933" s="5" t="n"/>
       <c r="Y933" s="5" t="n"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1" s="52">
+    <row r="934" ht="15.75" customHeight="1" s="51">
       <c r="A934" s="29" t="n"/>
       <c r="B934" s="29" t="n"/>
       <c r="C934" s="29" t="n"/>
@@ -26190,7 +26047,7 @@
       <c r="X934" s="5" t="n"/>
       <c r="Y934" s="5" t="n"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1" s="52">
+    <row r="935" ht="15.75" customHeight="1" s="51">
       <c r="A935" s="29" t="n"/>
       <c r="B935" s="29" t="n"/>
       <c r="C935" s="29" t="n"/>
@@ -26217,7 +26074,7 @@
       <c r="X935" s="5" t="n"/>
       <c r="Y935" s="5" t="n"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1" s="52">
+    <row r="936" ht="15.75" customHeight="1" s="51">
       <c r="A936" s="29" t="n"/>
       <c r="B936" s="29" t="n"/>
       <c r="C936" s="29" t="n"/>
@@ -26244,7 +26101,7 @@
       <c r="X936" s="5" t="n"/>
       <c r="Y936" s="5" t="n"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1" s="52">
+    <row r="937" ht="15.75" customHeight="1" s="51">
       <c r="A937" s="29" t="n"/>
       <c r="B937" s="29" t="n"/>
       <c r="C937" s="29" t="n"/>
@@ -26271,7 +26128,7 @@
       <c r="X937" s="5" t="n"/>
       <c r="Y937" s="5" t="n"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1" s="52">
+    <row r="938" ht="15.75" customHeight="1" s="51">
       <c r="A938" s="29" t="n"/>
       <c r="B938" s="29" t="n"/>
       <c r="C938" s="29" t="n"/>
@@ -26298,7 +26155,7 @@
       <c r="X938" s="5" t="n"/>
       <c r="Y938" s="5" t="n"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1" s="52">
+    <row r="939" ht="15.75" customHeight="1" s="51">
       <c r="A939" s="29" t="n"/>
       <c r="B939" s="29" t="n"/>
       <c r="C939" s="29" t="n"/>
@@ -26325,7 +26182,7 @@
       <c r="X939" s="5" t="n"/>
       <c r="Y939" s="5" t="n"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1" s="52">
+    <row r="940" ht="15.75" customHeight="1" s="51">
       <c r="A940" s="29" t="n"/>
       <c r="B940" s="29" t="n"/>
       <c r="C940" s="29" t="n"/>
@@ -26352,7 +26209,7 @@
       <c r="X940" s="5" t="n"/>
       <c r="Y940" s="5" t="n"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1" s="52">
+    <row r="941" ht="15.75" customHeight="1" s="51">
       <c r="A941" s="29" t="n"/>
       <c r="B941" s="29" t="n"/>
       <c r="C941" s="29" t="n"/>
@@ -26379,7 +26236,7 @@
       <c r="X941" s="5" t="n"/>
       <c r="Y941" s="5" t="n"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1" s="52">
+    <row r="942" ht="15.75" customHeight="1" s="51">
       <c r="A942" s="29" t="n"/>
       <c r="B942" s="29" t="n"/>
       <c r="C942" s="29" t="n"/>
@@ -26406,7 +26263,7 @@
       <c r="X942" s="5" t="n"/>
       <c r="Y942" s="5" t="n"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1" s="52">
+    <row r="943" ht="15.75" customHeight="1" s="51">
       <c r="A943" s="29" t="n"/>
       <c r="B943" s="29" t="n"/>
       <c r="C943" s="29" t="n"/>
@@ -26433,7 +26290,7 @@
       <c r="X943" s="5" t="n"/>
       <c r="Y943" s="5" t="n"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1" s="52">
+    <row r="944" ht="15.75" customHeight="1" s="51">
       <c r="A944" s="29" t="n"/>
       <c r="B944" s="29" t="n"/>
       <c r="C944" s="29" t="n"/>
@@ -26460,7 +26317,7 @@
       <c r="X944" s="5" t="n"/>
       <c r="Y944" s="5" t="n"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1" s="52">
+    <row r="945" ht="15.75" customHeight="1" s="51">
       <c r="A945" s="29" t="n"/>
       <c r="B945" s="29" t="n"/>
       <c r="C945" s="29" t="n"/>
@@ -26487,7 +26344,7 @@
       <c r="X945" s="5" t="n"/>
       <c r="Y945" s="5" t="n"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1" s="52">
+    <row r="946" ht="15.75" customHeight="1" s="51">
       <c r="A946" s="29" t="n"/>
       <c r="B946" s="29" t="n"/>
       <c r="C946" s="29" t="n"/>
@@ -26514,7 +26371,7 @@
       <c r="X946" s="5" t="n"/>
       <c r="Y946" s="5" t="n"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1" s="52">
+    <row r="947" ht="15.75" customHeight="1" s="51">
       <c r="A947" s="29" t="n"/>
       <c r="B947" s="29" t="n"/>
       <c r="C947" s="29" t="n"/>
@@ -26541,7 +26398,7 @@
       <c r="X947" s="5" t="n"/>
       <c r="Y947" s="5" t="n"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1" s="52">
+    <row r="948" ht="15.75" customHeight="1" s="51">
       <c r="A948" s="29" t="n"/>
       <c r="B948" s="29" t="n"/>
       <c r="C948" s="29" t="n"/>
@@ -26568,7 +26425,7 @@
       <c r="X948" s="5" t="n"/>
       <c r="Y948" s="5" t="n"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1" s="52">
+    <row r="949" ht="15.75" customHeight="1" s="51">
       <c r="A949" s="29" t="n"/>
       <c r="B949" s="29" t="n"/>
       <c r="C949" s="29" t="n"/>
@@ -26595,7 +26452,7 @@
       <c r="X949" s="5" t="n"/>
       <c r="Y949" s="5" t="n"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1" s="52">
+    <row r="950" ht="15.75" customHeight="1" s="51">
       <c r="A950" s="29" t="n"/>
       <c r="B950" s="29" t="n"/>
       <c r="C950" s="29" t="n"/>
@@ -26622,7 +26479,7 @@
       <c r="X950" s="5" t="n"/>
       <c r="Y950" s="5" t="n"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1" s="52">
+    <row r="951" ht="15.75" customHeight="1" s="51">
       <c r="A951" s="29" t="n"/>
       <c r="B951" s="29" t="n"/>
       <c r="C951" s="29" t="n"/>
@@ -26649,7 +26506,7 @@
       <c r="X951" s="5" t="n"/>
       <c r="Y951" s="5" t="n"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1" s="52">
+    <row r="952" ht="15.75" customHeight="1" s="51">
       <c r="A952" s="29" t="n"/>
       <c r="B952" s="29" t="n"/>
       <c r="C952" s="29" t="n"/>
@@ -26676,7 +26533,7 @@
       <c r="X952" s="5" t="n"/>
       <c r="Y952" s="5" t="n"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1" s="52">
+    <row r="953" ht="15.75" customHeight="1" s="51">
       <c r="A953" s="29" t="n"/>
       <c r="B953" s="29" t="n"/>
       <c r="C953" s="29" t="n"/>
@@ -26703,7 +26560,7 @@
       <c r="X953" s="5" t="n"/>
       <c r="Y953" s="5" t="n"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1" s="52">
+    <row r="954" ht="15.75" customHeight="1" s="51">
       <c r="A954" s="29" t="n"/>
       <c r="B954" s="29" t="n"/>
       <c r="C954" s="29" t="n"/>
@@ -26730,7 +26587,7 @@
       <c r="X954" s="5" t="n"/>
       <c r="Y954" s="5" t="n"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1" s="52">
+    <row r="955" ht="15.75" customHeight="1" s="51">
       <c r="A955" s="29" t="n"/>
       <c r="B955" s="29" t="n"/>
       <c r="C955" s="29" t="n"/>
@@ -26757,7 +26614,7 @@
       <c r="X955" s="5" t="n"/>
       <c r="Y955" s="5" t="n"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1" s="52">
+    <row r="956" ht="15.75" customHeight="1" s="51">
       <c r="A956" s="29" t="n"/>
       <c r="B956" s="29" t="n"/>
       <c r="C956" s="29" t="n"/>
@@ -26784,7 +26641,7 @@
       <c r="X956" s="5" t="n"/>
       <c r="Y956" s="5" t="n"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1" s="52">
+    <row r="957" ht="15.75" customHeight="1" s="51">
       <c r="A957" s="29" t="n"/>
       <c r="B957" s="29" t="n"/>
       <c r="C957" s="29" t="n"/>
@@ -26811,7 +26668,7 @@
       <c r="X957" s="5" t="n"/>
       <c r="Y957" s="5" t="n"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1" s="52">
+    <row r="958" ht="15.75" customHeight="1" s="51">
       <c r="A958" s="29" t="n"/>
       <c r="B958" s="29" t="n"/>
       <c r="C958" s="29" t="n"/>
@@ -26838,7 +26695,7 @@
       <c r="X958" s="5" t="n"/>
       <c r="Y958" s="5" t="n"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1" s="52">
+    <row r="959" ht="15.75" customHeight="1" s="51">
       <c r="A959" s="29" t="n"/>
       <c r="B959" s="29" t="n"/>
       <c r="C959" s="29" t="n"/>
@@ -26865,7 +26722,7 @@
       <c r="X959" s="5" t="n"/>
       <c r="Y959" s="5" t="n"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1" s="52">
+    <row r="960" ht="15.75" customHeight="1" s="51">
       <c r="A960" s="29" t="n"/>
       <c r="B960" s="29" t="n"/>
       <c r="C960" s="29" t="n"/>
@@ -26892,7 +26749,7 @@
       <c r="X960" s="5" t="n"/>
       <c r="Y960" s="5" t="n"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1" s="52">
+    <row r="961" ht="15.75" customHeight="1" s="51">
       <c r="A961" s="29" t="n"/>
       <c r="B961" s="29" t="n"/>
       <c r="C961" s="29" t="n"/>
@@ -26919,7 +26776,7 @@
       <c r="X961" s="5" t="n"/>
       <c r="Y961" s="5" t="n"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1" s="52">
+    <row r="962" ht="15.75" customHeight="1" s="51">
       <c r="A962" s="29" t="n"/>
       <c r="B962" s="29" t="n"/>
       <c r="C962" s="29" t="n"/>
@@ -26946,7 +26803,7 @@
       <c r="X962" s="5" t="n"/>
       <c r="Y962" s="5" t="n"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1" s="52">
+    <row r="963" ht="15.75" customHeight="1" s="51">
       <c r="A963" s="29" t="n"/>
       <c r="B963" s="29" t="n"/>
       <c r="C963" s="29" t="n"/>
@@ -26973,7 +26830,7 @@
       <c r="X963" s="5" t="n"/>
       <c r="Y963" s="5" t="n"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1" s="52">
+    <row r="964" ht="15.75" customHeight="1" s="51">
       <c r="A964" s="29" t="n"/>
       <c r="B964" s="29" t="n"/>
       <c r="C964" s="29" t="n"/>
@@ -27000,7 +26857,7 @@
       <c r="X964" s="5" t="n"/>
       <c r="Y964" s="5" t="n"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1" s="52">
+    <row r="965" ht="15.75" customHeight="1" s="51">
       <c r="A965" s="29" t="n"/>
       <c r="B965" s="29" t="n"/>
       <c r="C965" s="29" t="n"/>
@@ -27027,7 +26884,7 @@
       <c r="X965" s="5" t="n"/>
       <c r="Y965" s="5" t="n"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1" s="52">
+    <row r="966" ht="15.75" customHeight="1" s="51">
       <c r="A966" s="29" t="n"/>
       <c r="B966" s="29" t="n"/>
       <c r="C966" s="29" t="n"/>
@@ -27054,7 +26911,7 @@
       <c r="X966" s="5" t="n"/>
       <c r="Y966" s="5" t="n"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1" s="52">
+    <row r="967" ht="15.75" customHeight="1" s="51">
       <c r="A967" s="29" t="n"/>
       <c r="B967" s="29" t="n"/>
       <c r="C967" s="29" t="n"/>
@@ -27081,7 +26938,7 @@
       <c r="X967" s="5" t="n"/>
       <c r="Y967" s="5" t="n"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1" s="52">
+    <row r="968" ht="15.75" customHeight="1" s="51">
       <c r="A968" s="29" t="n"/>
       <c r="B968" s="29" t="n"/>
       <c r="C968" s="29" t="n"/>
@@ -27108,7 +26965,7 @@
       <c r="X968" s="5" t="n"/>
       <c r="Y968" s="5" t="n"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1" s="52">
+    <row r="969" ht="15.75" customHeight="1" s="51">
       <c r="A969" s="29" t="n"/>
       <c r="B969" s="29" t="n"/>
       <c r="C969" s="29" t="n"/>
@@ -27135,7 +26992,7 @@
       <c r="X969" s="5" t="n"/>
       <c r="Y969" s="5" t="n"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1" s="52">
+    <row r="970" ht="15.75" customHeight="1" s="51">
       <c r="A970" s="29" t="n"/>
       <c r="B970" s="29" t="n"/>
       <c r="C970" s="29" t="n"/>
@@ -27162,7 +27019,7 @@
       <c r="X970" s="5" t="n"/>
       <c r="Y970" s="5" t="n"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1" s="52">
+    <row r="971" ht="15.75" customHeight="1" s="51">
       <c r="A971" s="29" t="n"/>
       <c r="B971" s="29" t="n"/>
       <c r="C971" s="29" t="n"/>
@@ -27189,7 +27046,7 @@
       <c r="X971" s="5" t="n"/>
       <c r="Y971" s="5" t="n"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1" s="52">
+    <row r="972" ht="15.75" customHeight="1" s="51">
       <c r="A972" s="29" t="n"/>
       <c r="B972" s="29" t="n"/>
       <c r="C972" s="29" t="n"/>
@@ -27216,7 +27073,7 @@
       <c r="X972" s="5" t="n"/>
       <c r="Y972" s="5" t="n"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1" s="52">
+    <row r="973" ht="15.75" customHeight="1" s="51">
       <c r="A973" s="29" t="n"/>
       <c r="B973" s="29" t="n"/>
       <c r="C973" s="29" t="n"/>
@@ -27243,7 +27100,7 @@
       <c r="X973" s="5" t="n"/>
       <c r="Y973" s="5" t="n"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1" s="52">
+    <row r="974" ht="15.75" customHeight="1" s="51">
       <c r="A974" s="29" t="n"/>
       <c r="B974" s="29" t="n"/>
       <c r="C974" s="29" t="n"/>
@@ -27270,7 +27127,7 @@
       <c r="X974" s="5" t="n"/>
       <c r="Y974" s="5" t="n"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1" s="52">
+    <row r="975" ht="15.75" customHeight="1" s="51">
       <c r="A975" s="29" t="n"/>
       <c r="B975" s="29" t="n"/>
       <c r="C975" s="29" t="n"/>
@@ -27297,7 +27154,7 @@
       <c r="X975" s="5" t="n"/>
       <c r="Y975" s="5" t="n"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1" s="52">
+    <row r="976" ht="15.75" customHeight="1" s="51">
       <c r="A976" s="29" t="n"/>
       <c r="B976" s="29" t="n"/>
       <c r="C976" s="29" t="n"/>
@@ -27324,7 +27181,7 @@
       <c r="X976" s="5" t="n"/>
       <c r="Y976" s="5" t="n"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1" s="52">
+    <row r="977" ht="15.75" customHeight="1" s="51">
       <c r="A977" s="29" t="n"/>
       <c r="B977" s="29" t="n"/>
       <c r="C977" s="29" t="n"/>
@@ -27351,7 +27208,7 @@
       <c r="X977" s="5" t="n"/>
       <c r="Y977" s="5" t="n"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1" s="52">
+    <row r="978" ht="15.75" customHeight="1" s="51">
       <c r="A978" s="29" t="n"/>
       <c r="B978" s="29" t="n"/>
       <c r="C978" s="29" t="n"/>
@@ -27378,7 +27235,7 @@
       <c r="X978" s="5" t="n"/>
       <c r="Y978" s="5" t="n"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1" s="52">
+    <row r="979" ht="15.75" customHeight="1" s="51">
       <c r="A979" s="29" t="n"/>
       <c r="B979" s="29" t="n"/>
       <c r="C979" s="29" t="n"/>
@@ -27405,7 +27262,7 @@
       <c r="X979" s="5" t="n"/>
       <c r="Y979" s="5" t="n"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1" s="52">
+    <row r="980" ht="15.75" customHeight="1" s="51">
       <c r="A980" s="29" t="n"/>
       <c r="B980" s="29" t="n"/>
       <c r="C980" s="29" t="n"/>
@@ -27432,7 +27289,7 @@
       <c r="X980" s="5" t="n"/>
       <c r="Y980" s="5" t="n"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1" s="52">
+    <row r="981" ht="15.75" customHeight="1" s="51">
       <c r="A981" s="29" t="n"/>
       <c r="B981" s="29" t="n"/>
       <c r="C981" s="29" t="n"/>
@@ -27459,7 +27316,7 @@
       <c r="X981" s="5" t="n"/>
       <c r="Y981" s="5" t="n"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1" s="52">
+    <row r="982" ht="15.75" customHeight="1" s="51">
       <c r="A982" s="29" t="n"/>
       <c r="B982" s="29" t="n"/>
       <c r="C982" s="29" t="n"/>
@@ -27486,7 +27343,7 @@
       <c r="X982" s="5" t="n"/>
       <c r="Y982" s="5" t="n"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1" s="52">
+    <row r="983" ht="15.75" customHeight="1" s="51">
       <c r="A983" s="29" t="n"/>
       <c r="B983" s="29" t="n"/>
       <c r="C983" s="29" t="n"/>
@@ -27513,7 +27370,7 @@
       <c r="X983" s="5" t="n"/>
       <c r="Y983" s="5" t="n"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1" s="52">
+    <row r="984" ht="15.75" customHeight="1" s="51">
       <c r="A984" s="29" t="n"/>
       <c r="B984" s="29" t="n"/>
       <c r="C984" s="29" t="n"/>
@@ -27540,7 +27397,7 @@
       <c r="X984" s="5" t="n"/>
       <c r="Y984" s="5" t="n"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1" s="52">
+    <row r="985" ht="15.75" customHeight="1" s="51">
       <c r="A985" s="29" t="n"/>
       <c r="B985" s="29" t="n"/>
       <c r="C985" s="29" t="n"/>
@@ -27567,7 +27424,7 @@
       <c r="X985" s="5" t="n"/>
       <c r="Y985" s="5" t="n"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1" s="52">
+    <row r="986" ht="15.75" customHeight="1" s="51">
       <c r="A986" s="29" t="n"/>
       <c r="B986" s="29" t="n"/>
       <c r="C986" s="29" t="n"/>
@@ -27594,7 +27451,7 @@
       <c r="X986" s="5" t="n"/>
       <c r="Y986" s="5" t="n"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1" s="52">
+    <row r="987" ht="15.75" customHeight="1" s="51">
       <c r="A987" s="29" t="n"/>
       <c r="B987" s="29" t="n"/>
       <c r="C987" s="29" t="n"/>
@@ -27621,7 +27478,7 @@
       <c r="X987" s="5" t="n"/>
       <c r="Y987" s="5" t="n"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1" s="52">
+    <row r="988" ht="15.75" customHeight="1" s="51">
       <c r="A988" s="29" t="n"/>
       <c r="B988" s="29" t="n"/>
       <c r="C988" s="29" t="n"/>
@@ -27648,7 +27505,7 @@
       <c r="X988" s="5" t="n"/>
       <c r="Y988" s="5" t="n"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1" s="52">
+    <row r="989" ht="15.75" customHeight="1" s="51">
       <c r="A989" s="29" t="n"/>
       <c r="B989" s="29" t="n"/>
       <c r="C989" s="29" t="n"/>
@@ -27675,7 +27532,7 @@
       <c r="X989" s="5" t="n"/>
       <c r="Y989" s="5" t="n"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1" s="52">
+    <row r="990" ht="15.75" customHeight="1" s="51">
       <c r="A990" s="29" t="n"/>
       <c r="B990" s="29" t="n"/>
       <c r="C990" s="29" t="n"/>
@@ -27702,7 +27559,7 @@
       <c r="X990" s="5" t="n"/>
       <c r="Y990" s="5" t="n"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1" s="52">
+    <row r="991" ht="15.75" customHeight="1" s="51">
       <c r="A991" s="29" t="n"/>
       <c r="B991" s="29" t="n"/>
       <c r="C991" s="29" t="n"/>
@@ -27729,7 +27586,7 @@
       <c r="X991" s="5" t="n"/>
       <c r="Y991" s="5" t="n"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1" s="52">
+    <row r="992" ht="15.75" customHeight="1" s="51">
       <c r="A992" s="29" t="n"/>
       <c r="B992" s="29" t="n"/>
       <c r="C992" s="29" t="n"/>
@@ -27756,7 +27613,7 @@
       <c r="X992" s="5" t="n"/>
       <c r="Y992" s="5" t="n"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1" s="52">
+    <row r="993" ht="15.75" customHeight="1" s="51">
       <c r="A993" s="29" t="n"/>
       <c r="B993" s="29" t="n"/>
       <c r="C993" s="29" t="n"/>
@@ -27783,7 +27640,7 @@
       <c r="X993" s="5" t="n"/>
       <c r="Y993" s="5" t="n"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1" s="52">
+    <row r="994" ht="15.75" customHeight="1" s="51">
       <c r="A994" s="29" t="n"/>
       <c r="B994" s="29" t="n"/>
       <c r="C994" s="29" t="n"/>
@@ -27810,7 +27667,7 @@
       <c r="X994" s="5" t="n"/>
       <c r="Y994" s="5" t="n"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1" s="52">
+    <row r="995" ht="15.75" customHeight="1" s="51">
       <c r="A995" s="29" t="n"/>
       <c r="B995" s="29" t="n"/>
       <c r="C995" s="29" t="n"/>
@@ -27842,15 +27699,15 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
@@ -27866,16 +27723,16 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D36:G38"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="D32:G34"/>
     <mergeCell ref="C29:E29"/>
